--- a/RL_DS/utils/modelo_excel.xlsx
+++ b/RL_DS/utils/modelo_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDRIVE_JCE\Mi unidad\cod\RL_DS_dynamic\RL_DS\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AC8BD0-1B0D-4B56-B211-A8B40E12748F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC02ACF-7BCC-4B44-814D-03AE7D98C0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9190A782-109A-4E43-A899-3A4B83188105}"/>
   </bookViews>
@@ -164,9 +164,9 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -283,23 +283,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -311,22 +295,19 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -335,7 +316,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -344,7 +325,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -365,8 +346,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,7 +689,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +701,7 @@
     <col min="6" max="6" width="11.42578125" style="7"/>
     <col min="7" max="7" width="17" style="7" customWidth="1"/>
     <col min="8" max="8" width="18" style="7" customWidth="1"/>
-    <col min="9" max="9" width="23" style="30" customWidth="1"/>
+    <col min="9" max="9" width="23" style="24" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" style="3" customWidth="1"/>
@@ -731,7 +715,7 @@
       <c r="G1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="24" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -769,19 +753,19 @@
       <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -802,38 +786,38 @@
       <c r="O3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="36">
+      <c r="Q3" s="29">
         <f>O42</f>
-        <v>609.56986769869638</v>
+        <v>619.82443721235416</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="31"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="23">
+      <c r="L4" s="8">
         <f>SUM(L7:L53)</f>
-        <v>643.8363087998822</v>
-      </c>
-      <c r="M4" s="23">
-        <f t="shared" ref="L4:M4" si="0">SUM(M7:M53)</f>
-        <v>127.46092429062739</v>
-      </c>
-      <c r="N4" s="23">
+        <v>802.10404884968261</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" ref="M4" si="0">SUM(M7:M53)</f>
+        <v>79.75224338196081</v>
+      </c>
+      <c r="N4" s="8">
         <f>SUM(N7:N53)</f>
-        <v>771.29723309050974</v>
+        <v>881.85629223164335</v>
       </c>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -847,7 +831,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="32"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="M5" s="6"/>
@@ -855,7 +839,7 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2">
         <v>-1</v>
       </c>
@@ -867,7 +851,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="32"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -876,7 +860,7 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -884,7 +868,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="13">
-        <v>257.88594799999998</v>
+        <v>257.87345900000003</v>
       </c>
       <c r="E7" s="6">
         <v>1000</v>
@@ -898,7 +882,7 @@
       <c r="H7" s="6">
         <v>100</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="26">
         <f>E7/$I$2</f>
         <v>100</v>
       </c>
@@ -910,15 +894,15 @@
       </c>
       <c r="L7" s="2">
         <f>(D7^2)*$M$2</f>
-        <v>66.5051621758587</v>
-      </c>
-      <c r="M7" s="39">
+        <v>66.498720856624701</v>
+      </c>
+      <c r="M7" s="32">
         <f>$K$2*(J7-K7)^2</f>
         <v>0</v>
       </c>
       <c r="N7" s="6">
         <f>L7+M7</f>
-        <v>66.5051621758587</v>
+        <v>66.498720856624701</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -932,7 +916,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="13">
-        <v>209.57960399999999</v>
+        <v>209.57297500000001</v>
       </c>
       <c r="E8" s="7">
         <f>E7+D5-H8</f>
@@ -950,7 +934,7 @@
         <f>F8</f>
         <v>100</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="24">
         <f t="shared" ref="I8:I42" si="2">E8/$I$2</f>
         <v>100</v>
       </c>
@@ -964,19 +948,19 @@
       </c>
       <c r="L8" s="3">
         <f>(D8^2)*$M$2</f>
-        <v>43.923610412796812</v>
-      </c>
-      <c r="M8" s="35">
+        <v>43.920831850350631</v>
+      </c>
+      <c r="M8" s="28">
         <f>$K$2*(J8-K8)^2</f>
         <v>0</v>
       </c>
       <c r="N8" s="7">
         <f>L8+M8</f>
-        <v>43.923610412796812</v>
-      </c>
-      <c r="O8" s="42">
+        <v>43.920831850350631</v>
+      </c>
+      <c r="O8" s="35">
         <f>N7+O7</f>
-        <v>66.5051621758587</v>
+        <v>66.498720856624701</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -987,7 +971,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="13">
-        <v>170.28192899999999</v>
+        <v>170.26967400000001</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ref="E9:E41" si="5">E8+D5-H8</f>
@@ -1005,7 +989,7 @@
         <f t="shared" ref="H9:H42" si="7">F9</f>
         <v>100</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="24">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -1019,19 +1003,19 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" ref="L9:L42" si="8">(D9^2)*$M$2</f>
-        <v>28.99593534396104</v>
-      </c>
-      <c r="M9" s="35">
+        <v>28.991761884066282</v>
+      </c>
+      <c r="M9" s="28">
         <f t="shared" ref="M9:M41" si="9">$K$2*(J9-K9)^2</f>
         <v>0</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" ref="N9:N42" si="10">L9+M9</f>
-        <v>28.99593534396104</v>
-      </c>
-      <c r="O9" s="43">
+        <v>28.991761884066282</v>
+      </c>
+      <c r="O9" s="36">
         <f>N8+O8</f>
-        <v>110.42877258865551</v>
+        <v>110.41955270697534</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1042,7 +1026,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="13">
-        <v>140.48525000000001</v>
+        <v>140.45232999999999</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="5"/>
@@ -1060,7 +1044,7 @@
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="24">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -1074,19 +1058,19 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="8"/>
-        <v>19.736105467562503</v>
-      </c>
-      <c r="M10" s="35">
+        <v>19.726857002428897</v>
+      </c>
+      <c r="M10" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="10"/>
-        <v>19.736105467562503</v>
-      </c>
-      <c r="O10" s="43">
-        <f t="shared" ref="O10:O42" si="11">N9+O9</f>
-        <v>139.42470793261654</v>
+        <v>19.726857002428897</v>
+      </c>
+      <c r="O10" s="36">
+        <f t="shared" ref="O10:O41" si="11">N9+O9</f>
+        <v>139.41131459104162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1097,27 +1081,27 @@
         <v>120</v>
       </c>
       <c r="D11" s="13">
-        <v>119.745895</v>
+        <v>119.747095</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="5"/>
-        <v>1157.8859480000001</v>
+        <v>1157.8734589999999</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G11" s="7">
-        <f>(I11-F11)/$G$2</f>
-        <v>5.2628649333333373</v>
+        <f t="shared" ref="G11:G42" si="12">(I11-F11)/$G$2</f>
+        <v>5.2624486333333307</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="24">
         <f t="shared" si="2"/>
-        <v>115.78859480000001</v>
+        <v>115.78734589999999</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="3"/>
@@ -1129,19 +1113,19 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" si="8"/>
-        <v>14.339079369351026</v>
-      </c>
-      <c r="M11" s="35">
+        <v>14.339366760939026</v>
+      </c>
+      <c r="M11" s="28">
         <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="N11" s="7">
         <f>L11+M11</f>
-        <v>15.139079369351027</v>
-      </c>
-      <c r="O11" s="44">
+        <v>15.139366760939026</v>
+      </c>
+      <c r="O11" s="37">
         <f>N10+O10</f>
-        <v>159.16081340017905</v>
+        <v>159.1381715934705</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1152,27 +1136,27 @@
         <v>120</v>
       </c>
       <c r="D12" s="13">
-        <v>106.944228</v>
+        <v>106.932964</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="5"/>
-        <v>1267.4655520000001</v>
+        <v>1267.446434</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>105.26286493333333</v>
+        <v>105.26244863333334</v>
       </c>
       <c r="G12" s="7">
-        <f>(I12-F12)/$G$2</f>
-        <v>7.1612300888888951</v>
+        <f t="shared" si="12"/>
+        <v>7.1607315888888889</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="7"/>
-        <v>105.26286493333333</v>
-      </c>
-      <c r="I12" s="30">
+        <v>105.26244863333334</v>
+      </c>
+      <c r="I12" s="24">
         <f t="shared" si="2"/>
-        <v>126.74655520000002</v>
+        <v>126.7446434</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="3"/>
@@ -1184,19 +1168,19 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" si="8"/>
-        <v>11.437067902515983</v>
-      </c>
-      <c r="M12" s="35">
+        <v>11.434658789825297</v>
+      </c>
+      <c r="M12" s="28">
         <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" si="10"/>
-        <v>14.637067902515984</v>
-      </c>
-      <c r="O12" s="44">
+        <v>14.634658789825298</v>
+      </c>
+      <c r="O12" s="37">
         <f>N11+O11</f>
-        <v>174.29989276953009</v>
+        <v>174.27753835440953</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1207,27 +1191,27 @@
         <v>120</v>
       </c>
       <c r="D13" s="13">
-        <v>100.590215</v>
+        <v>100.567978</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="5"/>
-        <v>1332.4846160666668</v>
+        <v>1332.4536593666667</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>112.42409502222223</v>
+        <v>112.42318022222223</v>
       </c>
       <c r="G13" s="7">
-        <f>(I13-F13)/$G$2</f>
-        <v>6.941455528148154</v>
+        <f t="shared" si="12"/>
+        <v>6.9407285714814817</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="7"/>
-        <v>112.42409502222223</v>
-      </c>
-      <c r="I13" s="30">
+        <v>112.42318022222223</v>
+      </c>
+      <c r="I13" s="24">
         <f t="shared" si="2"/>
-        <v>133.24846160666669</v>
+        <v>133.24536593666667</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="3"/>
@@ -1235,23 +1219,23 @@
       </c>
       <c r="K13" s="10">
         <f t="shared" si="4"/>
-        <v>705.26286493333328</v>
+        <v>705.26244863333329</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="8"/>
-        <v>10.118391353746226</v>
-      </c>
-      <c r="M13" s="35">
+        <v>10.113918199008484</v>
+      </c>
+      <c r="M13" s="28">
         <f t="shared" si="9"/>
-        <v>5.9923079106130315</v>
+        <v>5.9923990592369529</v>
       </c>
       <c r="N13" s="7">
         <f t="shared" si="10"/>
-        <v>16.110699264359258</v>
-      </c>
-      <c r="O13" s="44">
-        <f t="shared" ref="O13" si="12">N12+O12</f>
-        <v>188.93696067204607</v>
+        <v>16.106317258245436</v>
+      </c>
+      <c r="O13" s="37">
+        <f t="shared" ref="O13" si="13">N12+O12</f>
+        <v>188.91219714423482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1262,27 +1246,27 @@
         <v>120</v>
       </c>
       <c r="D14" s="13">
-        <v>98.957812000000004</v>
+        <v>98.947665999999998</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="5"/>
-        <v>1360.5457710444446</v>
+        <v>1360.4828091444444</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>119.36555055037039</v>
+        <v>119.36390879370371</v>
       </c>
       <c r="G14" s="7">
-        <f>(I14-F14)/$G$2</f>
-        <v>5.5630088513580249</v>
+        <f t="shared" si="12"/>
+        <v>5.5614573735802395</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="7"/>
-        <v>119.36555055037039</v>
-      </c>
-      <c r="I14" s="30">
+        <v>119.36390879370371</v>
+      </c>
+      <c r="I14" s="24">
         <f t="shared" si="2"/>
-        <v>136.05457710444446</v>
+        <v>136.04828091444443</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="3"/>
@@ -1290,23 +1274,23 @@
       </c>
       <c r="K14" s="17">
         <f t="shared" si="4"/>
-        <v>817.68695995555549</v>
+        <v>817.68562885555548</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="8"/>
-        <v>9.7926485558273448</v>
-      </c>
-      <c r="M14" s="35">
+        <v>9.7906406068475551</v>
+      </c>
+      <c r="M14" s="28">
         <f t="shared" si="9"/>
-        <v>7.7658299191610896</v>
+        <v>7.7661617022551601</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="10"/>
-        <v>17.558478474988434</v>
-      </c>
-      <c r="O14" s="45">
+        <v>17.556802309102714</v>
+      </c>
+      <c r="O14" s="38">
         <f t="shared" si="11"/>
-        <v>205.04765993640532</v>
+        <v>205.01851440248026</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1317,27 +1301,27 @@
         <v>120</v>
       </c>
       <c r="D15" s="13">
-        <v>100.573847</v>
+        <v>100.58298000000001</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="5"/>
-        <v>1360.9261154940741</v>
+        <v>1360.8659953507406</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>124.92855940172841</v>
+        <v>124.92536616728395</v>
       </c>
       <c r="G15" s="7">
-        <f>(I15-F15)/$G$2</f>
-        <v>3.721350715893005</v>
+        <f t="shared" si="12"/>
+        <v>3.720411122596706</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="7"/>
-        <v>124.92855940172841</v>
-      </c>
-      <c r="I15" s="30">
+        <v>124.92536616728395</v>
+      </c>
+      <c r="I15" s="24">
         <f t="shared" si="2"/>
-        <v>136.09261154940742</v>
+        <v>136.08659953507407</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="3"/>
@@ -1345,23 +1329,23 @@
       </c>
       <c r="K15" s="10">
         <f t="shared" si="4"/>
-        <v>937.05251050592585</v>
+        <v>937.04953764925915</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="8"/>
-        <v>10.115098700379409</v>
-      </c>
-      <c r="M15" s="35">
+        <v>10.116935865680402</v>
+      </c>
+      <c r="M15" s="28">
         <f t="shared" si="9"/>
-        <v>7.924772867213151</v>
+        <v>7.9255214203440829</v>
       </c>
       <c r="N15" s="7">
         <f t="shared" si="10"/>
-        <v>18.039871567592559</v>
-      </c>
-      <c r="O15" s="43">
+        <v>18.042457286024487</v>
+      </c>
+      <c r="O15" s="36">
         <f t="shared" si="11"/>
-        <v>222.60613841139377</v>
+        <v>222.57531671158299</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1372,27 +1356,27 @@
         <v>120</v>
       </c>
       <c r="D16" s="13">
-        <v>104.003215</v>
+        <v>104.07507699999999</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="5"/>
-        <v>1342.9417840923459</v>
+        <v>1342.8735931834567</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>128.6499101176214</v>
+        <v>128.64577728988067</v>
       </c>
       <c r="G16" s="7">
-        <f>(I16-F16)/$G$2</f>
-        <v>1.8814227638710577</v>
+        <f t="shared" si="12"/>
+        <v>1.8805273428216651</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="7"/>
-        <v>128.6499101176214</v>
-      </c>
-      <c r="I16" s="30">
+        <v>128.64577728988067</v>
+      </c>
+      <c r="I16" s="24">
         <f t="shared" si="2"/>
-        <v>134.29417840923458</v>
+        <v>134.28735931834566</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="3"/>
@@ -1400,23 +1384,23 @@
       </c>
       <c r="K16" s="10">
         <f t="shared" si="4"/>
-        <v>1061.9810699076543</v>
+        <v>1061.974903816543</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="8"/>
-        <v>10.816668730336225</v>
-      </c>
-      <c r="M16" s="35">
+        <v>10.831621652555929</v>
+      </c>
+      <c r="M16" s="28">
         <f t="shared" si="9"/>
-        <v>6.7323924981210013</v>
+        <v>6.7338235741988672</v>
       </c>
       <c r="N16" s="7">
         <f t="shared" si="10"/>
-        <v>17.549061228457226</v>
-      </c>
-      <c r="O16" s="43">
+        <v>17.565445226754797</v>
+      </c>
+      <c r="O16" s="36">
         <f>N15+O15</f>
-        <v>240.64600997898634</v>
+        <v>240.61777399760746</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -1427,27 +1411,27 @@
         <v>120</v>
       </c>
       <c r="D17" s="13">
-        <v>108.177549</v>
+        <v>108.240358</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="5"/>
-        <v>1314.8820889747244</v>
+        <v>1314.795793893576</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>130.53133288149246</v>
+        <v>130.52630463270233</v>
       </c>
       <c r="G17" s="7">
-        <f>(I17-F17)/$G$2</f>
-        <v>0.31895867199332884</v>
+        <f t="shared" si="12"/>
+        <v>0.31775825221842524</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="7"/>
-        <v>130.53133288149246</v>
-      </c>
-      <c r="I17" s="30">
+        <v>130.52630463270233</v>
+      </c>
+      <c r="I17" s="24">
         <f t="shared" si="2"/>
-        <v>131.48820889747245</v>
+        <v>131.47957938935761</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="3"/>
@@ -1455,23 +1439,23 @@
       </c>
       <c r="K17" s="10">
         <f t="shared" si="4"/>
-        <v>1190.6309800252757</v>
+        <v>1190.6206811064237</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="8"/>
-        <v>11.702382107647402</v>
-      </c>
-      <c r="M17" s="35">
+        <v>11.715975099968164</v>
+      </c>
+      <c r="M17" s="28">
         <f t="shared" si="9"/>
-        <v>4.8746002665294581</v>
+        <v>4.876634268786999</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="10"/>
-        <v>16.576982374176861</v>
-      </c>
-      <c r="O17" s="43">
+        <v>16.592609368755163</v>
+      </c>
+      <c r="O17" s="36">
         <f t="shared" si="11"/>
-        <v>258.19507120744356</v>
+        <v>258.18321922436223</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -1482,27 +1466,27 @@
         <v>120</v>
       </c>
       <c r="D18" s="13">
-        <v>112.306256</v>
+        <v>112.41003000000001</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="5"/>
-        <v>1283.308568093232</v>
+        <v>1283.2171552608738</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>130.85029155348579</v>
+        <v>130.84406288492076</v>
       </c>
       <c r="G18" s="7">
-        <f>(I18-F18)/$G$2</f>
-        <v>-0.83981158138753165</v>
+        <f t="shared" si="12"/>
+        <v>-0.8407824529444573</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="7"/>
-        <v>130.85029155348579</v>
-      </c>
-      <c r="I18" s="30">
+        <v>130.84406288492076</v>
+      </c>
+      <c r="I18" s="24">
         <f t="shared" si="2"/>
-        <v>128.33085680932319</v>
+        <v>128.32171552608739</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="3"/>
@@ -1510,23 +1494,23 @@
       </c>
       <c r="K18" s="10">
         <f t="shared" si="4"/>
-        <v>1321.1623129067682</v>
+        <v>1321.146985739126</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="8"/>
-        <v>12.612695136737537</v>
-      </c>
-      <c r="M18" s="35">
+        <v>12.636014844600901</v>
+      </c>
+      <c r="M18" s="28">
         <f t="shared" si="9"/>
-        <v>3.0167318775035694</v>
+        <v>3.0191134343113624</v>
       </c>
       <c r="N18" s="7">
         <f t="shared" si="10"/>
-        <v>15.629427014241106</v>
-      </c>
-      <c r="O18" s="43">
+        <v>15.655128278912263</v>
+      </c>
+      <c r="O18" s="36">
         <f t="shared" si="11"/>
-        <v>274.77205358162041</v>
+        <v>274.77582859311741</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -1537,27 +1521,27 @@
         <v>120</v>
       </c>
       <c r="D19" s="13">
-        <v>115.84292600000001</v>
+        <v>115.965197</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="5"/>
-        <v>1253.0321235397462</v>
+        <v>1252.956072375953</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>130.01047997209827</v>
+        <v>130.00328043197629</v>
       </c>
       <c r="G19" s="7">
-        <f>(I19-F19)/$G$2</f>
-        <v>-1.5690892060412172</v>
+        <f t="shared" si="12"/>
+        <v>-1.5692243981269958</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="7"/>
-        <v>130.01047997209827</v>
-      </c>
-      <c r="I19" s="30">
+        <v>130.00328043197629</v>
+      </c>
+      <c r="I19" s="24">
         <f t="shared" si="2"/>
-        <v>125.30321235397462</v>
+        <v>125.29560723759531</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="3"/>
@@ -1565,23 +1549,23 @@
       </c>
       <c r="K19" s="10">
         <f t="shared" si="4"/>
-        <v>1452.0126044602539</v>
+        <v>1451.9910486240467</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="8"/>
-        <v>13.419583504241476</v>
-      </c>
-      <c r="M19" s="35">
+        <v>13.447926915248811</v>
+      </c>
+      <c r="M19" s="28">
         <f t="shared" si="9"/>
-        <v>1.5665886181964002</v>
+        <v>1.5690027143610328</v>
       </c>
       <c r="N19" s="7">
         <f t="shared" si="10"/>
-        <v>14.986172122437877</v>
-      </c>
-      <c r="O19" s="43">
+        <v>15.016929629609844</v>
+      </c>
+      <c r="O19" s="36">
         <f t="shared" si="11"/>
-        <v>290.40148059586153</v>
+        <v>290.4309568720297</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -1592,27 +1576,27 @@
         <v>120</v>
       </c>
       <c r="D20" s="13">
-        <v>118.57893</v>
+        <v>118.76067999999999</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="5"/>
-        <v>1227.0248585676479</v>
+        <v>1227.0278689439767</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>128.44139076605705</v>
+        <v>128.43405603384929</v>
       </c>
       <c r="G20" s="7">
-        <f>(I20-F20)/$G$2</f>
-        <v>-1.9129683030974196</v>
+        <f t="shared" si="12"/>
+        <v>-1.9104230464838707</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="7"/>
-        <v>128.44139076605705</v>
-      </c>
-      <c r="I20" s="30">
+        <v>128.43405603384929</v>
+      </c>
+      <c r="I20" s="24">
         <f t="shared" si="2"/>
-        <v>122.7024858567648</v>
+        <v>122.70278689439768</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="3"/>
@@ -1620,23 +1604,23 @@
       </c>
       <c r="K20" s="10">
         <f t="shared" si="4"/>
-        <v>1582.0230844323521</v>
+        <v>1581.9943290560229</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="8"/>
-        <v>14.060962639944901</v>
-      </c>
-      <c r="M20" s="35">
+        <v>14.1040991140624</v>
+      </c>
+      <c r="M20" s="28">
         <f t="shared" si="9"/>
-        <v>0.64633898665268241</v>
+        <v>0.64840837228555992</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" si="10"/>
-        <v>14.707301626597584</v>
-      </c>
-      <c r="O20" s="43">
+        <v>14.752507486347961</v>
+      </c>
+      <c r="O20" s="36">
         <f t="shared" si="11"/>
-        <v>305.38765271829942</v>
+        <v>305.44788650163952</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1647,27 +1631,27 @@
         <v>120</v>
       </c>
       <c r="D21" s="13">
-        <v>120.433598</v>
+        <v>120.641251</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="5"/>
-        <v>1206.7610168015908</v>
+        <v>1206.8341709101273</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>126.52842246295964</v>
+        <v>126.52363298736542</v>
       </c>
       <c r="G21" s="7">
-        <f>(I21-F21)/$G$2</f>
-        <v>-1.9507735942668536</v>
+        <f t="shared" si="12"/>
+        <v>-1.9467386321175628</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="7"/>
-        <v>126.52842246295964</v>
-      </c>
-      <c r="I21" s="30">
+        <v>126.52363298736542</v>
+      </c>
+      <c r="I21" s="24">
         <f t="shared" si="2"/>
-        <v>120.67610168015908</v>
+        <v>120.68341709101273</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="3"/>
@@ -1675,23 +1659,23 @@
       </c>
       <c r="K21" s="10">
         <f t="shared" si="4"/>
-        <v>1710.4644751984092</v>
+        <v>1710.4283850898723</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="8"/>
-        <v>14.504251527225604</v>
-      </c>
-      <c r="M21" s="35">
+        <v>14.554311442845002</v>
+      </c>
+      <c r="M21" s="28">
         <f t="shared" si="9"/>
-        <v>0.18185246648350586</v>
+        <v>0.18323162397555642</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" si="10"/>
-        <v>14.686103993709109</v>
-      </c>
-      <c r="O21" s="43">
+        <v>14.737543066820558</v>
+      </c>
+      <c r="O21" s="36">
         <f t="shared" si="11"/>
-        <v>320.09495434489702</v>
+        <v>320.20039398798747</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -1702,27 +1686,27 @@
         <v>120</v>
       </c>
       <c r="D22" s="13">
-        <v>121.468221</v>
+        <v>121.7003</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="5"/>
-        <v>1192.5388503386312</v>
+        <v>1192.720567922762</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>124.57764886869279</v>
+        <v>124.57689435524786</v>
       </c>
       <c r="G22" s="7">
-        <f>(I22-F22)/$G$2</f>
-        <v>-1.7745879449432256</v>
+        <f t="shared" si="12"/>
+        <v>-1.7682791876572186</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="7"/>
-        <v>124.57764886869279</v>
-      </c>
-      <c r="I22" s="30">
+        <v>124.57689435524786</v>
+      </c>
+      <c r="I22" s="24">
         <f t="shared" si="2"/>
-        <v>119.25388503386311</v>
+        <v>119.2720567922762</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="3"/>
@@ -1730,23 +1714,23 @@
       </c>
       <c r="K22" s="10">
         <f t="shared" si="4"/>
-        <v>1836.9928976613689</v>
+        <v>1836.9520180772377</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="8"/>
-        <v>14.754528712904841</v>
-      </c>
-      <c r="M22" s="35">
+        <v>14.81096302009</v>
+      </c>
+      <c r="M22" s="28">
         <f t="shared" si="9"/>
-        <v>1.8085328950000746E-2</v>
+        <v>1.8580387602972103E-2</v>
       </c>
       <c r="N22" s="7">
         <f t="shared" si="10"/>
-        <v>14.772614041854842</v>
-      </c>
-      <c r="O22" s="43">
+        <v>14.829543407692972</v>
+      </c>
+      <c r="O22" s="36">
         <f t="shared" si="11"/>
-        <v>334.7810583386061</v>
+        <v>334.937937054808</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -1757,27 +1741,27 @@
         <v>120</v>
       </c>
       <c r="D23" s="13">
-        <v>121.90404599999999</v>
+        <v>122.056713</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="5"/>
-        <v>1183.8041274699385</v>
+        <v>1184.1088705675143</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>122.80306092374957</v>
+        <v>122.80861516759065</v>
       </c>
       <c r="G23" s="7">
-        <f>(I23-F23)/$G$2</f>
-        <v>-1.4742160589185715</v>
+        <f t="shared" si="12"/>
+        <v>-1.4659093702797417</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="7"/>
-        <v>122.80306092374957</v>
-      </c>
-      <c r="I23" s="30">
+        <v>122.80861516759065</v>
+      </c>
+      <c r="I23" s="24">
         <f t="shared" si="2"/>
-        <v>118.38041274699385</v>
+        <v>118.41088705675142</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="3"/>
@@ -1785,23 +1769,23 @@
       </c>
       <c r="K23" s="10">
         <f t="shared" si="4"/>
-        <v>1961.5705465300616</v>
+        <v>1961.5289124324854</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="8"/>
-        <v>14.860596431170114</v>
-      </c>
-      <c r="M23" s="35">
+        <v>14.897841188364369</v>
+      </c>
+      <c r="M23" s="28">
         <f t="shared" si="9"/>
-        <v>4.9332328061771884E-3</v>
+        <v>4.6751464524169241E-3</v>
       </c>
       <c r="N23" s="7">
         <f t="shared" si="10"/>
-        <v>14.865529663976291</v>
-      </c>
-      <c r="O23" s="43">
+        <v>14.902516334816786</v>
+      </c>
+      <c r="O23" s="36">
         <f t="shared" si="11"/>
-        <v>349.55367238046097</v>
+        <v>349.767480462501</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -1812,27 +1796,27 @@
         <v>120</v>
       </c>
       <c r="D24" s="13">
-        <v>121.936881</v>
+        <v>121.98632600000001</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="5"/>
-        <v>1179.5799965461888</v>
+        <v>1180.0609353999237</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>121.328844864831</v>
+        <v>121.3427057973109</v>
       </c>
       <c r="G24" s="7">
-        <f>(I24-F24)/$G$2</f>
-        <v>-1.1236150700707082</v>
+        <f t="shared" si="12"/>
+        <v>-1.112204085772845</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="7"/>
-        <v>121.328844864831</v>
-      </c>
-      <c r="I24" s="30">
+        <v>121.3427057973109</v>
+      </c>
+      <c r="I24" s="24">
         <f t="shared" si="2"/>
-        <v>117.95799965461887</v>
+        <v>118.00609353999236</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="3"/>
@@ -1840,23 +1824,23 @@
       </c>
       <c r="K24" s="10">
         <f t="shared" si="4"/>
-        <v>2084.373607453811</v>
+        <v>2084.3375276000761</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="8"/>
-        <v>14.868602948008162</v>
-      </c>
-      <c r="M24" s="35">
+        <v>14.880663730978279</v>
+      </c>
+      <c r="M24" s="28">
         <f t="shared" si="9"/>
-        <v>3.8256884320062606E-2</v>
+        <v>3.7628291362843874E-2</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="10"/>
-        <v>14.906859832328225</v>
-      </c>
-      <c r="O24" s="43">
+        <v>14.918292022341124</v>
+      </c>
+      <c r="O24" s="36">
         <f t="shared" si="11"/>
-        <v>364.41920204443727</v>
+        <v>364.66999679731776</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1867,27 +1851,27 @@
         <v>120</v>
       </c>
       <c r="D25" s="13">
-        <v>121.740031</v>
+        <v>121.622893</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="5"/>
-        <v>1178.684749681358</v>
+        <v>1179.3594806026128</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>120.20522979476029</v>
+        <v>120.23050171153805</v>
       </c>
       <c r="G25" s="7">
-        <f>(I25-F25)/$G$2</f>
-        <v>-0.77891827554149506</v>
+        <f t="shared" si="12"/>
+        <v>-0.76485121709225723</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="7"/>
-        <v>120.20522979476029</v>
-      </c>
-      <c r="I25" s="30">
+        <v>120.23050171153805</v>
+      </c>
+      <c r="I25" s="24">
         <f t="shared" si="2"/>
-        <v>117.8684749681358</v>
+        <v>117.93594806026128</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="3"/>
@@ -1895,23 +1879,23 @@
       </c>
       <c r="K25" s="10">
         <f t="shared" si="4"/>
-        <v>2205.7024523186419</v>
+        <v>2205.6802333973869</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="8"/>
-        <v>14.820635147880962</v>
-      </c>
-      <c r="M25" s="35">
+        <v>14.79212810168945</v>
+      </c>
+      <c r="M25" s="28">
         <f t="shared" si="9"/>
-        <v>6.5035924892769159E-2</v>
+        <v>6.4530102897579683E-2</v>
       </c>
       <c r="N25" s="7">
         <f t="shared" si="10"/>
-        <v>14.88567107277373</v>
-      </c>
-      <c r="O25" s="43">
+        <v>14.856658204587029</v>
+      </c>
+      <c r="O25" s="36">
         <f t="shared" si="11"/>
-        <v>379.32606187676549</v>
+        <v>379.58828881965889</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -1922,27 +1906,27 @@
         <v>120</v>
       </c>
       <c r="D26" s="13">
-        <v>121.609876</v>
+        <v>121.25402200000001</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="5"/>
-        <v>1179.9477408865978</v>
+        <v>1180.8292788910749</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>119.42631151921879</v>
+        <v>119.4656504944458</v>
       </c>
       <c r="G26" s="7">
-        <f>(I26-F26)/$G$2</f>
-        <v>-0.477179143519668</v>
+        <f t="shared" si="12"/>
+        <v>-0.46090753511277188</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="7"/>
-        <v>119.42631151921879</v>
-      </c>
-      <c r="I26" s="30">
+        <v>119.4656504944458</v>
+      </c>
+      <c r="I26" s="24">
         <f t="shared" si="2"/>
-        <v>117.99477408865978</v>
+        <v>118.08292788910748</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="3"/>
@@ -1950,23 +1934,23 @@
       </c>
       <c r="K26" s="10">
         <f t="shared" si="4"/>
-        <v>2325.9076821134022</v>
+        <v>2325.9107351089251</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="8"/>
-        <v>14.788961940735376</v>
-      </c>
-      <c r="M26" s="35">
+        <v>14.702537851176485</v>
+      </c>
+      <c r="M26" s="28">
         <f t="shared" si="9"/>
-        <v>6.9801415906024289E-2</v>
+        <v>6.987357905575986E-2</v>
       </c>
       <c r="N26" s="7">
         <f t="shared" si="10"/>
-        <v>14.858763356641401</v>
-      </c>
-      <c r="O26" s="43">
+        <v>14.772411430232244</v>
+      </c>
+      <c r="O26" s="36">
         <f t="shared" si="11"/>
-        <v>394.21173294953923</v>
+        <v>394.44494702424589</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -1977,27 +1961,27 @@
         <v>120</v>
       </c>
       <c r="D27" s="13">
-        <v>121.694585</v>
+        <v>121.035872</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="5"/>
-        <v>1182.425475367379</v>
+        <v>1183.4203413966291</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>118.94913237569912</v>
+        <v>119.00474295933303</v>
       </c>
       <c r="G27" s="7">
-        <f>(I27-F27)/$G$2</f>
-        <v>-0.23552827965373999</v>
+        <f t="shared" si="12"/>
+        <v>-0.22090293989004314</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="7"/>
-        <v>118.94913237569912</v>
-      </c>
-      <c r="I27" s="30">
+        <v>119.00474295933303</v>
+      </c>
+      <c r="I27" s="24">
         <f t="shared" si="2"/>
-        <v>118.2425475367379</v>
+        <v>118.3420341396629</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="3"/>
@@ -2005,23 +1989,23 @@
       </c>
       <c r="K27" s="10">
         <f t="shared" si="4"/>
-        <v>2445.3339936326211</v>
+        <v>2445.3763856033711</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="8"/>
-        <v>14.809572018322227</v>
-      </c>
-      <c r="M27" s="35">
+        <v>14.649682310800383</v>
+      </c>
+      <c r="M27" s="28">
         <f t="shared" si="9"/>
-        <v>5.6902976145684001E-2</v>
+        <v>5.7811044312271853E-2</v>
       </c>
       <c r="N27" s="7">
         <f t="shared" si="10"/>
-        <v>14.866474994467911</v>
-      </c>
-      <c r="O27" s="43">
+        <v>14.707493355112655</v>
+      </c>
+      <c r="O27" s="36">
         <f t="shared" si="11"/>
-        <v>409.07049630618064</v>
+        <v>409.21735845447813</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -2032,27 +2016,27 @@
         <v>120</v>
       </c>
       <c r="D28" s="13">
-        <v>122.074336</v>
+        <v>121.103286</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="5"/>
-        <v>1185.4132239916801</v>
+        <v>1186.401924437296</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>118.71360409604539</v>
+        <v>118.78384001944299</v>
       </c>
       <c r="G28" s="7">
-        <f>(I28-F28)/$G$2</f>
-        <v>-5.7427232292459017E-2</v>
+        <f t="shared" si="12"/>
+        <v>-4.7882525237795903E-2</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="7"/>
-        <v>118.71360409604539</v>
-      </c>
-      <c r="I28" s="30">
+        <v>118.78384001944299</v>
+      </c>
+      <c r="I28" s="24">
         <f t="shared" si="2"/>
-        <v>118.54132239916801</v>
+        <v>118.6401924437296</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="3"/>
@@ -2060,23 +2044,23 @@
       </c>
       <c r="K28" s="10">
         <f t="shared" si="4"/>
-        <v>2564.2831260083203</v>
+        <v>2564.3811285627039</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="8"/>
-        <v>14.902143509840897</v>
-      </c>
-      <c r="M28" s="35">
+        <v>14.666005879997796</v>
+      </c>
+      <c r="M28" s="28">
         <f t="shared" si="9"/>
-        <v>3.6690336806299975E-2</v>
+        <v>3.8388574965880003E-2</v>
       </c>
       <c r="N28" s="7">
         <f t="shared" si="10"/>
-        <v>14.938833846647197</v>
-      </c>
-      <c r="O28" s="43">
+        <v>14.704394454963676</v>
+      </c>
+      <c r="O28" s="36">
         <f t="shared" si="11"/>
-        <v>423.93697130064857</v>
+        <v>423.92485180959079</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
@@ -2087,27 +2071,27 @@
         <v>120</v>
       </c>
       <c r="D29" s="13">
-        <v>122.85516800000001</v>
+        <v>121.6123</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="5"/>
-        <v>1188.4396508956347</v>
+        <v>1189.2409774178529</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>118.65617686375293</v>
+        <v>118.73595749420519</v>
       </c>
       <c r="G29" s="7">
-        <f>(I29-F29)/$G$2</f>
-        <v>6.259607527017863E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.2713415860031319E-2</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="7"/>
-        <v>118.65617686375293</v>
-      </c>
-      <c r="I29" s="30">
+        <v>118.73595749420519</v>
+      </c>
+      <c r="I29" s="24">
         <f t="shared" si="2"/>
-        <v>118.84396508956347</v>
+        <v>118.92409774178529</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="3"/>
@@ -2115,23 +2099,23 @@
       </c>
       <c r="K29" s="10">
         <f t="shared" si="4"/>
-        <v>2682.9967301043657</v>
+        <v>2683.1649685821467</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="8"/>
-        <v>15.093392304308225</v>
-      </c>
-      <c r="M29" s="35">
+        <v>14.789551511290002</v>
+      </c>
+      <c r="M29" s="28">
         <f t="shared" si="9"/>
-        <v>1.7960782636823613E-2</v>
+        <v>2.0034052251951193E-2</v>
       </c>
       <c r="N29" s="7">
         <f t="shared" si="10"/>
-        <v>15.111353086945048</v>
-      </c>
-      <c r="O29" s="43">
+        <v>14.809585563541953</v>
+      </c>
+      <c r="O29" s="36">
         <f t="shared" si="11"/>
-        <v>438.87580514729575</v>
+        <v>438.62924626455447</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -2142,27 +2126,27 @@
         <v>120</v>
       </c>
       <c r="D30" s="13">
-        <v>123.955394</v>
+        <v>122.455393</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="5"/>
-        <v>1191.3933500318817</v>
+        <v>1191.7590419236478</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>118.71877293902311</v>
+        <v>118.79867091006523</v>
       </c>
       <c r="G30" s="7">
-        <f>(I30-F30)/$G$2</f>
-        <v>0.14018735472168467</v>
+        <f t="shared" si="12"/>
+        <v>0.12574442743318551</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="7"/>
-        <v>118.71877293902311</v>
-      </c>
-      <c r="I30" s="30">
+        <v>118.79867091006523</v>
+      </c>
+      <c r="I30" s="24">
         <f t="shared" si="2"/>
-        <v>119.13933500318817</v>
+        <v>119.17590419236478</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="3"/>
@@ -2170,23 +2154,23 @@
       </c>
       <c r="K30" s="10">
         <f t="shared" si="4"/>
-        <v>2801.6529069681187</v>
+        <v>2801.9009260763519</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="8"/>
-        <v>15.364939701695235</v>
-      </c>
-      <c r="M30" s="35">
+        <v>14.995323274784448</v>
+      </c>
+      <c r="M30" s="28">
         <f t="shared" si="9"/>
-        <v>5.4642028905107975E-3</v>
+        <v>7.2270398955091037E-3</v>
       </c>
       <c r="N30" s="7">
         <f t="shared" si="10"/>
-        <v>15.370403904585746</v>
-      </c>
-      <c r="O30" s="43">
+        <v>15.002550314679958</v>
+      </c>
+      <c r="O30" s="36">
         <f t="shared" si="11"/>
-        <v>453.98715823424078</v>
+        <v>453.4388318280964</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -2197,27 +2181,27 @@
         <v>120</v>
       </c>
       <c r="D31" s="13">
-        <v>125.262838</v>
+        <v>123.631118</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="5"/>
-        <v>1194.3691620928585</v>
+        <v>1193.9962430135824</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>118.8589602937448</v>
+        <v>118.92441533749842</v>
       </c>
       <c r="G31" s="7">
-        <f>(I31-F31)/$G$2</f>
-        <v>0.19265197184701321</v>
+        <f t="shared" si="12"/>
+        <v>0.15840298795327593</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="7"/>
-        <v>118.8589602937448</v>
-      </c>
-      <c r="I31" s="30">
+        <v>118.92441533749842</v>
+      </c>
+      <c r="I31" s="24">
         <f t="shared" si="2"/>
-        <v>119.43691620928584</v>
+        <v>119.39962430135824</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="3"/>
@@ -2225,23 +2209,23 @@
       </c>
       <c r="K31" s="10">
         <f t="shared" si="4"/>
-        <v>2920.3716799071417</v>
+        <v>2920.699596986417</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="8"/>
-        <v>15.690778583814245</v>
-      </c>
-      <c r="M31" s="35">
+        <v>15.284653337929925</v>
+      </c>
+      <c r="M31" s="28">
         <f t="shared" si="9"/>
-        <v>2.7629190674572127E-4</v>
+        <v>9.7887188680739474E-4</v>
       </c>
       <c r="N31" s="7">
         <f t="shared" si="10"/>
-        <v>15.69105487572099</v>
-      </c>
-      <c r="O31" s="43">
+        <v>15.285632209816733</v>
+      </c>
+      <c r="O31" s="36">
         <f t="shared" si="11"/>
-        <v>469.35756213882655</v>
+        <v>468.44138214277638</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -2252,27 +2236,27 @@
         <v>120</v>
       </c>
       <c r="D32" s="13">
-        <v>126.525919</v>
+        <v>125.069901</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="5"/>
-        <v>1197.5845377991136</v>
+        <v>1196.175113676084</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>119.05161226559181</v>
+        <v>119.0828183254517</v>
       </c>
       <c r="G32" s="7">
-        <f>(I32-F32)/$G$2</f>
-        <v>0.23561383810651648</v>
+        <f t="shared" si="12"/>
+        <v>0.1782310140522346</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="7"/>
-        <v>119.05161226559181</v>
-      </c>
-      <c r="I32" s="30">
+        <v>119.0828183254517</v>
+      </c>
+      <c r="I32" s="24">
         <f t="shared" si="2"/>
-        <v>119.75845377991136</v>
+        <v>119.6175113676084</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="3"/>
@@ -2280,23 +2264,23 @@
       </c>
       <c r="K32" s="10">
         <f t="shared" si="4"/>
-        <v>3039.2306402008867</v>
+        <v>3039.6240123239154</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="8"/>
-        <v>16.00880817879456</v>
-      </c>
-      <c r="M32" s="35">
+        <v>15.642480136149802</v>
+      </c>
+      <c r="M32" s="28">
         <f t="shared" si="9"/>
-        <v>1.1838290009833683E-3</v>
+        <v>2.8273346513500442E-4</v>
       </c>
       <c r="N32" s="7">
         <f t="shared" si="10"/>
-        <v>16.009992007795542</v>
-      </c>
-      <c r="O32" s="43">
+        <v>15.642762869614936</v>
+      </c>
+      <c r="O32" s="36">
         <f t="shared" si="11"/>
-        <v>485.04861701454752</v>
+        <v>483.72701435259313</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2307,27 +2291,27 @@
         <v>120</v>
       </c>
       <c r="D33" s="13">
-        <v>127.385289</v>
+        <v>126.46213400000001</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="5"/>
-        <v>1201.3880935335219</v>
+        <v>1198.7045953506324</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>119.28722610369833</v>
+        <v>119.26104933950393</v>
       </c>
       <c r="G33" s="7">
-        <f>(I33-F33)/$G$2</f>
-        <v>0.28386108321795217</v>
+        <f t="shared" si="12"/>
+        <v>0.20313673185310677</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="7"/>
-        <v>119.28722610369833</v>
-      </c>
-      <c r="I33" s="30">
+        <v>119.26104933950393</v>
+      </c>
+      <c r="I33" s="24">
         <f t="shared" si="2"/>
-        <v>120.13880935335219</v>
+        <v>119.87045953506325</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="3"/>
@@ -2335,23 +2319,23 @@
       </c>
       <c r="K33" s="10">
         <f t="shared" si="4"/>
-        <v>3158.2822524664784</v>
+        <v>3158.706830649367</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="8"/>
-        <v>16.227011853613522</v>
-      </c>
-      <c r="M33" s="35">
+        <v>15.992671335833959</v>
+      </c>
+      <c r="M33" s="28">
         <f t="shared" si="9"/>
-        <v>5.9013131778388088E-3</v>
+        <v>3.344573938833043E-3</v>
       </c>
       <c r="N33" s="7">
         <f t="shared" si="10"/>
-        <v>16.232913166791359</v>
-      </c>
-      <c r="O33" s="43">
+        <v>15.996015909772792</v>
+      </c>
+      <c r="O33" s="36">
         <f t="shared" si="11"/>
-        <v>501.05860902234303</v>
+        <v>499.36977722220809</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2362,27 +2346,27 @@
         <v>120</v>
       </c>
       <c r="D34" s="13">
-        <v>127.36169</v>
+        <v>127.365476</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="5"/>
-        <v>1206.0562614298237</v>
+        <v>1201.8989390111285</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>119.57108718691629</v>
+        <v>119.46418607135703</v>
       </c>
       <c r="G34" s="7">
-        <f>(I34-F34)/$G$2</f>
-        <v>0.34484631868869542</v>
+        <f t="shared" si="12"/>
+        <v>0.24190260991860649</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="7"/>
-        <v>119.57108718691629</v>
-      </c>
-      <c r="I34" s="30">
+        <v>119.46418607135703</v>
+      </c>
+      <c r="I34" s="24">
         <f t="shared" si="2"/>
-        <v>120.60562614298237</v>
+        <v>120.18989390111285</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="3"/>
@@ -2390,23 +2374,23 @@
       </c>
       <c r="K34" s="10">
         <f t="shared" si="4"/>
-        <v>3277.5694785701767</v>
+        <v>3277.9678799888711</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="8"/>
-        <v>16.2210000796561</v>
-      </c>
-      <c r="M34" s="35">
+        <v>16.221964476706578</v>
+      </c>
+      <c r="M34" s="28">
         <f t="shared" si="9"/>
-        <v>1.1814868841660884E-2</v>
+        <v>8.2590234792608939E-3</v>
       </c>
       <c r="N34" s="7">
         <f t="shared" si="10"/>
-        <v>16.232814948497762</v>
-      </c>
-      <c r="O34" s="43">
+        <v>16.23022350018584</v>
+      </c>
+      <c r="O34" s="36">
         <f t="shared" si="11"/>
-        <v>517.29152218913441</v>
+        <v>515.36579313198092</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2417,27 +2401,27 @@
         <v>120</v>
       </c>
       <c r="D35" s="13">
-        <v>125.959214</v>
+        <v>127.424672</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="5"/>
-        <v>1211.7480122429076</v>
+        <v>1206.0658709397715</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>119.91593350560498</v>
+        <v>119.70608868127565</v>
       </c>
       <c r="G35" s="7">
-        <f>(I35-F35)/$G$2</f>
-        <v>0.41962257289525934</v>
+        <f t="shared" si="12"/>
+        <v>0.30016613756716498</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="7"/>
-        <v>119.91593350560498</v>
-      </c>
-      <c r="I35" s="30">
+        <v>119.70608868127565</v>
+      </c>
+      <c r="I35" s="24">
         <f t="shared" si="2"/>
-        <v>121.17480122429076</v>
+        <v>120.60658709397714</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="3"/>
@@ -2445,23 +2429,23 @@
       </c>
       <c r="K35" s="10">
         <f t="shared" si="4"/>
-        <v>3397.1405657570931</v>
+        <v>3397.432066060228</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="8"/>
-        <v>15.865723591497797</v>
-      </c>
-      <c r="M35" s="35">
+        <v>16.237047034307587</v>
+      </c>
+      <c r="M35" s="28">
         <f t="shared" si="9"/>
-        <v>1.6352728379017117E-2</v>
+        <v>1.3188569438066374E-2</v>
       </c>
       <c r="N35" s="7">
         <f t="shared" si="10"/>
-        <v>15.882076319876814</v>
-      </c>
-      <c r="O35" s="43">
+        <v>16.250235603745654</v>
+      </c>
+      <c r="O35" s="36">
         <f t="shared" si="11"/>
-        <v>533.52433713763219</v>
+        <v>531.59601663216677</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2472,27 +2456,27 @@
         <v>120</v>
       </c>
       <c r="D36" s="13">
-        <v>122.544263</v>
+        <v>125.990233</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="5"/>
-        <v>1218.3579977373026</v>
+        <v>1211.429683258496</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>120.33555607850025</v>
+        <v>120.00625481884281</v>
       </c>
       <c r="G36" s="7">
-        <f>(I36-F36)/$G$2</f>
-        <v>0.50008123174333718</v>
+        <f t="shared" si="12"/>
+        <v>0.3789045023355963</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="7"/>
-        <v>120.33555607850025</v>
-      </c>
-      <c r="I36" s="30">
+        <v>120.00625481884281</v>
+      </c>
+      <c r="I36" s="24">
         <f t="shared" si="2"/>
-        <v>121.83579977373026</v>
+        <v>121.14296832584959</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="3"/>
@@ -2500,23 +2484,23 @@
       </c>
       <c r="K36" s="10">
         <f t="shared" si="4"/>
-        <v>3517.0564992626983</v>
+        <v>3517.1381547415035</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="8"/>
-        <v>15.017096394213169</v>
-      </c>
-      <c r="M36" s="35">
+        <v>15.87353881139429</v>
+      </c>
+      <c r="M36" s="28">
         <f t="shared" si="9"/>
-        <v>1.7328393180991858E-2</v>
+        <v>1.638031656715765E-2</v>
       </c>
       <c r="N36" s="7">
         <f t="shared" si="10"/>
-        <v>15.034424787394162</v>
-      </c>
-      <c r="O36" s="43">
+        <v>15.889919127961448</v>
+      </c>
+      <c r="O36" s="36">
         <f t="shared" si="11"/>
-        <v>549.40641345750896</v>
+        <v>547.8462522359124</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2527,27 +2511,27 @@
         <v>120</v>
       </c>
       <c r="D37" s="13">
-        <v>116.606128</v>
+        <v>122.600736</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="5"/>
-        <v>1225.4077306588024</v>
+        <v>1217.8855624396533</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>120.83563731024358</v>
+        <v>120.38515932117841</v>
       </c>
       <c r="G37" s="7">
-        <f>(I37-F37)/$G$2</f>
-        <v>0.5683785852122204</v>
+        <f t="shared" si="12"/>
+        <v>0.46779897426230832</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="7"/>
-        <v>120.83563731024358</v>
-      </c>
-      <c r="I37" s="30">
+        <v>120.38515932117841</v>
+      </c>
+      <c r="I37" s="24">
         <f t="shared" si="2"/>
-        <v>122.54077306588024</v>
+        <v>121.78855624396533</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="3"/>
@@ -2555,23 +2539,23 @@
       </c>
       <c r="K37" s="10">
         <f t="shared" si="4"/>
-        <v>3637.3920553411986</v>
+        <v>3637.1444095603465</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="8"/>
-        <v>13.596989087152384</v>
-      </c>
-      <c r="M37" s="35">
+        <v>15.030940467741695</v>
+      </c>
+      <c r="M37" s="28">
         <f t="shared" si="9"/>
-        <v>1.3602750686741955E-2</v>
+        <v>1.6308793518080903E-2</v>
       </c>
       <c r="N37" s="7">
         <f t="shared" si="10"/>
-        <v>13.610591837839126</v>
-      </c>
-      <c r="O37" s="43">
+        <v>15.047249261259775</v>
+      </c>
+      <c r="O37" s="36">
         <f t="shared" si="11"/>
-        <v>564.44083824490315</v>
+        <v>563.73617136387384</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2582,27 +2566,27 @@
         <v>120</v>
       </c>
       <c r="D38" s="13">
-        <v>107.759495</v>
+        <v>116.664912</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="5"/>
-        <v>1231.9337833485588</v>
+        <v>1224.8658791184748</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>121.4040158954558</v>
+        <v>120.85295829544071</v>
       </c>
       <c r="G38" s="7">
-        <f>(I38-F38)/$G$2</f>
-        <v>0.59645414646669315</v>
+        <f t="shared" si="12"/>
+        <v>0.54454320546892154</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="7"/>
-        <v>121.4040158954558</v>
-      </c>
-      <c r="I38" s="30">
+        <v>120.85295829544071</v>
+      </c>
+      <c r="I38" s="24">
         <f t="shared" si="2"/>
-        <v>123.19337833485588</v>
+        <v>122.48658791184748</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="3"/>
@@ -2610,23 +2594,23 @@
       </c>
       <c r="K38" s="10">
         <f t="shared" si="4"/>
-        <v>3758.2276926514423</v>
+        <v>3757.5295688815249</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="8"/>
-        <v>11.612108762655025</v>
-      </c>
-      <c r="M38" s="35">
+        <v>13.610701691967744</v>
+      </c>
+      <c r="M38" s="28">
         <f t="shared" si="9"/>
-        <v>6.2821466755029701E-3</v>
+        <v>1.2206059822259894E-2</v>
       </c>
       <c r="N38" s="7">
         <f t="shared" si="10"/>
-        <v>11.618390909330527</v>
-      </c>
-      <c r="O38" s="43">
+        <v>13.622907751790004</v>
+      </c>
+      <c r="O38" s="36">
         <f t="shared" si="11"/>
-        <v>578.05143008274229</v>
+        <v>578.78342062513366</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2637,27 +2621,27 @@
         <v>120</v>
       </c>
       <c r="D39" s="13">
-        <v>95.829312999999999</v>
+        <v>107.836264</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="5"/>
-        <v>1236.488981453103</v>
+        <v>1231.4375928230343</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>122.0004700419225</v>
+        <v>121.39750150090964</v>
       </c>
       <c r="G39" s="7">
-        <f>(I39-F39)/$G$2</f>
-        <v>0.54947603446260018</v>
+        <f t="shared" si="12"/>
+        <v>0.58208592713125995</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="7"/>
-        <v>122.0004700419225</v>
-      </c>
-      <c r="I39" s="30">
+        <v>121.39750150090964</v>
+      </c>
+      <c r="I39" s="24">
         <f t="shared" si="2"/>
-        <v>123.6488981453103</v>
+        <v>123.14375928230342</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="3"/>
@@ -2665,23 +2649,23 @@
       </c>
       <c r="K39" s="10">
         <f t="shared" si="4"/>
-        <v>3879.6317085468982</v>
+        <v>3878.3825271769656</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="8"/>
-        <v>9.1832572300519697</v>
-      </c>
-      <c r="M39" s="35">
+        <v>11.628659833477696</v>
+      </c>
+      <c r="M39" s="28">
         <f t="shared" si="9"/>
-        <v>2.7127718885573969E-4</v>
+        <v>5.2324366665097719E-3</v>
       </c>
       <c r="N39" s="7">
         <f t="shared" si="10"/>
-        <v>9.1835285072408261</v>
-      </c>
-      <c r="O39" s="43">
+        <v>11.633892270144207</v>
+      </c>
+      <c r="O39" s="36">
         <f t="shared" si="11"/>
-        <v>589.6698209920728</v>
+        <v>592.40632837692363</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2692,27 +2676,27 @@
         <v>120</v>
       </c>
       <c r="D40" s="13">
-        <v>81.036541999999997</v>
+        <v>95.916037000000003</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="5"/>
-        <v>1237.0327744111805</v>
+        <v>1236.0303243221247</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>122.5499460763851</v>
+        <v>121.9795874280409</v>
       </c>
       <c r="G40" s="7">
-        <f>(I40-F40)/$G$2</f>
-        <v>0.38444378824431641</v>
+        <f t="shared" si="12"/>
+        <v>0.54114833472385726</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="7"/>
-        <v>122.5499460763851</v>
-      </c>
-      <c r="I40" s="30">
+        <v>121.9795874280409</v>
+      </c>
+      <c r="I40" s="24">
         <f t="shared" si="2"/>
-        <v>123.70327744111805</v>
+        <v>123.60303243221247</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="3"/>
@@ -2720,23 +2704,23 @@
       </c>
       <c r="K40" s="10">
         <f t="shared" si="4"/>
-        <v>4001.6321785888208</v>
+        <v>3999.7800286778752</v>
       </c>
       <c r="L40" s="3">
         <f t="shared" si="8"/>
-        <v>6.5669211393177642</v>
-      </c>
-      <c r="M40" s="35">
+        <v>9.1998861537853696</v>
+      </c>
+      <c r="M40" s="28">
         <f t="shared" si="9"/>
-        <v>5.3280138916101611E-3</v>
+        <v>9.6774765114682906E-5</v>
       </c>
       <c r="N40" s="7">
         <f t="shared" si="10"/>
-        <v>6.5722491532093743</v>
-      </c>
-      <c r="O40" s="43">
+        <v>9.1999829285504848</v>
+      </c>
+      <c r="O40" s="36">
         <f t="shared" si="11"/>
-        <v>598.85334949931359</v>
+        <v>604.04022064706783</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2747,27 +2731,27 @@
         <v>120</v>
       </c>
       <c r="D41" s="13">
-        <v>64.103734000000003</v>
+        <v>81.105124000000004</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="5"/>
-        <v>1231.0889563347953</v>
+        <v>1236.6514728940838</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>122.93438986462941</v>
+        <v>122.52073576276476</v>
       </c>
       <c r="G41" s="7">
-        <f>(I41-F41)/$G$2</f>
-        <v>5.8168589616708267E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.38147050888120759</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="7"/>
-        <v>122.93438986462941</v>
-      </c>
-      <c r="I41" s="30">
+        <v>122.52073576276476</v>
+      </c>
+      <c r="I41" s="24">
         <f t="shared" si="2"/>
-        <v>123.10889563347953</v>
+        <v>123.66514728940838</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="3"/>
@@ -2775,79 +2759,78 @@
       </c>
       <c r="K41" s="10">
         <f t="shared" si="4"/>
-        <v>4124.1821246652062</v>
+        <v>4121.7596161059164</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" si="8"/>
-        <v>4.1092887127427566</v>
-      </c>
-      <c r="M41" s="35">
+        <v>6.5780411390553768</v>
+      </c>
+      <c r="M41" s="28">
         <f t="shared" si="9"/>
-        <v>3.4980333430651711E-2</v>
+        <v>6.1924976804007435E-3</v>
       </c>
       <c r="N41" s="7">
         <f t="shared" si="10"/>
-        <v>4.1442690461734086</v>
-      </c>
-      <c r="O41" s="43">
+        <v>6.5842336367357772</v>
+      </c>
+      <c r="O41" s="36">
         <f t="shared" si="11"/>
-        <v>605.42559865252292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21">
+        <v>613.24020357561835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
         <v>35</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="3">
         <v>120</v>
       </c>
       <c r="D42" s="13">
-        <v>46.175293000000003</v>
-      </c>
-      <c r="E42" s="25">
+        <v>64.145503000000005</v>
+      </c>
+      <c r="E42" s="7">
         <f>E41+D38-H41</f>
-        <v>1215.914061470166</v>
-      </c>
-      <c r="F42" s="25">
+        <v>1230.7956491313189</v>
+      </c>
+      <c r="F42" s="7">
         <f>F41+G41</f>
-        <v>122.99255845424612</v>
-      </c>
-      <c r="G42" s="25">
-        <f>(I42-F42)/$G$2</f>
-        <v>-0.46705076907650778</v>
-      </c>
-      <c r="H42" s="25">
+        <v>122.90220627164597</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="12"/>
+        <v>5.9119547161974616E-2</v>
+      </c>
+      <c r="H42" s="7">
         <f t="shared" si="7"/>
-        <v>122.99255845424612</v>
-      </c>
-      <c r="I42" s="33">
+        <v>122.90220627164597</v>
+      </c>
+      <c r="I42" s="24">
         <f t="shared" si="2"/>
-        <v>121.5914061470166</v>
-      </c>
-      <c r="J42" s="21">
+        <v>123.07956491313189</v>
+      </c>
+      <c r="J42" s="3">
         <f t="shared" si="3"/>
         <v>4240</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="10">
         <f t="shared" si="4"/>
-        <v>4247.1165145298355</v>
-      </c>
-      <c r="L42" s="21">
+        <v>4244.2803518686815</v>
+      </c>
+      <c r="L42" s="3">
         <f t="shared" si="8"/>
-        <v>2.1321576836358496</v>
-      </c>
-      <c r="M42" s="40">
-        <f>$K$2*(J42-K42)^2</f>
-        <v>0.10128955810671994</v>
-      </c>
-      <c r="N42" s="25">
+        <v>4.1146455551230092</v>
+      </c>
+      <c r="M42" s="33">
+        <f t="shared" ref="M42:M50" si="14">$K$2*(J42-K42)^2</f>
+        <v>3.6642824239449805E-2</v>
+      </c>
+      <c r="N42" s="7">
         <f t="shared" si="10"/>
-        <v>2.2334472417425695</v>
-      </c>
-      <c r="O42" s="37">
+        <v>4.1512883793624589</v>
+      </c>
+      <c r="O42" s="30">
         <f>N41+O41</f>
-        <v>609.56986769869638</v>
+        <v>619.82443721235416</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2859,51 +2842,51 @@
         <v>120</v>
       </c>
       <c r="D43" s="13">
-        <v>28.980768000000001</v>
-      </c>
-      <c r="E43" s="27">
-        <f t="shared" ref="E43:E50" si="13">E42+D39-H42</f>
-        <v>1188.7508160159198</v>
-      </c>
-      <c r="F43" s="27">
-        <f t="shared" ref="F43:F50" si="14">F42+G42</f>
-        <v>122.52550768516961</v>
-      </c>
-      <c r="G43" s="27">
-        <f t="shared" ref="G43:G50" si="15">(I43-F43)/$G$2</f>
-        <v>-1.2168086945258807</v>
-      </c>
-      <c r="H43" s="27">
-        <f t="shared" ref="H43:H50" si="16">F43</f>
-        <v>122.52550768516961</v>
-      </c>
-      <c r="I43" s="34">
-        <f t="shared" ref="I43:I50" si="17">E43/$I$2</f>
-        <v>118.87508160159197</v>
+        <v>46.215525</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" ref="E43:E50" si="15">E42+D39-H42</f>
+        <v>1215.7297068596729</v>
+      </c>
+      <c r="F43" s="21">
+        <f t="shared" ref="F43:F50" si="16">F42+G42</f>
+        <v>122.96132581880794</v>
+      </c>
+      <c r="G43" s="21">
+        <f t="shared" ref="G43:G50" si="17">(I43-F43)/$G$2</f>
+        <v>-0.46278504428021466</v>
+      </c>
+      <c r="H43" s="21">
+        <f t="shared" ref="H43:H50" si="18">F43</f>
+        <v>122.96132581880794</v>
+      </c>
+      <c r="I43" s="27">
+        <f t="shared" ref="I43:I50" si="19">E43/$I$2</f>
+        <v>121.57297068596729</v>
       </c>
       <c r="J43" s="14">
-        <f t="shared" ref="J43:J50" si="18">J42+C42</f>
+        <f t="shared" ref="J43:J50" si="20">J42+C42</f>
         <v>4360</v>
       </c>
       <c r="K43" s="15">
-        <f t="shared" ref="K43:K50" si="19">K42+H42</f>
-        <v>4370.1090729840816</v>
+        <f t="shared" ref="K43:K50" si="21">K42+H42</f>
+        <v>4367.1825581403273</v>
       </c>
       <c r="L43" s="14">
-        <f t="shared" ref="L43:L50" si="20">(D43^2)*$M$2</f>
-        <v>0.83988491386982411</v>
-      </c>
-      <c r="M43" s="28">
-        <f>$K$2*(J43-K43)^2</f>
-        <v>0.20438671319497895</v>
-      </c>
-      <c r="N43" s="27">
-        <f t="shared" ref="N43:N50" si="21">L43+M43</f>
-        <v>1.0442716270648031</v>
-      </c>
-      <c r="O43" s="46">
-        <f t="shared" ref="O43:O50" si="22">N42+O42</f>
-        <v>611.80331494043901</v>
+        <f t="shared" ref="L43:L50" si="22">(D43^2)*$M$2</f>
+        <v>2.1358747510256251</v>
+      </c>
+      <c r="M43" s="22">
+        <f t="shared" si="14"/>
+        <v>0.10317828287836317</v>
+      </c>
+      <c r="N43" s="21">
+        <f t="shared" ref="N43:N50" si="23">L43+M43</f>
+        <v>2.2390530339039882</v>
+      </c>
+      <c r="O43" s="39">
+        <f t="shared" ref="O43:O50" si="24">N42+O42</f>
+        <v>623.97572559171658</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2915,51 +2898,51 @@
         <v>120</v>
       </c>
       <c r="D44" s="13">
-        <v>14.493748999999999</v>
-      </c>
-      <c r="E44" s="27">
-        <f t="shared" si="13"/>
-        <v>1147.2618503307501</v>
-      </c>
-      <c r="F44" s="27">
+        <v>29.053896000000002</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" si="15"/>
+        <v>1188.684418040865</v>
+      </c>
+      <c r="F44" s="21">
+        <f t="shared" si="16"/>
+        <v>122.49854077452773</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" si="17"/>
+        <v>-1.2100329901470748</v>
+      </c>
+      <c r="H44" s="21">
+        <f t="shared" si="18"/>
+        <v>122.49854077452773</v>
+      </c>
+      <c r="I44" s="27">
+        <f t="shared" si="19"/>
+        <v>118.8684418040865</v>
+      </c>
+      <c r="J44" s="21">
+        <f t="shared" si="20"/>
+        <v>4480</v>
+      </c>
+      <c r="K44" s="21">
+        <f t="shared" si="21"/>
+        <v>4490.1438839591356</v>
+      </c>
+      <c r="L44" s="14">
+        <f t="shared" si="22"/>
+        <v>0.8441288727788161</v>
+      </c>
+      <c r="M44" s="34">
         <f t="shared" si="14"/>
-        <v>121.30869899064373</v>
-      </c>
-      <c r="G44" s="27">
-        <f t="shared" si="15"/>
-        <v>-2.1941713191895738</v>
-      </c>
-      <c r="H44" s="27">
-        <f t="shared" si="16"/>
-        <v>121.30869899064373</v>
-      </c>
-      <c r="I44" s="34">
-        <f t="shared" si="17"/>
-        <v>114.72618503307501</v>
-      </c>
-      <c r="J44" s="27">
-        <f t="shared" si="18"/>
-        <v>4480</v>
-      </c>
-      <c r="K44" s="27">
-        <f t="shared" si="19"/>
-        <v>4492.6345806692516</v>
-      </c>
-      <c r="L44" s="14">
-        <f t="shared" si="20"/>
-        <v>0.21006876007500097</v>
-      </c>
-      <c r="M44" s="41">
-        <f>$K$2*(J44-K44)^2</f>
-        <v>0.31926525737565198</v>
-      </c>
-      <c r="N44" s="27">
-        <f t="shared" si="21"/>
-        <v>0.52933401745065289</v>
-      </c>
-      <c r="O44" s="46">
-        <f t="shared" si="22"/>
-        <v>612.84758656750387</v>
+        <v>0.20579676355281565</v>
+      </c>
+      <c r="N44" s="21">
+        <f t="shared" si="23"/>
+        <v>1.0499256363316318</v>
+      </c>
+      <c r="O44" s="39">
+        <f t="shared" si="24"/>
+        <v>626.21477862562062</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2971,51 +2954,51 @@
         <v>120</v>
       </c>
       <c r="D45" s="13">
-        <v>4.4988229999999998</v>
-      </c>
-      <c r="E45" s="27">
-        <f t="shared" si="13"/>
-        <v>1090.0568853401064</v>
-      </c>
-      <c r="F45" s="27">
+        <v>14.514097</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" si="15"/>
+        <v>1147.2910012663372</v>
+      </c>
+      <c r="F45" s="21">
+        <f t="shared" si="16"/>
+        <v>121.28850778438066</v>
+      </c>
+      <c r="G45" s="21">
+        <f t="shared" si="17"/>
+        <v>-2.1864692192489819</v>
+      </c>
+      <c r="H45" s="21">
+        <f t="shared" si="18"/>
+        <v>121.28850778438066</v>
+      </c>
+      <c r="I45" s="27">
+        <f t="shared" si="19"/>
+        <v>114.72910012663371</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="20"/>
+        <v>4600</v>
+      </c>
+      <c r="K45" s="15">
+        <f t="shared" si="21"/>
+        <v>4612.6424247336636</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" si="22"/>
+        <v>0.21065901172540899</v>
+      </c>
+      <c r="M45" s="22">
         <f t="shared" si="14"/>
-        <v>119.11452767145416</v>
-      </c>
-      <c r="G45" s="27">
-        <f t="shared" si="15"/>
-        <v>-3.3696130458145035</v>
-      </c>
-      <c r="H45" s="27">
-        <f t="shared" si="16"/>
-        <v>119.11452767145416</v>
-      </c>
-      <c r="I45" s="34">
-        <f t="shared" si="17"/>
-        <v>109.00568853401064</v>
-      </c>
-      <c r="J45" s="14">
-        <f t="shared" si="18"/>
-        <v>4600</v>
-      </c>
-      <c r="K45" s="15">
-        <f t="shared" si="19"/>
-        <v>4613.9432796598958</v>
-      </c>
-      <c r="L45" s="14">
-        <f t="shared" si="20"/>
-        <v>2.0239408385329002E-2</v>
-      </c>
-      <c r="M45" s="28">
-        <f>$K$2*(J45-K45)^2</f>
-        <v>0.38883009534812674</v>
-      </c>
-      <c r="N45" s="27">
-        <f t="shared" si="21"/>
-        <v>0.40906950373345574</v>
-      </c>
-      <c r="O45" s="46">
-        <f t="shared" si="22"/>
-        <v>613.37692058495452</v>
+        <v>0.31966180629269703</v>
+      </c>
+      <c r="N45" s="21">
+        <f t="shared" si="23"/>
+        <v>0.53032081801810604</v>
+      </c>
+      <c r="O45" s="39">
+        <f t="shared" si="24"/>
+        <v>627.26470426195226</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3027,51 +3010,51 @@
         <v>120</v>
       </c>
       <c r="D46" s="13">
-        <v>0</v>
-      </c>
-      <c r="E46" s="27">
-        <f t="shared" si="13"/>
-        <v>1017.1176506686522</v>
-      </c>
-      <c r="F46" s="27">
+        <v>4.5074569999999996</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" si="15"/>
+        <v>1090.1479964819564</v>
+      </c>
+      <c r="F46" s="21">
+        <f t="shared" si="16"/>
+        <v>119.10203856513168</v>
+      </c>
+      <c r="G46" s="21">
+        <f t="shared" si="17"/>
+        <v>-3.3624129723120149</v>
+      </c>
+      <c r="H46" s="21">
+        <f t="shared" si="18"/>
+        <v>119.10203856513168</v>
+      </c>
+      <c r="I46" s="27">
+        <f t="shared" si="19"/>
+        <v>109.01479964819563</v>
+      </c>
+      <c r="J46" s="14">
+        <f t="shared" si="20"/>
+        <v>4720</v>
+      </c>
+      <c r="K46" s="15">
+        <f t="shared" si="21"/>
+        <v>4733.9309325180438</v>
+      </c>
+      <c r="L46" s="14">
+        <f t="shared" si="22"/>
+        <v>2.0317168606848995E-2</v>
+      </c>
+      <c r="M46" s="34">
         <f t="shared" si="14"/>
-        <v>115.74491462563965</v>
-      </c>
-      <c r="G46" s="27">
-        <f t="shared" si="15"/>
-        <v>-4.6777165195914749</v>
-      </c>
-      <c r="H46" s="27">
-        <f t="shared" si="16"/>
-        <v>115.74491462563965</v>
-      </c>
-      <c r="I46" s="34">
-        <f t="shared" si="17"/>
-        <v>101.71176506686523</v>
-      </c>
-      <c r="J46" s="14">
-        <f t="shared" si="18"/>
-        <v>4720</v>
-      </c>
-      <c r="K46" s="15">
-        <f t="shared" si="19"/>
-        <v>4733.05780733135</v>
-      </c>
-      <c r="L46" s="14">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="41">
-        <f>$K$2*(J46-K46)^2</f>
-        <v>0.34101266460531443</v>
-      </c>
-      <c r="N46" s="27">
-        <f t="shared" si="21"/>
-        <v>0.34101266460531443</v>
-      </c>
-      <c r="O46" s="46">
-        <f t="shared" si="22"/>
-        <v>613.78599008868798</v>
+        <v>0.38814176164458292</v>
+      </c>
+      <c r="N46" s="21">
+        <f t="shared" si="23"/>
+        <v>0.40845893025143193</v>
+      </c>
+      <c r="O46" s="39">
+        <f t="shared" si="24"/>
+        <v>627.7950250799704</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3085,49 +3068,49 @@
       <c r="D47" s="13">
         <v>0</v>
       </c>
-      <c r="E47" s="27">
-        <f t="shared" si="13"/>
-        <v>930.35350404301244</v>
-      </c>
-      <c r="F47" s="27">
+      <c r="E47" s="21">
+        <f t="shared" si="15"/>
+        <v>1017.2614829168248</v>
+      </c>
+      <c r="F47" s="21">
+        <f t="shared" si="16"/>
+        <v>115.73962559281966</v>
+      </c>
+      <c r="G47" s="21">
+        <f t="shared" si="17"/>
+        <v>-4.6711591003790618</v>
+      </c>
+      <c r="H47" s="21">
+        <f t="shared" si="18"/>
+        <v>115.73962559281966</v>
+      </c>
+      <c r="I47" s="27">
+        <f t="shared" si="19"/>
+        <v>101.72614829168248</v>
+      </c>
+      <c r="J47" s="14">
+        <f t="shared" si="20"/>
+        <v>4840</v>
+      </c>
+      <c r="K47" s="15">
+        <f t="shared" si="21"/>
+        <v>4853.0329710831757</v>
+      </c>
+      <c r="L47" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="22">
         <f t="shared" si="14"/>
-        <v>111.06719810604818</v>
-      </c>
-      <c r="G47" s="27">
-        <f t="shared" si="15"/>
-        <v>-6.0106159005823132</v>
-      </c>
-      <c r="H47" s="27">
-        <f t="shared" si="16"/>
-        <v>111.06719810604818</v>
-      </c>
-      <c r="I47" s="34">
-        <f t="shared" si="17"/>
-        <v>93.035350404301241</v>
-      </c>
-      <c r="J47" s="14">
-        <f t="shared" si="18"/>
-        <v>4840</v>
-      </c>
-      <c r="K47" s="15">
-        <f t="shared" si="19"/>
-        <v>4848.8027219569894</v>
-      </c>
-      <c r="L47" s="14">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="28">
-        <f>$K$2*(J47-K47)^2</f>
-        <v>0.15497582770412813</v>
-      </c>
-      <c r="N47" s="27">
-        <f t="shared" si="21"/>
-        <v>0.15497582770412813</v>
-      </c>
-      <c r="O47" s="46">
-        <f t="shared" si="22"/>
-        <v>614.12700275329325</v>
+        <v>0.33971667050978549</v>
+      </c>
+      <c r="N47" s="21">
+        <f t="shared" si="23"/>
+        <v>0.33971667050978549</v>
+      </c>
+      <c r="O47" s="39">
+        <f t="shared" si="24"/>
+        <v>628.20348401022181</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3141,49 +3124,49 @@
       <c r="D48" s="13">
         <v>0</v>
       </c>
-      <c r="E48" s="27">
-        <f t="shared" si="13"/>
-        <v>833.78005493696423</v>
-      </c>
-      <c r="F48" s="27">
+      <c r="E48" s="21">
+        <f t="shared" si="15"/>
+        <v>930.57575332400506</v>
+      </c>
+      <c r="F48" s="21">
+        <f t="shared" si="16"/>
+        <v>111.06846649244061</v>
+      </c>
+      <c r="G48" s="21">
+        <f t="shared" si="17"/>
+        <v>-6.003630386680034</v>
+      </c>
+      <c r="H48" s="21">
+        <f t="shared" si="18"/>
+        <v>111.06846649244061</v>
+      </c>
+      <c r="I48" s="27">
+        <f t="shared" si="19"/>
+        <v>93.057575332400503</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="20"/>
+        <v>4960</v>
+      </c>
+      <c r="K48" s="15">
+        <f t="shared" si="21"/>
+        <v>4968.7725966759954</v>
+      </c>
+      <c r="L48" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="34">
         <f t="shared" si="14"/>
-        <v>105.05658220546587</v>
-      </c>
-      <c r="G48" s="27">
-        <f t="shared" si="15"/>
-        <v>-7.226192237256484</v>
-      </c>
-      <c r="H48" s="27">
-        <f t="shared" si="16"/>
-        <v>105.05658220546587</v>
-      </c>
-      <c r="I48" s="34">
-        <f t="shared" si="17"/>
-        <v>83.378005493696421</v>
-      </c>
-      <c r="J48" s="14">
-        <f t="shared" si="18"/>
-        <v>4960</v>
-      </c>
-      <c r="K48" s="15">
-        <f t="shared" si="19"/>
-        <v>4959.8699200630381</v>
-      </c>
-      <c r="L48" s="14">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="41">
-        <f>$K$2*(J48-K48)^2</f>
-        <v>3.3841580000034102E-5</v>
-      </c>
-      <c r="N48" s="27">
-        <f t="shared" si="21"/>
-        <v>3.3841580000034102E-5</v>
-      </c>
-      <c r="O48" s="46">
-        <f t="shared" si="22"/>
-        <v>614.28197858099736</v>
+        <v>0.15391690487937015</v>
+      </c>
+      <c r="N48" s="21">
+        <f t="shared" si="23"/>
+        <v>0.15391690487937015</v>
+      </c>
+      <c r="O48" s="39">
+        <f t="shared" si="24"/>
+        <v>628.54320068073162</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3197,49 +3180,49 @@
       <c r="D49" s="13">
         <v>0</v>
       </c>
-      <c r="E49" s="27">
-        <f t="shared" si="13"/>
-        <v>733.22229573149843</v>
-      </c>
-      <c r="F49" s="27">
+      <c r="E49" s="21">
+        <f t="shared" si="15"/>
+        <v>834.02138383156444</v>
+      </c>
+      <c r="F49" s="21">
+        <f t="shared" si="16"/>
+        <v>105.06483610576058</v>
+      </c>
+      <c r="G49" s="21">
+        <f t="shared" si="17"/>
+        <v>-7.2208992408680457</v>
+      </c>
+      <c r="H49" s="21">
+        <f t="shared" si="18"/>
+        <v>105.06483610576058</v>
+      </c>
+      <c r="I49" s="27">
+        <f t="shared" si="19"/>
+        <v>83.402138383156441</v>
+      </c>
+      <c r="J49" s="14">
+        <f t="shared" si="20"/>
+        <v>5080</v>
+      </c>
+      <c r="K49" s="15">
+        <f t="shared" si="21"/>
+        <v>5079.8410631684355</v>
+      </c>
+      <c r="L49" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="22">
         <f t="shared" si="14"/>
-        <v>97.830389968209388</v>
-      </c>
-      <c r="G49" s="27">
-        <f t="shared" si="15"/>
-        <v>-8.169386798353182</v>
-      </c>
-      <c r="H49" s="27">
-        <f t="shared" si="16"/>
-        <v>97.830389968209388</v>
-      </c>
-      <c r="I49" s="34">
-        <f t="shared" si="17"/>
-        <v>73.322229573149841</v>
-      </c>
-      <c r="J49" s="14">
-        <f t="shared" si="18"/>
-        <v>5080</v>
-      </c>
-      <c r="K49" s="15">
-        <f t="shared" si="19"/>
-        <v>5064.926502268504</v>
-      </c>
-      <c r="L49" s="14">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="28">
-        <f>$K$2*(J49-K49)^2</f>
-        <v>0.45442066772282952</v>
-      </c>
-      <c r="N49" s="27">
-        <f t="shared" si="21"/>
-        <v>0.45442066772282952</v>
-      </c>
-      <c r="O49" s="46">
-        <f t="shared" si="22"/>
-        <v>614.2820124225774</v>
+        <v>5.052183285549943E-5</v>
+      </c>
+      <c r="N49" s="21">
+        <f t="shared" si="23"/>
+        <v>5.052183285549943E-5</v>
+      </c>
+      <c r="O49" s="39">
+        <f t="shared" si="24"/>
+        <v>628.69711758561095</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3253,49 +3236,49 @@
       <c r="D50" s="13">
         <v>0</v>
       </c>
-      <c r="E50" s="27">
-        <f t="shared" si="13"/>
-        <v>635.39190576328906</v>
-      </c>
-      <c r="F50" s="27">
+      <c r="E50" s="21">
+        <f t="shared" si="15"/>
+        <v>733.46400472580387</v>
+      </c>
+      <c r="F50" s="21">
+        <f t="shared" si="16"/>
+        <v>97.843936864892527</v>
+      </c>
+      <c r="G50" s="21">
+        <f t="shared" si="17"/>
+        <v>-8.1658454641040468</v>
+      </c>
+      <c r="H50" s="21">
+        <f t="shared" si="18"/>
+        <v>97.843936864892527</v>
+      </c>
+      <c r="I50" s="27">
+        <f t="shared" si="19"/>
+        <v>73.346400472580385</v>
+      </c>
+      <c r="J50" s="14">
+        <f t="shared" si="20"/>
+        <v>5200</v>
+      </c>
+      <c r="K50" s="15">
+        <f t="shared" si="21"/>
+        <v>5184.9058992741957</v>
+      </c>
+      <c r="L50" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="34">
         <f t="shared" si="14"/>
-        <v>89.661003169856201</v>
-      </c>
-      <c r="G50" s="27">
-        <f t="shared" si="15"/>
-        <v>-8.7072708645090984</v>
-      </c>
-      <c r="H50" s="27">
-        <f t="shared" si="16"/>
-        <v>89.661003169856201</v>
-      </c>
-      <c r="I50" s="34">
-        <f t="shared" si="17"/>
-        <v>63.539190576328906</v>
-      </c>
-      <c r="J50" s="14">
-        <f t="shared" si="18"/>
-        <v>5200</v>
-      </c>
-      <c r="K50" s="15">
-        <f t="shared" si="19"/>
-        <v>5162.7568922367136</v>
-      </c>
-      <c r="L50" s="14">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="41">
-        <f>$K$2*(J50-K50)^2</f>
-        <v>2.7740981517355259</v>
-      </c>
-      <c r="N50" s="27">
-        <f t="shared" si="21"/>
-        <v>2.7740981517355259</v>
-      </c>
-      <c r="O50" s="46">
-        <f t="shared" si="22"/>
-        <v>614.73643309030024</v>
+        <v>0.45566375344145243</v>
+      </c>
+      <c r="N50" s="21">
+        <f t="shared" si="23"/>
+        <v>0.45566375344145243</v>
+      </c>
+      <c r="O50" s="39">
+        <f t="shared" si="24"/>
+        <v>628.69716810744376</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3309,49 +3292,49 @@
       <c r="D51" s="13">
         <v>0</v>
       </c>
-      <c r="E51" s="27">
-        <f t="shared" ref="E51:E53" si="23">E50+D47-H50</f>
-        <v>545.7309025934328</v>
-      </c>
-      <c r="F51" s="27">
-        <f t="shared" ref="F51:F53" si="24">F50+G50</f>
-        <v>80.953732305347103</v>
-      </c>
-      <c r="G51" s="27">
-        <f t="shared" ref="G51:G53" si="25">(I51-F51)/$G$2</f>
-        <v>-8.793547348667941</v>
-      </c>
-      <c r="H51" s="27">
-        <f t="shared" ref="H51:H53" si="26">F51</f>
-        <v>80.953732305347103</v>
-      </c>
-      <c r="I51" s="34">
-        <f t="shared" ref="I51:I53" si="27">E51/$I$2</f>
-        <v>54.573090259343282</v>
+      <c r="E51" s="21">
+        <f t="shared" ref="E51:E53" si="25">E50+D47-H50</f>
+        <v>635.62006786091138</v>
+      </c>
+      <c r="F51" s="21">
+        <f t="shared" ref="F51:F53" si="26">F50+G50</f>
+        <v>89.678091400788475</v>
+      </c>
+      <c r="G51" s="21">
+        <f t="shared" ref="G51:G53" si="27">(I51-F51)/$G$2</f>
+        <v>-8.7053615382324452</v>
+      </c>
+      <c r="H51" s="21">
+        <f t="shared" ref="H51:H53" si="28">F51</f>
+        <v>89.678091400788475</v>
+      </c>
+      <c r="I51" s="27">
+        <f t="shared" ref="I51:I53" si="29">E51/$I$2</f>
+        <v>63.562006786091139</v>
       </c>
       <c r="J51" s="14">
-        <f t="shared" ref="J51:J53" si="28">J50+C50</f>
+        <f t="shared" ref="J51:J53" si="30">J50+C50</f>
         <v>5320</v>
       </c>
       <c r="K51" s="15">
-        <f t="shared" ref="K51:K53" si="29">K50+H50</f>
-        <v>5252.4178954065701</v>
+        <f t="shared" ref="K51:K53" si="31">K50+H50</f>
+        <v>5282.7498361390881</v>
       </c>
       <c r="L51" s="14">
-        <f t="shared" ref="L51:L53" si="30">(D51^2)*$M$2</f>
+        <f t="shared" ref="L51:L53" si="32">(D51^2)*$M$2</f>
         <v>0</v>
       </c>
-      <c r="M51" s="28">
-        <f t="shared" ref="M51:M52" si="31">$K$2*(J51-K51)^2</f>
-        <v>9.134681722554598</v>
-      </c>
-      <c r="N51" s="27">
-        <f t="shared" ref="N51:N53" si="32">L51+M51</f>
-        <v>9.134681722554598</v>
-      </c>
-      <c r="O51" s="46">
-        <f t="shared" ref="O51" si="33">N50+O50</f>
-        <v>617.51053124203577</v>
+      <c r="M51" s="22">
+        <f t="shared" ref="M51:M52" si="33">$K$2*(J51-K51)^2</f>
+        <v>2.7751494153295777</v>
+      </c>
+      <c r="N51" s="21">
+        <f t="shared" ref="N51:N53" si="34">L51+M51</f>
+        <v>2.7751494153295777</v>
+      </c>
+      <c r="O51" s="39">
+        <f t="shared" ref="O51" si="35">N50+O50</f>
+        <v>629.15283186088516</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3363,51 +3346,51 @@
         <v>120</v>
       </c>
       <c r="D52" s="13">
-        <v>8.5620820000000002</v>
-      </c>
-      <c r="E52" s="27">
-        <f t="shared" si="23"/>
-        <v>464.7771702880857</v>
-      </c>
-      <c r="F52" s="27">
-        <f t="shared" si="24"/>
-        <v>72.16018495667916</v>
-      </c>
-      <c r="G52" s="27">
+        <v>0</v>
+      </c>
+      <c r="E52" s="21">
         <f t="shared" si="25"/>
-        <v>-8.5608226426235294</v>
-      </c>
-      <c r="H52" s="27">
+        <v>545.94197646012287</v>
+      </c>
+      <c r="F52" s="21">
         <f t="shared" si="26"/>
-        <v>72.16018495667916</v>
-      </c>
-      <c r="I52" s="34">
+        <v>80.972729862556037</v>
+      </c>
+      <c r="G52" s="21">
         <f t="shared" si="27"/>
-        <v>46.47771702880857</v>
+        <v>-8.7928440721812482</v>
+      </c>
+      <c r="H52" s="21">
+        <f t="shared" si="28"/>
+        <v>80.972729862556037</v>
+      </c>
+      <c r="I52" s="27">
+        <f t="shared" si="29"/>
+        <v>54.59419764601229</v>
       </c>
       <c r="J52" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5440</v>
       </c>
       <c r="K52" s="15">
-        <f t="shared" si="29"/>
-        <v>5333.3716277119174</v>
+        <f t="shared" si="31"/>
+        <v>5372.4279275398767</v>
       </c>
       <c r="L52" s="14">
-        <f t="shared" si="30"/>
-        <v>7.3309248174724007E-2</v>
-      </c>
-      <c r="M52" s="28">
-        <f t="shared" si="31"/>
-        <v>22.739219553611871</v>
-      </c>
-      <c r="N52" s="27">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="22">
+        <f t="shared" si="33"/>
+        <v>9.1319699531123106</v>
+      </c>
+      <c r="N52" s="21">
         <f>L52+M52</f>
-        <v>22.812528801786595</v>
-      </c>
-      <c r="O52" s="38">
+        <v>9.1319699531123106</v>
+      </c>
+      <c r="O52" s="31">
         <f>N51+O51</f>
-        <v>626.64521296459031</v>
+        <v>631.92798127621472</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3419,51 +3402,51 @@
         <v>120</v>
       </c>
       <c r="D53" s="13">
-        <v>272.24740500000001</v>
-      </c>
-      <c r="E53" s="27">
-        <f t="shared" si="23"/>
-        <v>392.61698533140657</v>
-      </c>
-      <c r="F53" s="27">
-        <f t="shared" si="24"/>
-        <v>63.599362314055632</v>
-      </c>
-      <c r="G53" s="27">
+        <v>466.97912300000002</v>
+      </c>
+      <c r="E53" s="21">
         <f t="shared" si="25"/>
-        <v>-8.1125545936383237</v>
-      </c>
-      <c r="H53" s="27">
+        <v>464.96924659756684</v>
+      </c>
+      <c r="F53" s="21">
         <f t="shared" si="26"/>
-        <v>63.599362314055632</v>
-      </c>
-      <c r="I53" s="34">
+        <v>72.179885790374783</v>
+      </c>
+      <c r="G53" s="21">
         <f t="shared" si="27"/>
-        <v>39.26169853314066</v>
+        <v>-8.5609870435393649</v>
+      </c>
+      <c r="H53" s="21">
+        <f t="shared" si="28"/>
+        <v>72.179885790374783</v>
+      </c>
+      <c r="I53" s="27">
+        <f t="shared" si="29"/>
+        <v>46.496924659756687</v>
       </c>
       <c r="J53" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5560</v>
       </c>
       <c r="K53" s="15">
-        <f t="shared" si="29"/>
-        <v>5405.531812668597</v>
+        <f t="shared" si="31"/>
+        <v>5453.4006574024324</v>
       </c>
       <c r="L53" s="14">
-        <f t="shared" si="30"/>
-        <v>74.118649529234034</v>
-      </c>
-      <c r="M53" s="41">
+        <f t="shared" si="32"/>
+        <v>218.06950131784916</v>
+      </c>
+      <c r="M53" s="34">
         <f>$K$2*(J53-K53)^2</f>
-        <v>47.720841794898817</v>
-      </c>
-      <c r="N53" s="27">
-        <f t="shared" si="32"/>
-        <v>121.83949132413285</v>
-      </c>
-      <c r="O53" s="38">
+        <v>22.726839684467162</v>
+      </c>
+      <c r="N53" s="21">
+        <f t="shared" si="34"/>
+        <v>240.79634100231632</v>
+      </c>
+      <c r="O53" s="31">
         <f>N52+O52</f>
-        <v>649.4577417663769</v>
+        <v>641.059951229327</v>
       </c>
     </row>
   </sheetData>
@@ -3478,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DDF011-5ED4-4060-9450-D6A520221E0D}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3503,447 +3486,447 @@
       <c r="A2" s="3">
         <v>259.68109199999998</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="10">
         <v>317.80883742269657</v>
       </c>
       <c r="C2" s="18">
-        <v>257.88594799999998</v>
+        <v>257.87345900000003</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>210.91152199999999</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="10">
         <v>146.87571865971336</v>
       </c>
       <c r="C3" s="18">
-        <v>209.57960399999999</v>
+        <v>209.57297500000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>171.350841</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="10">
         <v>175.73102677098026</v>
       </c>
       <c r="C4" s="18">
-        <v>170.28192899999999</v>
+        <v>170.26967400000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>137.64783800000001</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="10">
         <v>156.83470974675635</v>
       </c>
       <c r="C5" s="18">
-        <v>140.48525000000001</v>
+        <v>140.45232999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>116.813367</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="10">
         <v>41.07474421068445</v>
       </c>
       <c r="C6" s="18">
-        <v>119.745895</v>
+        <v>119.747095</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>106.903503</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="10">
         <v>121.62919140667753</v>
       </c>
       <c r="C7" s="18">
-        <v>106.944228</v>
+        <v>106.932964</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>99.212434000000002</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="10">
         <v>140.87852805548823</v>
       </c>
       <c r="C8" s="18">
-        <v>100.590215</v>
+        <v>100.567978</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>100.905815</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="10">
         <v>102.03210318704643</v>
       </c>
       <c r="C9" s="18">
-        <v>98.957812000000004</v>
+        <v>98.947665999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>101.574658</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="10">
         <v>69.265312593621772</v>
       </c>
       <c r="C10" s="18">
-        <v>100.573847</v>
+        <v>100.58298000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>103.55455499999999</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="10">
         <v>143.15135912273524</v>
       </c>
       <c r="C11" s="18">
-        <v>104.003215</v>
+        <v>104.07507699999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>111.824151</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="10">
         <v>131.96685550900156</v>
       </c>
       <c r="C12" s="18">
-        <v>108.177549</v>
+        <v>108.240358</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>108.795968</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="10">
         <v>112.73538167582879</v>
       </c>
       <c r="C13" s="18">
-        <v>112.306256</v>
+        <v>112.41003000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>119.52606900000001</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="10">
         <v>95.042938113214589</v>
       </c>
       <c r="C14" s="18">
-        <v>115.84292600000001</v>
+        <v>115.965197</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>115.227715</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="10">
         <v>86.50214370734119</v>
       </c>
       <c r="C15" s="18">
-        <v>118.57893</v>
+        <v>118.76067999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>119.91098700000001</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="10">
         <v>104.50118693673808</v>
       </c>
       <c r="C16" s="18">
-        <v>120.433598</v>
+        <v>120.641251</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>122.385437</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="10">
         <v>159.86136753220958</v>
       </c>
       <c r="C17" s="18">
-        <v>121.468221</v>
+        <v>121.7003</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>124.69295099999999</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="10">
         <v>140.86506146722488</v>
       </c>
       <c r="C18" s="18">
-        <v>121.90404599999999</v>
+        <v>122.056713</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>117.84640899999999</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="10">
         <v>138.1043383867457</v>
       </c>
       <c r="C19" s="18">
-        <v>121.936881</v>
+        <v>121.98632600000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>119.107401</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="10">
         <v>78.037444643651398</v>
       </c>
       <c r="C20" s="18">
-        <v>121.740031</v>
+        <v>121.622893</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>124.291034</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="10">
         <v>125.62485637029872</v>
       </c>
       <c r="C21" s="18">
-        <v>121.609876</v>
+        <v>121.25402200000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>121.249171</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="10">
         <v>139.0813120347114</v>
       </c>
       <c r="C22" s="18">
-        <v>121.694585</v>
+        <v>121.035872</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>125.60300700000001</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="10">
         <v>117.61628581786628</v>
       </c>
       <c r="C23" s="18">
-        <v>122.074336</v>
+        <v>121.103286</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>120.210285</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="10">
         <v>120.91904018510864</v>
       </c>
       <c r="C24" s="18">
-        <v>122.85516800000001</v>
+        <v>121.6123</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>118.79460899999999</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="10">
         <v>121.21673109634597</v>
       </c>
       <c r="C25" s="18">
-        <v>123.955394</v>
+        <v>122.455393</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>122.119877</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="10">
         <v>122.6829826451762</v>
       </c>
       <c r="C26" s="18">
-        <v>125.262838</v>
+        <v>123.631118</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>127.64285099999999</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="10">
         <v>121.84933706088763</v>
       </c>
       <c r="C27" s="18">
-        <v>126.525919</v>
+        <v>125.069901</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>126.831763</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="10">
         <v>136.56399551597977</v>
       </c>
       <c r="C28" s="18">
-        <v>127.385289</v>
+        <v>126.46213400000001</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>128.09689900000001</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="10">
         <v>116.93783458313656</v>
       </c>
       <c r="C29" s="18">
-        <v>127.36169</v>
+        <v>127.365476</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>124.572547</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="10">
         <v>117.04514843253865</v>
       </c>
       <c r="C30" s="18">
-        <v>125.959214</v>
+        <v>127.424672</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>129.667383</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="10">
         <v>123.08652434481164</v>
       </c>
       <c r="C31" s="18">
-        <v>122.544263</v>
+        <v>125.990233</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>123.09179</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="10">
         <v>131.21275013517163</v>
       </c>
       <c r="C32" s="18">
-        <v>116.606128</v>
+        <v>122.600736</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>118.535635</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="10">
         <v>90.29289188785225</v>
       </c>
       <c r="C33" s="18">
-        <v>107.759495</v>
+        <v>116.664912</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>105.193628</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="10">
         <v>118.7666684059859</v>
       </c>
       <c r="C34" s="18">
-        <v>95.829312999999999</v>
+        <v>107.836264</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>94.023910999999998</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="10">
         <v>124.17729520123876</v>
       </c>
       <c r="C35" s="18">
-        <v>81.036541999999997</v>
+        <v>95.916037000000003</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>84.703581</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="10">
         <v>53.344687673445094</v>
       </c>
       <c r="C36" s="18">
-        <v>64.103734000000003</v>
+        <v>81.105124000000004</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>58.941260999999997</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="10">
         <v>72.397155693716186</v>
       </c>
       <c r="C37" s="18">
-        <v>46.175293000000003</v>
+        <v>64.145503000000005</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>48.466368000000003</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="8">
         <v>63.691835109378395</v>
       </c>
       <c r="C38" s="18">
-        <v>28.980768000000001</v>
+        <v>46.215525</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>25.639907999999998</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="8">
         <v>36.634380305058727</v>
       </c>
       <c r="C39" s="18">
-        <v>14.493748999999999</v>
+        <v>29.053896000000002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>11.491186000000001</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="8">
         <v>20.604345777853631</v>
       </c>
       <c r="C40" s="18">
-        <v>4.4988229999999998</v>
+        <v>14.514097</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>14.059443</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="8">
         <v>17.78900529591078</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>4.5074569999999996</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>9.0803580000000004</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="8">
         <v>25.640272564103594</v>
       </c>
       <c r="C42" s="3">
@@ -3954,7 +3937,7 @@
       <c r="A43" s="3">
         <v>9.4616699999999998</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="8">
         <v>19.536930018252395</v>
       </c>
       <c r="C43" s="3">
@@ -3965,7 +3948,7 @@
       <c r="A44" s="3">
         <v>8.4387889999999999</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="8">
         <v>11.762207429807578</v>
       </c>
       <c r="C44" s="3">
@@ -3976,7 +3959,7 @@
       <c r="A45" s="3">
         <v>9.2370800000000006</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="8">
         <v>15.67701264666872</v>
       </c>
       <c r="C45" s="3">
@@ -3987,7 +3970,7 @@
       <c r="A46" s="3">
         <v>12.557095</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="8">
         <v>8.9659754657417317</v>
       </c>
       <c r="C46" s="3">
@@ -3998,22 +3981,22 @@
       <c r="A47" s="3">
         <v>8.6049670000000003</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="8">
         <v>21.369244448169745</v>
       </c>
       <c r="C47" s="18">
-        <v>8.5620820000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>213.36166700000001</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="8">
         <v>37.736104850494939</v>
       </c>
       <c r="C48" s="3">
-        <v>272.24740500000001</v>
+        <v>466.97912300000002</v>
       </c>
     </row>
   </sheetData>
@@ -4023,10 +4006,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F3A357-E2B5-4389-97AC-5662D981894E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,13 +4020,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4051,7 +4034,7 @@
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="40">
         <v>641.98895200000004</v>
       </c>
       <c r="C2" s="3">
@@ -4062,10 +4045,10 @@
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="24">
         <v>672.17962275020943</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="23">
         <v>644.60298552327629</v>
       </c>
     </row>
@@ -4073,12 +4056,15 @@
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="30">
-        <v>649.4577417663769</v>
-      </c>
-      <c r="C4" s="29">
-        <v>609.56986769869638</v>
-      </c>
+      <c r="B4" s="24">
+        <v>641.059951229327</v>
+      </c>
+      <c r="C4" s="23">
+        <v>619.82443721235416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RL_DS/utils/modelo_excel.xlsx
+++ b/RL_DS/utils/modelo_excel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDRIVE_JCE\Mi unidad\cod\RL_DS_dynamic\RL_DS\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC02ACF-7BCC-4B44-814D-03AE7D98C0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FBD9F8-CB10-43B5-BF49-E80A4D082824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9190A782-109A-4E43-A899-3A4B83188105}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9190A782-109A-4E43-A899-3A4B83188105}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo" sheetId="1" r:id="rId1"/>
-    <sheet name="políticas" sheetId="2" r:id="rId2"/>
-    <sheet name="resultados" sheetId="3" r:id="rId3"/>
+    <sheet name="graficas" sheetId="4" r:id="rId2"/>
+    <sheet name="políticas" sheetId="2" r:id="rId3"/>
+    <sheet name="resultados" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Modelo!$D$7:$D$53</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Demanda</t>
   </si>
@@ -155,20 +156,24 @@
   <si>
     <t>Time to adjust capacity</t>
   </si>
+  <si>
+    <t>SAC runningscale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +197,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -228,8 +240,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -292,68 +305,65 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,6 +377,2299 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Costo paso</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Modelo!$N$7:$N$53</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1.0490483672574769E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0490483672574769E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0490483672574769E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0490483672574769E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81049048367257481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2104904836725749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0053852933306366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.635029362453235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.139313421125294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.505626870924388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.33900945928704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375.88441338722328</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>465.36103400094225</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>575.39244741186621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>710.67711763009117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>867.42883222740875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1010.9896228233275</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>944.03449623369852</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1023.3885152563785</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1016.8359154321545</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>917.10436906702739</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>736.51766044792612</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>506.99838256426017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>294.46067395381959</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135.59014660687629</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.790587540999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2037323423799542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.2638200276496656</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.323118230530575</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72.145367689728346</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>107.76914945853947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>134.42259818023652</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>142.644921296761</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>140.9691449441741</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>131.38577903039354</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>114.41353116475079</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92.233116478198042</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71.332796200492794</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.456661044602328</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5976302099002648</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3764290535634207</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.70177147554017116</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51767244731060225</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.390299140787732E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88524884945516624</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5218596716327681</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.191117480750938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00A5-4C71-9092-20B0C487B401}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1016851312"/>
+        <c:axId val="1016857072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1016851312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016857072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1016857072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016851312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Demanda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Modelo!$C$7:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0AF-4B27-AC23-17C746C71D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ordenes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Modelo!$D$7:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.764543533325099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.892364501953097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.892364501953097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162.36714172363199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>470.28668212890602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>479.18441772460898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>481.42630004882801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>483.40570068359301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>484.34115600585898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>457.88311767578102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.655143737792901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.23890161514282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9605517387390101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9868478775024396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.399755477905199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.5699138641357</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.96675491333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53.024024963378899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78.592033386230398</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>116.052864074707</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>154.78477478027301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>174.75248718261699</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>200.77067565917901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>226.31947326660099</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>241.75305175781199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>242.60469055175699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>234.89529418945301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>163.90579223632801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87.643875122070298</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.030963897705</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.8259468078613</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.9852705001831</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.2381839752197195</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.8449754714965</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.9141721725463</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.394557952880799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0AF-4B27-AC23-17C746C71D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Despacho</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Modelo!$H$7:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.774630053838095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.399013476901587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.697411477654072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.291006416097105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.638119379642077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.067791195306917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.80759848026684</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.824028414840726</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.137807238612858</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.849270990698024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.531224641588771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.133774113456198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91.523913530801821</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122.2937573402113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155.86971278491063</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190.32192970356513</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.3571878123638</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>239.79180035270386</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>243.41093250635652</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>237.93859065087292</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>226.28462838417673</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>210.69199723852159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>192.86205224911706</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>174.11770740618795</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>155.52563736518138</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>137.87365894023424</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>121.74048254023462</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>107.58813480600473</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95.862687730622952</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87.079186299709278</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81.896524557236305</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80.698269678273107</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.994631846477006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>88.527953491309802</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96.994329301869129</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>107.74608311779208</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>119.76759770340365</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>132.02024779620007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>141.65995434249515</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>146.60721295088754</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>146.41775234165613</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>141.99873639740099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D0AF-4B27-AC23-17C746C71D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1016752912"/>
+        <c:axId val="1016749072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1016752912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016749072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1016749072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1016752912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A31385-4942-4BD1-81BF-D1BE954BF72E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A794A6-394B-4B80-AA05-E6CE5C2F85C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8B34C3-B0EF-452A-B745-B234E9E67503}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,13 +3004,13 @@
     <col min="6" max="6" width="11.42578125" style="7"/>
     <col min="7" max="7" width="17" style="7" customWidth="1"/>
     <col min="8" max="8" width="18" style="7" customWidth="1"/>
-    <col min="9" max="9" width="23" style="24" customWidth="1"/>
+    <col min="9" max="9" width="23" style="23" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="7"/>
-    <col min="15" max="15" width="11.42578125" style="3"/>
+    <col min="14" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="3" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -715,7 +3018,7 @@
       <c r="G1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -765,7 +3068,7 @@
       <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -786,9 +3089,9 @@
       <c r="O3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="27">
         <f>O42</f>
-        <v>619.82443721235416</v>
+        <v>10657.26915309355</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -799,25 +3102,28 @@
       <c r="F4" s="20"/>
       <c r="G4" s="9"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="25"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="8">
         <f>SUM(L7:L53)</f>
-        <v>802.10404884968261</v>
+        <v>1786.5955789275829</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" ref="M4" si="0">SUM(M7:M53)</f>
-        <v>79.75224338196081</v>
+        <v>9208.9953112335716</v>
       </c>
       <c r="N4" s="8">
         <f>SUM(N7:N53)</f>
-        <v>881.85629223164335</v>
-      </c>
-      <c r="O4" s="5"/>
+        <v>10995.590890161156</v>
+      </c>
+      <c r="O4" s="30">
+        <f>MAX(O7:O1048576)</f>
+        <v>10984.399772680406</v>
+      </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -831,7 +3137,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="26"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="M5" s="6"/>
@@ -839,7 +3145,7 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2">
         <v>-1</v>
       </c>
@@ -851,7 +3157,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="26"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -860,15 +3166,15 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
       </c>
-      <c r="D7" s="13">
-        <v>257.87345900000003</v>
+      <c r="D7" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E7" s="6">
         <v>1000</v>
@@ -882,7 +3188,7 @@
       <c r="H7" s="6">
         <v>100</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <f>E7/$I$2</f>
         <v>100</v>
       </c>
@@ -892,19 +3198,19 @@
       <c r="K7" s="2">
         <v>100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="36">
         <f>(D7^2)*$M$2</f>
-        <v>66.498720856624701</v>
+        <v>1.0490483672574769E-2</v>
       </c>
       <c r="M7" s="32">
         <f>$K$2*(J7-K7)^2</f>
         <v>0</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="32">
         <f>L7+M7</f>
-        <v>66.498720856624701</v>
-      </c>
-      <c r="O7" s="2">
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="O7" s="32">
         <v>0</v>
       </c>
     </row>
@@ -915,8 +3221,8 @@
       <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="13">
-        <v>209.57297500000001</v>
+      <c r="D8" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E8" s="7">
         <f>E7+D5-H8</f>
@@ -934,7 +3240,7 @@
         <f>F8</f>
         <v>100</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <f t="shared" ref="I8:I42" si="2">E8/$I$2</f>
         <v>100</v>
       </c>
@@ -943,25 +3249,30 @@
         <v>200</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" ref="K8:K42" si="4">K7+H7</f>
+        <f>K7+H7</f>
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="37">
         <f>(D8^2)*$M$2</f>
-        <v>43.920831850350631</v>
-      </c>
-      <c r="M8" s="28">
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M8" s="33">
         <f>$K$2*(J8-K8)^2</f>
         <v>0</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="33">
         <f>L8+M8</f>
-        <v>43.920831850350631</v>
-      </c>
-      <c r="O8" s="35">
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="O8" s="34">
         <f>N7+O7</f>
-        <v>66.498720856624701</v>
-      </c>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="P8" s="39">
+        <f>$K$2*(C8-H8)^2</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -970,11 +3281,11 @@
       <c r="C9" s="2">
         <v>100</v>
       </c>
-      <c r="D9" s="13">
-        <v>170.26967400000001</v>
+      <c r="D9" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" ref="E9:E41" si="5">E8+D5-H8</f>
+        <f t="shared" ref="E9:E41" si="4">E8+D5-H8</f>
         <v>1000</v>
       </c>
       <c r="F9" s="7">
@@ -982,14 +3293,14 @@
         <v>100</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9" si="6">(I8-F8)/$G$2</f>
+        <f t="shared" ref="G9" si="5">(I8-F8)/$G$2</f>
         <v>0</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" ref="H9:H42" si="7">F9</f>
+        <f t="shared" ref="H9:H42" si="6">F9</f>
         <v>100</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -998,25 +3309,30 @@
         <v>300</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K9:K42" si="7">K8+H8</f>
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" ref="L9:L42" si="8">(D9^2)*$M$2</f>
-        <v>28.991761884066282</v>
-      </c>
-      <c r="M9" s="28">
-        <f t="shared" ref="M9:M41" si="9">$K$2*(J9-K9)^2</f>
+      <c r="L9" s="37">
+        <f>(D9^2)*$M$2</f>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M9" s="33">
+        <f>$K$2*(J9-K9)^2</f>
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <f t="shared" ref="N9:N42" si="10">L9+M9</f>
-        <v>28.991761884066282</v>
-      </c>
-      <c r="O9" s="36">
+      <c r="N9" s="33">
+        <f>L9+M9</f>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="O9" s="34">
         <f>N8+O8</f>
-        <v>110.41955270697534</v>
-      </c>
+        <v>2.0980967345149537E-2</v>
+      </c>
+      <c r="P9" s="39">
+        <f t="shared" ref="P9:P53" si="8">$K$2*(C9-H9)^2</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -1025,11 +3341,11 @@
       <c r="C10" s="2">
         <v>120</v>
       </c>
-      <c r="D10" s="13">
-        <v>140.45232999999999</v>
+      <c r="D10" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F10" s="7">
@@ -1041,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -1053,25 +3369,30 @@
         <v>400</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="37">
+        <f t="shared" ref="L10:L42" si="9">(D10^2)*$M$2</f>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M10" s="33">
+        <f t="shared" ref="M10:M41" si="10">$K$2*(J10-K10)^2</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <f t="shared" ref="N10:N42" si="11">L10+M10</f>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="O10" s="34">
+        <f t="shared" ref="O10:O41" si="12">N9+O9</f>
+        <v>3.1471451017724306E-2</v>
+      </c>
+      <c r="P10" s="39">
         <f t="shared" si="8"/>
-        <v>19.726857002428897</v>
-      </c>
-      <c r="M10" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <f t="shared" si="10"/>
-        <v>19.726857002428897</v>
-      </c>
-      <c r="O10" s="36">
-        <f t="shared" ref="O10:O41" si="11">N9+O9</f>
-        <v>139.41131459104162</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
@@ -1080,53 +3401,58 @@
       <c r="C11" s="2">
         <v>120</v>
       </c>
-      <c r="D11" s="13">
-        <v>119.747095</v>
+      <c r="D11" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="5"/>
-        <v>1157.8734589999999</v>
+        <f t="shared" si="4"/>
+        <v>903.23890161514282</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" ref="G11:G42" si="12">(I11-F11)/$G$2</f>
-        <v>5.2624486333333307</v>
+        <f t="shared" ref="G11:G42" si="13">(I11-F11)/$G$2</f>
+        <v>-3.225369946161905</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <f t="shared" si="2"/>
-        <v>115.78734589999999</v>
+        <v>90.323890161514285</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="37">
+        <f t="shared" si="9"/>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M11" s="33">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="33">
+        <f>L11+M11</f>
+        <v>0.81049048367257481</v>
+      </c>
+      <c r="O11" s="34">
+        <f>N10+O10</f>
+        <v>4.1961934690299074E-2</v>
+      </c>
+      <c r="P11" s="39">
         <f t="shared" si="8"/>
-        <v>14.339366760939026</v>
-      </c>
-      <c r="M11" s="28">
-        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
-      <c r="N11" s="7">
-        <f>L11+M11</f>
-        <v>15.139366760939026</v>
-      </c>
-      <c r="O11" s="37">
-        <f>N10+O10</f>
-        <v>159.1381715934705</v>
-      </c>
+      <c r="Q11" s="39"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -1135,53 +3461,58 @@
       <c r="C12" s="2">
         <v>120</v>
       </c>
-      <c r="D12" s="13">
-        <v>106.932964</v>
+      <c r="D12" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="5"/>
-        <v>1267.446434</v>
+        <f t="shared" si="4"/>
+        <v>806.47780323028564</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>105.26244863333334</v>
+        <v>96.774630053838095</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="12"/>
-        <v>7.1607315888888889</v>
+        <f t="shared" si="13"/>
+        <v>-5.3756165769365083</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="7"/>
-        <v>105.26244863333334</v>
-      </c>
-      <c r="I12" s="24">
+        <f t="shared" si="6"/>
+        <v>96.774630053838095</v>
+      </c>
+      <c r="I12" s="23">
         <f t="shared" si="2"/>
-        <v>126.7446434</v>
+        <v>80.64778032302857</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="3"/>
         <v>640</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="37">
+        <f t="shared" si="9"/>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M12" s="33">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="N12" s="33">
+        <f t="shared" si="11"/>
+        <v>3.2104904836725749</v>
+      </c>
+      <c r="O12" s="34">
+        <f>N11+O11</f>
+        <v>0.85245241836287389</v>
+      </c>
+      <c r="P12" s="39">
         <f t="shared" si="8"/>
-        <v>11.434658789825297</v>
-      </c>
-      <c r="M12" s="28">
-        <f t="shared" si="9"/>
-        <v>3.2</v>
-      </c>
-      <c r="N12" s="7">
-        <f t="shared" si="10"/>
-        <v>14.634658789825298</v>
-      </c>
-      <c r="O12" s="37">
-        <f>N11+O11</f>
-        <v>174.27753835440953</v>
-      </c>
+        <v>1.0788356182721615</v>
+      </c>
+      <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1190,53 +3521,58 @@
       <c r="C13" s="2">
         <v>120</v>
       </c>
-      <c r="D13" s="13">
-        <v>100.567978</v>
+      <c r="D13" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="5"/>
-        <v>1332.4536593666667</v>
+        <f t="shared" si="4"/>
+        <v>712.94207479159036</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>112.42318022222223</v>
+        <v>91.399013476901587</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="12"/>
-        <v>6.9407285714814817</v>
+        <f t="shared" si="13"/>
+        <v>-6.7016019992475151</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="7"/>
-        <v>112.42318022222223</v>
-      </c>
-      <c r="I13" s="24">
+        <f t="shared" si="6"/>
+        <v>91.399013476901587</v>
+      </c>
+      <c r="I13" s="23">
         <f t="shared" si="2"/>
-        <v>133.24536593666667</v>
+        <v>71.294207479159041</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="3"/>
         <v>760</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="4"/>
-        <v>705.26244863333329</v>
-      </c>
-      <c r="L13" s="3">
+        <f t="shared" si="7"/>
+        <v>696.77463005383811</v>
+      </c>
+      <c r="L13" s="37">
+        <f t="shared" si="9"/>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M13" s="33">
+        <f t="shared" si="10"/>
+        <v>7.9948948096580628</v>
+      </c>
+      <c r="N13" s="33">
+        <f t="shared" si="11"/>
+        <v>8.0053852933306366</v>
+      </c>
+      <c r="O13" s="34">
+        <f t="shared" ref="O13" si="14">N12+O12</f>
+        <v>4.0629429020354486</v>
+      </c>
+      <c r="P13" s="39">
         <f t="shared" si="8"/>
-        <v>10.113918199008484</v>
-      </c>
-      <c r="M13" s="28">
-        <f t="shared" si="9"/>
-        <v>5.9923990592369529</v>
-      </c>
-      <c r="N13" s="7">
-        <f t="shared" si="10"/>
-        <v>16.106317258245436</v>
-      </c>
-      <c r="O13" s="37">
-        <f t="shared" ref="O13" si="13">N12+O12</f>
-        <v>188.91219714423482</v>
-      </c>
+        <v>1.6360328601889143</v>
+      </c>
+      <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1245,53 +3581,58 @@
       <c r="C14" s="2">
         <v>120</v>
       </c>
-      <c r="D14" s="13">
-        <v>98.947665999999998</v>
+      <c r="D14" s="41">
+        <v>27.764543533325099</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="5"/>
-        <v>1360.4828091444444</v>
+        <f t="shared" si="4"/>
+        <v>624.78196292983159</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>119.36390879370371</v>
+        <v>84.697411477654072</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="12"/>
-        <v>5.5614573735802395</v>
+        <f t="shared" si="13"/>
+        <v>-7.4064050615569714</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="7"/>
-        <v>119.36390879370371</v>
-      </c>
-      <c r="I14" s="24">
+        <f t="shared" si="6"/>
+        <v>84.697411477654072</v>
+      </c>
+      <c r="I14" s="23">
         <f t="shared" si="2"/>
-        <v>136.04828091444443</v>
+        <v>62.478196292983156</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="3"/>
         <v>880</v>
       </c>
       <c r="K14" s="17">
-        <f t="shared" si="4"/>
-        <v>817.68562885555548</v>
-      </c>
-      <c r="L14" s="3">
+        <f t="shared" si="7"/>
+        <v>788.1736435307397</v>
+      </c>
+      <c r="L14" s="37">
+        <f t="shared" si="9"/>
+        <v>0.77086987761390457</v>
+      </c>
+      <c r="M14" s="33">
+        <f t="shared" si="10"/>
+        <v>16.86415948483933</v>
+      </c>
+      <c r="N14" s="33">
+        <f t="shared" si="11"/>
+        <v>17.635029362453235</v>
+      </c>
+      <c r="O14" s="34">
+        <f t="shared" si="12"/>
+        <v>12.068328195366085</v>
+      </c>
+      <c r="P14" s="39">
         <f t="shared" si="8"/>
-        <v>9.7906406068475551</v>
-      </c>
-      <c r="M14" s="28">
-        <f t="shared" si="9"/>
-        <v>7.7661617022551601</v>
-      </c>
-      <c r="N14" s="7">
-        <f t="shared" si="10"/>
-        <v>17.556802309102714</v>
-      </c>
-      <c r="O14" s="38">
-        <f t="shared" si="11"/>
-        <v>205.01851440248026</v>
-      </c>
+        <v>2.4925455127561409</v>
+      </c>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -1300,53 +3641,58 @@
       <c r="C15" s="2">
         <v>120</v>
       </c>
-      <c r="D15" s="13">
-        <v>100.58298000000001</v>
+      <c r="D15" s="41">
+        <v>93.892364501953097</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="5"/>
-        <v>1360.8659953507406</v>
+        <f t="shared" si="4"/>
+        <v>543.32345306732032</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>124.92536616728395</v>
+        <v>77.291006416097105</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="12"/>
-        <v>3.720411122596706</v>
+        <f t="shared" si="13"/>
+        <v>-7.6528870364550245</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="7"/>
-        <v>124.92536616728395</v>
-      </c>
-      <c r="I15" s="24">
+        <f t="shared" si="6"/>
+        <v>77.291006416097105</v>
+      </c>
+      <c r="I15" s="23">
         <f t="shared" si="2"/>
-        <v>136.08659953507407</v>
+        <v>54.33234530673203</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="4"/>
-        <v>937.04953764925915</v>
-      </c>
-      <c r="L15" s="3">
+        <f t="shared" si="7"/>
+        <v>872.8710550083938</v>
+      </c>
+      <c r="L15" s="37">
+        <f t="shared" si="9"/>
+        <v>8.8157761117676223</v>
+      </c>
+      <c r="M15" s="33">
+        <f t="shared" si="10"/>
+        <v>32.323537309357668</v>
+      </c>
+      <c r="N15" s="33">
+        <f t="shared" si="11"/>
+        <v>41.139313421125294</v>
+      </c>
+      <c r="O15" s="34">
+        <f t="shared" si="12"/>
+        <v>29.70335755781932</v>
+      </c>
+      <c r="P15" s="39">
         <f t="shared" si="8"/>
-        <v>10.116935865680402</v>
-      </c>
-      <c r="M15" s="28">
-        <f t="shared" si="9"/>
-        <v>7.9255214203440829</v>
-      </c>
-      <c r="N15" s="7">
-        <f t="shared" si="10"/>
-        <v>18.042457286024487</v>
-      </c>
-      <c r="O15" s="36">
-        <f t="shared" si="11"/>
-        <v>222.57531671158299</v>
-      </c>
+        <v>3.6481162658997173</v>
+      </c>
+      <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -1355,1485 +3701,1620 @@
       <c r="C16" s="2">
         <v>120</v>
       </c>
-      <c r="D16" s="13">
-        <v>104.07507699999999</v>
+      <c r="D16" s="41">
+        <v>93.892364501953097</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="5"/>
-        <v>1342.8735931834567</v>
+        <f t="shared" si="4"/>
+        <v>469.27134826636603</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>128.64577728988067</v>
+        <v>69.638119379642077</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="12"/>
-        <v>1.8805273428216651</v>
+        <f t="shared" si="13"/>
+        <v>-7.5703281843351578</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="7"/>
-        <v>128.64577728988067</v>
-      </c>
-      <c r="I16" s="24">
+        <f t="shared" si="6"/>
+        <v>69.638119379642077</v>
+      </c>
+      <c r="I16" s="23">
         <f t="shared" si="2"/>
-        <v>134.28735931834566</v>
+        <v>46.927134826636603</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="3"/>
         <v>1120</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="4"/>
-        <v>1061.974903816543</v>
-      </c>
-      <c r="L16" s="3">
+        <f t="shared" si="7"/>
+        <v>950.16206142449096</v>
+      </c>
+      <c r="L16" s="37">
+        <f t="shared" si="9"/>
+        <v>8.8157761117676223</v>
+      </c>
+      <c r="M16" s="33">
+        <f t="shared" si="10"/>
+        <v>57.689850759156762</v>
+      </c>
+      <c r="N16" s="33">
+        <f t="shared" si="11"/>
+        <v>66.505626870924388</v>
+      </c>
+      <c r="O16" s="34">
+        <f>N15+O15</f>
+        <v>70.842670978944611</v>
+      </c>
+      <c r="P16" s="39">
         <f t="shared" si="8"/>
-        <v>10.831621652555929</v>
-      </c>
-      <c r="M16" s="28">
-        <f t="shared" si="9"/>
-        <v>6.7338235741988672</v>
-      </c>
-      <c r="N16" s="7">
-        <f t="shared" si="10"/>
-        <v>17.565445226754797</v>
-      </c>
-      <c r="O16" s="36">
-        <f>N15+O15</f>
-        <v>240.61777399760746</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+        <v>5.0726380392383668</v>
+      </c>
+      <c r="Q16" s="39"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="2">
         <v>120</v>
       </c>
-      <c r="D17" s="13">
-        <v>108.240358</v>
+      <c r="D17" s="41">
+        <v>162.36714172363199</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="5"/>
-        <v>1314.795793893576</v>
+        <f t="shared" si="4"/>
+        <v>402.87213050186676</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>130.52630463270233</v>
+        <v>62.067791195306917</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="12"/>
-        <v>0.31775825221842524</v>
+        <f t="shared" si="13"/>
+        <v>-7.2601927150400796</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="7"/>
-        <v>130.52630463270233</v>
-      </c>
-      <c r="I17" s="24">
+        <f t="shared" si="6"/>
+        <v>62.067791195306917</v>
+      </c>
+      <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>131.47957938935761</v>
+        <v>40.287213050186679</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="3"/>
         <v>1240</v>
       </c>
       <c r="K17" s="10">
-        <f t="shared" si="4"/>
-        <v>1190.6206811064237</v>
-      </c>
-      <c r="L17" s="3">
+        <f t="shared" si="7"/>
+        <v>1019.800180804133</v>
+      </c>
+      <c r="L17" s="37">
+        <f t="shared" si="9"/>
+        <v>26.363088711501995</v>
+      </c>
+      <c r="M17" s="33">
+        <f t="shared" si="10"/>
+        <v>96.97592074778504</v>
+      </c>
+      <c r="N17" s="33">
+        <f t="shared" si="11"/>
+        <v>123.33900945928704</v>
+      </c>
+      <c r="O17" s="34">
+        <f t="shared" si="12"/>
+        <v>137.348297849869</v>
+      </c>
+      <c r="P17" s="39">
         <f t="shared" si="8"/>
-        <v>11.715975099968164</v>
-      </c>
-      <c r="M17" s="28">
-        <f t="shared" si="9"/>
-        <v>4.876634268786999</v>
-      </c>
-      <c r="N17" s="7">
-        <f t="shared" si="10"/>
-        <v>16.592609368755163</v>
-      </c>
-      <c r="O17" s="36">
-        <f t="shared" si="11"/>
-        <v>258.18321922436223</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+        <v>6.7122816339811182</v>
+      </c>
+      <c r="Q17" s="39"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>120</v>
       </c>
-      <c r="D18" s="13">
-        <v>112.41003000000001</v>
+      <c r="D18" s="41">
+        <v>470.28668212890602</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="5"/>
-        <v>1283.2171552608738</v>
+        <f t="shared" si="4"/>
+        <v>368.56888283988491</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>130.84406288492076</v>
+        <v>54.80759848026684</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="12"/>
-        <v>-0.8407824529444573</v>
+        <f t="shared" si="13"/>
+        <v>-5.9835700654261172</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="7"/>
-        <v>130.84406288492076</v>
-      </c>
-      <c r="I18" s="24">
+        <f t="shared" si="6"/>
+        <v>54.80759848026684</v>
+      </c>
+      <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>128.32171552608739</v>
+        <v>36.856888283988489</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="3"/>
         <v>1360</v>
       </c>
       <c r="K18" s="10">
-        <f t="shared" si="4"/>
-        <v>1321.146985739126</v>
-      </c>
-      <c r="L18" s="3">
+        <f t="shared" si="7"/>
+        <v>1081.86797199944</v>
+      </c>
+      <c r="L18" s="37">
+        <f t="shared" si="9"/>
+        <v>221.16956338781472</v>
+      </c>
+      <c r="M18" s="33">
+        <f t="shared" si="10"/>
+        <v>154.71484999940859</v>
+      </c>
+      <c r="N18" s="33">
+        <f t="shared" si="11"/>
+        <v>375.88441338722328</v>
+      </c>
+      <c r="O18" s="34">
+        <f t="shared" si="12"/>
+        <v>260.68730730915604</v>
+      </c>
+      <c r="P18" s="39">
         <f t="shared" si="8"/>
-        <v>12.636014844600901</v>
-      </c>
-      <c r="M18" s="28">
-        <f t="shared" si="9"/>
-        <v>3.0191134343113624</v>
-      </c>
-      <c r="N18" s="7">
-        <f t="shared" si="10"/>
-        <v>15.655128278912263</v>
-      </c>
-      <c r="O18" s="36">
-        <f t="shared" si="11"/>
-        <v>274.77582859311741</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+        <v>8.5000984318202111</v>
+      </c>
+      <c r="Q18" s="39"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>120</v>
       </c>
-      <c r="D19" s="13">
-        <v>115.965197</v>
+      <c r="D19" s="41">
+        <v>479.18441772460898</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="5"/>
-        <v>1252.956072375953</v>
+        <f t="shared" si="4"/>
+        <v>407.65364886157113</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>130.00328043197629</v>
+        <v>48.824028414840726</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.5692243981269958</v>
+        <f t="shared" si="13"/>
+        <v>-2.6862211762278698</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="7"/>
-        <v>130.00328043197629</v>
-      </c>
-      <c r="I19" s="24">
+        <f t="shared" si="6"/>
+        <v>48.824028414840726</v>
+      </c>
+      <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>125.29560723759531</v>
+        <v>40.765364886157116</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="3"/>
         <v>1480</v>
       </c>
       <c r="K19" s="10">
-        <f t="shared" si="4"/>
-        <v>1451.9910486240467</v>
-      </c>
-      <c r="L19" s="3">
+        <f t="shared" si="7"/>
+        <v>1136.6755704797067</v>
+      </c>
+      <c r="L19" s="37">
+        <f t="shared" si="9"/>
+        <v>229.61770619007257</v>
+      </c>
+      <c r="M19" s="33">
+        <f t="shared" si="10"/>
+        <v>235.74332781086969</v>
+      </c>
+      <c r="N19" s="33">
+        <f t="shared" si="11"/>
+        <v>465.36103400094225</v>
+      </c>
+      <c r="O19" s="34">
+        <f t="shared" si="12"/>
+        <v>636.57172069637932</v>
+      </c>
+      <c r="P19" s="39">
         <f t="shared" si="8"/>
-        <v>13.447926915248811</v>
-      </c>
-      <c r="M19" s="28">
-        <f t="shared" si="9"/>
-        <v>1.5690027143610328</v>
-      </c>
-      <c r="N19" s="7">
-        <f t="shared" si="10"/>
-        <v>15.016929629609844</v>
-      </c>
-      <c r="O19" s="36">
-        <f t="shared" si="11"/>
-        <v>290.4309568720297</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+        <v>10.1320378621828</v>
+      </c>
+      <c r="Q19" s="39"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>120</v>
       </c>
-      <c r="D20" s="13">
-        <v>118.76067999999999</v>
+      <c r="D20" s="41">
+        <v>481.42630004882801</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="5"/>
-        <v>1227.0278689439767</v>
+        <f t="shared" si="4"/>
+        <v>452.72198494868354</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>128.43405603384929</v>
+        <v>46.137807238612858</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.9104230464838707</v>
+        <f t="shared" si="13"/>
+        <v>-0.28853624791483412</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="7"/>
-        <v>128.43405603384929</v>
-      </c>
-      <c r="I20" s="24">
+        <f t="shared" si="6"/>
+        <v>46.137807238612858</v>
+      </c>
+      <c r="I20" s="23">
         <f t="shared" si="2"/>
-        <v>122.70278689439768</v>
+        <v>45.272198494868356</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" si="4"/>
-        <v>1581.9943290560229</v>
-      </c>
-      <c r="L20" s="3">
+        <f t="shared" si="7"/>
+        <v>1185.4995988945475</v>
+      </c>
+      <c r="L20" s="37">
+        <f t="shared" si="9"/>
+        <v>231.77128237870417</v>
+      </c>
+      <c r="M20" s="33">
+        <f t="shared" si="10"/>
+        <v>343.62116503316207</v>
+      </c>
+      <c r="N20" s="33">
+        <f t="shared" si="11"/>
+        <v>575.39244741186621</v>
+      </c>
+      <c r="O20" s="34">
+        <f t="shared" si="12"/>
+        <v>1101.9327546973216</v>
+      </c>
+      <c r="P20" s="39">
         <f t="shared" si="8"/>
-        <v>14.1040991140624</v>
-      </c>
-      <c r="M20" s="28">
-        <f t="shared" si="9"/>
-        <v>0.64840837228555992</v>
-      </c>
-      <c r="N20" s="7">
-        <f t="shared" si="10"/>
-        <v>14.752507486347961</v>
-      </c>
-      <c r="O20" s="36">
-        <f t="shared" si="11"/>
-        <v>305.44788650163952</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+        <v>10.911247039040626</v>
+      </c>
+      <c r="Q20" s="39"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="2">
         <v>120</v>
       </c>
-      <c r="D21" s="13">
-        <v>120.641251</v>
+      <c r="D21" s="41">
+        <v>483.40570068359301</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="5"/>
-        <v>1206.8341709101273</v>
+        <f t="shared" si="4"/>
+        <v>568.95131943370268</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>126.52363298736542</v>
+        <v>45.849270990698024</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.9467386321175628</v>
+        <f t="shared" si="13"/>
+        <v>3.6819536508907476</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="7"/>
-        <v>126.52363298736542</v>
-      </c>
-      <c r="I21" s="24">
+        <f t="shared" si="6"/>
+        <v>45.849270990698024</v>
+      </c>
+      <c r="I21" s="23">
         <f t="shared" si="2"/>
-        <v>120.68341709101273</v>
+        <v>56.895131943370266</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="3"/>
         <v>1720</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="4"/>
-        <v>1710.4283850898723</v>
-      </c>
-      <c r="L21" s="3">
+        <f t="shared" si="7"/>
+        <v>1231.6374061331603</v>
+      </c>
+      <c r="L21" s="37">
+        <f t="shared" si="9"/>
+        <v>233.6810714533955</v>
+      </c>
+      <c r="M21" s="33">
+        <f t="shared" si="10"/>
+        <v>476.99604617669564</v>
+      </c>
+      <c r="N21" s="33">
+        <f t="shared" si="11"/>
+        <v>710.67711763009117</v>
+      </c>
+      <c r="O21" s="34">
+        <f t="shared" si="12"/>
+        <v>1677.3252021091878</v>
+      </c>
+      <c r="P21" s="39">
         <f t="shared" si="8"/>
-        <v>14.554311442845002</v>
-      </c>
-      <c r="M21" s="28">
-        <f t="shared" si="9"/>
-        <v>0.18323162397555642</v>
-      </c>
-      <c r="N21" s="7">
-        <f t="shared" si="10"/>
-        <v>14.737543066820558</v>
-      </c>
-      <c r="O21" s="36">
-        <f t="shared" si="11"/>
-        <v>320.20039398798747</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+        <v>10.996661225221876</v>
+      </c>
+      <c r="Q21" s="39"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>120</v>
       </c>
-      <c r="D22" s="13">
-        <v>121.7003</v>
+      <c r="D22" s="41">
+        <v>484.34115600585898</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="5"/>
-        <v>1192.720567922762</v>
+        <f t="shared" si="4"/>
+        <v>993.38873057191051</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>124.57689435524786</v>
+        <v>49.531224641588771</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.7682791876572186</v>
+        <f t="shared" si="13"/>
+        <v>16.602549471867427</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="7"/>
-        <v>124.57689435524786</v>
-      </c>
-      <c r="I22" s="24">
+        <f t="shared" si="6"/>
+        <v>49.531224641588771</v>
+      </c>
+      <c r="I22" s="23">
         <f t="shared" si="2"/>
-        <v>119.2720567922762</v>
+        <v>99.338873057191051</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="3"/>
         <v>1840</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="4"/>
-        <v>1836.9520180772377</v>
-      </c>
-      <c r="L22" s="3">
+        <f t="shared" si="7"/>
+        <v>1277.4866771238583</v>
+      </c>
+      <c r="L22" s="37">
+        <f t="shared" si="9"/>
+        <v>234.58635540109182</v>
+      </c>
+      <c r="M22" s="33">
+        <f t="shared" si="10"/>
+        <v>632.8424768263169</v>
+      </c>
+      <c r="N22" s="33">
+        <f t="shared" si="11"/>
+        <v>867.42883222740875</v>
+      </c>
+      <c r="O22" s="34">
+        <f t="shared" si="12"/>
+        <v>2388.0023197392788</v>
+      </c>
+      <c r="P22" s="39">
         <f t="shared" si="8"/>
-        <v>14.81096302009</v>
-      </c>
-      <c r="M22" s="28">
-        <f t="shared" si="9"/>
-        <v>1.8580387602972103E-2</v>
-      </c>
-      <c r="N22" s="7">
-        <f t="shared" si="10"/>
-        <v>14.829543407692972</v>
-      </c>
-      <c r="O22" s="36">
-        <f t="shared" si="11"/>
-        <v>334.937937054808</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+        <v>9.9316966010284489</v>
+      </c>
+      <c r="Q22" s="39"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="2">
         <v>120</v>
       </c>
-      <c r="D23" s="13">
-        <v>122.056713</v>
+      <c r="D23" s="41">
+        <v>457.88311767578102</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="5"/>
-        <v>1184.1088705675143</v>
+        <f t="shared" si="4"/>
+        <v>1423.0419236549308</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>122.80861516759065</v>
+        <v>66.133774113456198</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.4659093702797417</v>
+        <f t="shared" si="13"/>
+        <v>25.390139417345623</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="7"/>
-        <v>122.80861516759065</v>
-      </c>
-      <c r="I23" s="24">
+        <f t="shared" si="6"/>
+        <v>66.133774113456198</v>
+      </c>
+      <c r="I23" s="23">
         <f t="shared" si="2"/>
-        <v>118.41088705675142</v>
+        <v>142.30419236549307</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="3"/>
         <v>1960</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" si="4"/>
-        <v>1961.5289124324854</v>
-      </c>
-      <c r="L23" s="3">
+        <f t="shared" si="7"/>
+        <v>1327.017901765447</v>
+      </c>
+      <c r="L23" s="37">
+        <f t="shared" si="9"/>
+        <v>209.65694945249314</v>
+      </c>
+      <c r="M23" s="33">
+        <f t="shared" si="10"/>
+        <v>801.33267337083441</v>
+      </c>
+      <c r="N23" s="33">
+        <f t="shared" si="11"/>
+        <v>1010.9896228233275</v>
+      </c>
+      <c r="O23" s="34">
+        <f t="shared" si="12"/>
+        <v>3255.4311519666876</v>
+      </c>
+      <c r="P23" s="39">
         <f t="shared" si="8"/>
-        <v>14.897841188364369</v>
-      </c>
-      <c r="M23" s="28">
-        <f t="shared" si="9"/>
-        <v>4.6751464524169241E-3</v>
-      </c>
-      <c r="N23" s="7">
-        <f t="shared" si="10"/>
-        <v>14.902516334816786</v>
-      </c>
-      <c r="O23" s="36">
-        <f t="shared" si="11"/>
-        <v>349.767480462501</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+        <v>5.8031405825203226</v>
+      </c>
+      <c r="Q23" s="39"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>120</v>
       </c>
-      <c r="D24" s="13">
-        <v>121.98632600000001</v>
+      <c r="D24" s="41">
+        <v>22.655143737792901</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="5"/>
-        <v>1180.0609353999237</v>
+        <f t="shared" si="4"/>
+        <v>1838.3344495903025</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>121.3427057973109</v>
+        <v>91.523913530801821</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.112204085772845</v>
+        <f t="shared" si="13"/>
+        <v>30.76984380940948</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="7"/>
-        <v>121.3427057973109</v>
-      </c>
-      <c r="I24" s="24">
+        <f t="shared" si="6"/>
+        <v>91.523913530801821</v>
+      </c>
+      <c r="I24" s="23">
         <f t="shared" si="2"/>
-        <v>118.00609353999236</v>
+        <v>183.83344495903026</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="3"/>
         <v>2080</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="4"/>
-        <v>2084.3375276000761</v>
-      </c>
-      <c r="L24" s="3">
+        <f t="shared" si="7"/>
+        <v>1393.1516758789032</v>
+      </c>
+      <c r="L24" s="37">
+        <f t="shared" si="9"/>
+        <v>0.51325553778005695</v>
+      </c>
+      <c r="M24" s="33">
+        <f t="shared" si="10"/>
+        <v>943.52124069591844</v>
+      </c>
+      <c r="N24" s="33">
+        <f t="shared" si="11"/>
+        <v>944.03449623369852</v>
+      </c>
+      <c r="O24" s="34">
+        <f t="shared" si="12"/>
+        <v>4266.4207747900155</v>
+      </c>
+      <c r="P24" s="39">
         <f t="shared" si="8"/>
-        <v>14.880663730978279</v>
-      </c>
-      <c r="M24" s="28">
-        <f t="shared" si="9"/>
-        <v>3.7628291362843874E-2</v>
-      </c>
-      <c r="N24" s="7">
-        <f t="shared" si="10"/>
-        <v>14.918292022341124</v>
-      </c>
-      <c r="O24" s="36">
-        <f t="shared" si="11"/>
-        <v>364.66999679731776</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.6217750012025034</v>
+      </c>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>120</v>
       </c>
-      <c r="D25" s="13">
-        <v>121.622893</v>
+      <c r="D25" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="5"/>
-        <v>1179.3594806026128</v>
+        <f t="shared" si="4"/>
+        <v>2230.2162367430933</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>120.23050171153805</v>
+        <v>122.2937573402113</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="12"/>
-        <v>-0.76485121709225723</v>
+        <f t="shared" si="13"/>
+        <v>33.575955444699339</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="7"/>
-        <v>120.23050171153805</v>
-      </c>
-      <c r="I25" s="24">
+        <f t="shared" si="6"/>
+        <v>122.2937573402113</v>
+      </c>
+      <c r="I25" s="23">
         <f t="shared" si="2"/>
-        <v>117.93594806026128</v>
+        <v>223.02162367430932</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="3"/>
         <v>2200</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="4"/>
-        <v>2205.6802333973869</v>
-      </c>
-      <c r="L25" s="3">
+        <f t="shared" si="7"/>
+        <v>1484.675589409705</v>
+      </c>
+      <c r="L25" s="37">
+        <f t="shared" si="9"/>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M25" s="33">
+        <f t="shared" si="10"/>
+        <v>1023.3780247727059</v>
+      </c>
+      <c r="N25" s="33">
+        <f t="shared" si="11"/>
+        <v>1023.3885152563785</v>
+      </c>
+      <c r="O25" s="34">
+        <f t="shared" si="12"/>
+        <v>5210.455271023714</v>
+      </c>
+      <c r="P25" s="39">
         <f t="shared" si="8"/>
-        <v>14.79212810168945</v>
-      </c>
-      <c r="M25" s="28">
-        <f t="shared" si="9"/>
-        <v>6.4530102897579683E-2</v>
-      </c>
-      <c r="N25" s="7">
-        <f t="shared" si="10"/>
-        <v>14.856658204587029</v>
-      </c>
-      <c r="O25" s="36">
-        <f t="shared" si="11"/>
-        <v>379.58828881965889</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1.0522645471546438E-2</v>
+      </c>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>120</v>
       </c>
-      <c r="D26" s="13">
-        <v>121.25402200000001</v>
+      <c r="D26" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="5"/>
-        <v>1180.8292788910749</v>
+        <f t="shared" si="4"/>
+        <v>2592.2636354087408</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>119.4656504944458</v>
+        <v>155.86971278491063</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="12"/>
-        <v>-0.46090753511277188</v>
+        <f t="shared" si="13"/>
+        <v>34.452216918654493</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="7"/>
-        <v>119.4656504944458</v>
-      </c>
-      <c r="I26" s="24">
+        <f t="shared" si="6"/>
+        <v>155.86971278491063</v>
+      </c>
+      <c r="I26" s="23">
         <f t="shared" si="2"/>
-        <v>118.08292788910748</v>
+        <v>259.2263635408741</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="3"/>
         <v>2320</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="4"/>
-        <v>2325.9107351089251</v>
-      </c>
-      <c r="L26" s="3">
+        <f t="shared" si="7"/>
+        <v>1606.9693467499164</v>
+      </c>
+      <c r="L26" s="37">
+        <f t="shared" si="9"/>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M26" s="33">
+        <f t="shared" si="10"/>
+        <v>1016.8254249484819</v>
+      </c>
+      <c r="N26" s="33">
+        <f t="shared" si="11"/>
+        <v>1016.8359154321545</v>
+      </c>
+      <c r="O26" s="34">
+        <f t="shared" si="12"/>
+        <v>6233.8437862800929</v>
+      </c>
+      <c r="P26" s="39">
         <f t="shared" si="8"/>
-        <v>14.702537851176485</v>
-      </c>
-      <c r="M26" s="28">
-        <f t="shared" si="9"/>
-        <v>6.987357905575986E-2</v>
-      </c>
-      <c r="N26" s="7">
-        <f t="shared" si="10"/>
-        <v>14.772411430232244</v>
-      </c>
-      <c r="O26" s="36">
-        <f t="shared" si="11"/>
-        <v>394.44494702424589</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+        <v>2.5732725905439624</v>
+      </c>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>20</v>
       </c>
       <c r="C27" s="2">
         <v>120</v>
       </c>
-      <c r="D27" s="13">
-        <v>121.035872</v>
+      <c r="D27" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="5"/>
-        <v>1183.4203413966291</v>
+        <f t="shared" si="4"/>
+        <v>2894.2770402996116</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>119.00474295933303</v>
+        <v>190.32192970356513</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="12"/>
-        <v>-0.22090293989004314</v>
+        <f t="shared" si="13"/>
+        <v>33.035258108798672</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="7"/>
-        <v>119.00474295933303</v>
-      </c>
-      <c r="I27" s="24">
+        <f t="shared" si="6"/>
+        <v>190.32192970356513</v>
+      </c>
+      <c r="I27" s="23">
         <f t="shared" si="2"/>
-        <v>118.3420341396629</v>
+        <v>289.42770402996115</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="3"/>
         <v>2440</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="4"/>
-        <v>2445.3763856033711</v>
-      </c>
-      <c r="L27" s="3">
+        <f t="shared" si="7"/>
+        <v>1762.8390595348271</v>
+      </c>
+      <c r="L27" s="37">
+        <f t="shared" si="9"/>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M27" s="33">
+        <f t="shared" si="10"/>
+        <v>917.09387858335481</v>
+      </c>
+      <c r="N27" s="33">
+        <f t="shared" si="11"/>
+        <v>917.10436906702739</v>
+      </c>
+      <c r="O27" s="34">
+        <f t="shared" si="12"/>
+        <v>7250.6797017122472</v>
+      </c>
+      <c r="P27" s="39">
         <f t="shared" si="8"/>
-        <v>14.649682310800383</v>
-      </c>
-      <c r="M27" s="28">
-        <f t="shared" si="9"/>
-        <v>5.7811044312271853E-2</v>
-      </c>
-      <c r="N27" s="7">
-        <f t="shared" si="10"/>
-        <v>14.707493355112655</v>
-      </c>
-      <c r="O27" s="36">
-        <f t="shared" si="11"/>
-        <v>409.21735845447813</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+        <v>9.8903475944663111</v>
+      </c>
+      <c r="Q27" s="39"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>21</v>
       </c>
       <c r="C28" s="2">
         <v>120</v>
       </c>
-      <c r="D28" s="13">
-        <v>121.103286</v>
+      <c r="D28" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="5"/>
-        <v>1186.401924437296</v>
+        <f t="shared" si="4"/>
+        <v>2726.6102543338393</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>118.78384001944299</v>
+        <v>223.3571878123638</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="12"/>
-        <v>-4.7882525237795903E-2</v>
+        <f t="shared" si="13"/>
+        <v>16.434612540340044</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="7"/>
-        <v>118.78384001944299</v>
-      </c>
-      <c r="I28" s="24">
+        <f t="shared" si="6"/>
+        <v>223.3571878123638</v>
+      </c>
+      <c r="I28" s="23">
         <f t="shared" si="2"/>
-        <v>118.6401924437296</v>
+        <v>272.66102543338394</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="3"/>
         <v>2560</v>
       </c>
       <c r="K28" s="10">
-        <f t="shared" si="4"/>
-        <v>2564.3811285627039</v>
-      </c>
-      <c r="L28" s="3">
+        <f t="shared" si="7"/>
+        <v>1953.1609892383922</v>
+      </c>
+      <c r="L28" s="37">
+        <f t="shared" si="9"/>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" si="10"/>
+        <v>736.50716996425353</v>
+      </c>
+      <c r="N28" s="33">
+        <f t="shared" si="11"/>
+        <v>736.51766044792612</v>
+      </c>
+      <c r="O28" s="34">
+        <f t="shared" si="12"/>
+        <v>8167.7840707792748</v>
+      </c>
+      <c r="P28" s="39">
         <f t="shared" si="8"/>
-        <v>14.666005879997796</v>
-      </c>
-      <c r="M28" s="28">
-        <f t="shared" si="9"/>
-        <v>3.8388574965880003E-2</v>
-      </c>
-      <c r="N28" s="7">
-        <f t="shared" si="10"/>
-        <v>14.704394454963676</v>
-      </c>
-      <c r="O28" s="36">
-        <f t="shared" si="11"/>
-        <v>423.92485180959079</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+        <v>21.365416544960492</v>
+      </c>
+      <c r="Q28" s="39"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>22</v>
       </c>
       <c r="C29" s="2">
         <v>120</v>
       </c>
-      <c r="D29" s="13">
-        <v>121.6123</v>
+      <c r="D29" s="41">
+        <v>3.23890161514282</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="5"/>
-        <v>1189.2409774178529</v>
+        <f t="shared" si="4"/>
+        <v>2506.4919681366182</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>118.73595749420519</v>
+        <v>239.79180035270386</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="12"/>
-        <v>6.2713415860031319E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.6191321536526573</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="7"/>
-        <v>118.73595749420519</v>
-      </c>
-      <c r="I29" s="24">
+        <f t="shared" si="6"/>
+        <v>239.79180035270386</v>
+      </c>
+      <c r="I29" s="23">
         <f t="shared" si="2"/>
-        <v>118.92409774178529</v>
+        <v>250.64919681366183</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="3"/>
         <v>2680</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="4"/>
-        <v>2683.1649685821467</v>
-      </c>
-      <c r="L29" s="3">
+        <f t="shared" si="7"/>
+        <v>2176.5181770507561</v>
+      </c>
+      <c r="L29" s="37">
+        <f t="shared" si="9"/>
+        <v>1.0490483672574769E-2</v>
+      </c>
+      <c r="M29" s="33">
+        <f t="shared" si="10"/>
+        <v>506.98789208058759</v>
+      </c>
+      <c r="N29" s="33">
+        <f t="shared" si="11"/>
+        <v>506.99838256426017</v>
+      </c>
+      <c r="O29" s="34">
+        <f t="shared" si="12"/>
+        <v>8904.3017312272004</v>
+      </c>
+      <c r="P29" s="39">
         <f t="shared" si="8"/>
-        <v>14.789551511290002</v>
-      </c>
-      <c r="M29" s="28">
-        <f t="shared" si="9"/>
-        <v>2.0034052251951193E-2</v>
-      </c>
-      <c r="N29" s="7">
-        <f t="shared" si="10"/>
-        <v>14.809585563541953</v>
-      </c>
-      <c r="O29" s="36">
-        <f t="shared" si="11"/>
-        <v>438.62924626455447</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+        <v>28.700150863484119</v>
+      </c>
+      <c r="Q29" s="39"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>23</v>
       </c>
       <c r="C30" s="2">
         <v>120</v>
       </c>
-      <c r="D30" s="13">
-        <v>122.455393</v>
+      <c r="D30" s="41">
+        <v>4.9605517387390101</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="5"/>
-        <v>1191.7590419236478</v>
+        <f t="shared" si="4"/>
+        <v>2269.9390693990572</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>118.79867091006523</v>
+        <v>243.41093250635652</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="12"/>
-        <v>0.12574442743318551</v>
+        <f t="shared" si="13"/>
+        <v>-5.4723418554836014</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="7"/>
-        <v>118.79867091006523</v>
-      </c>
-      <c r="I30" s="24">
+        <f t="shared" si="6"/>
+        <v>243.41093250635652</v>
+      </c>
+      <c r="I30" s="23">
         <f t="shared" si="2"/>
-        <v>119.17590419236478</v>
+        <v>226.99390693990571</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="3"/>
         <v>2800</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="4"/>
-        <v>2801.9009260763519</v>
-      </c>
-      <c r="L30" s="3">
+        <f t="shared" si="7"/>
+        <v>2416.3099774034599</v>
+      </c>
+      <c r="L30" s="37">
+        <f t="shared" si="9"/>
+        <v>2.4607073552706617E-2</v>
+      </c>
+      <c r="M30" s="33">
+        <f t="shared" si="10"/>
+        <v>294.43606688026688</v>
+      </c>
+      <c r="N30" s="33">
+        <f t="shared" si="11"/>
+        <v>294.46067395381959</v>
+      </c>
+      <c r="O30" s="34">
+        <f t="shared" si="12"/>
+        <v>9411.3001137914598</v>
+      </c>
+      <c r="P30" s="39">
         <f t="shared" si="8"/>
-        <v>14.995323274784448</v>
-      </c>
-      <c r="M30" s="28">
-        <f t="shared" si="9"/>
-        <v>7.2270398955091037E-3</v>
-      </c>
-      <c r="N30" s="7">
-        <f t="shared" si="10"/>
-        <v>15.002550314679958</v>
-      </c>
-      <c r="O30" s="36">
-        <f t="shared" si="11"/>
-        <v>453.4388318280964</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+        <v>30.46051652417697</v>
+      </c>
+      <c r="Q30" s="39"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>24</v>
       </c>
       <c r="C31" s="2">
         <v>120</v>
       </c>
-      <c r="D31" s="13">
-        <v>123.631118</v>
+      <c r="D31" s="41">
+        <v>9.9868478775024396</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="5"/>
-        <v>1193.9962430135824</v>
+        <f t="shared" si="4"/>
+        <v>2029.7670385078436</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>118.92441533749842</v>
+        <v>237.93859065087292</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="12"/>
-        <v>0.15840298795327593</v>
+        <f t="shared" si="13"/>
+        <v>-11.653962266696189</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="7"/>
-        <v>118.92441533749842</v>
-      </c>
-      <c r="I31" s="24">
+        <f t="shared" si="6"/>
+        <v>237.93859065087292</v>
+      </c>
+      <c r="I31" s="23">
         <f t="shared" si="2"/>
-        <v>119.39962430135824</v>
+        <v>202.97670385078436</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="3"/>
         <v>2920</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" si="4"/>
-        <v>2920.699596986417</v>
-      </c>
-      <c r="L31" s="3">
+        <f t="shared" si="7"/>
+        <v>2659.7209099098163</v>
+      </c>
+      <c r="L31" s="37">
+        <f t="shared" si="9"/>
+        <v>9.973713052837499E-2</v>
+      </c>
+      <c r="M31" s="33">
+        <f t="shared" si="10"/>
+        <v>135.49040947634791</v>
+      </c>
+      <c r="N31" s="33">
+        <f t="shared" si="11"/>
+        <v>135.59014660687629</v>
+      </c>
+      <c r="O31" s="34">
+        <f t="shared" si="12"/>
+        <v>9705.7607877452792</v>
+      </c>
+      <c r="P31" s="39">
         <f t="shared" si="8"/>
-        <v>15.284653337929925</v>
-      </c>
-      <c r="M31" s="28">
-        <f t="shared" si="9"/>
-        <v>9.7887188680739474E-4</v>
-      </c>
-      <c r="N31" s="7">
-        <f t="shared" si="10"/>
-        <v>15.285632209816733</v>
-      </c>
-      <c r="O31" s="36">
-        <f t="shared" si="11"/>
-        <v>468.44138214277638</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+        <v>27.819022329428343</v>
+      </c>
+      <c r="Q31" s="39"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>25</v>
       </c>
       <c r="C32" s="2">
         <v>120</v>
       </c>
-      <c r="D32" s="13">
-        <v>125.069901</v>
+      <c r="D32" s="41">
+        <v>16.399755477905199</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="5"/>
-        <v>1196.175113676084</v>
+        <f t="shared" si="4"/>
+        <v>1795.0673494721136</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>119.0828183254517</v>
+        <v>226.28462838417673</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="12"/>
-        <v>0.1782310140522346</v>
+        <f t="shared" si="13"/>
+        <v>-15.592631145655124</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="7"/>
-        <v>119.0828183254517</v>
-      </c>
-      <c r="I32" s="24">
+        <f t="shared" si="6"/>
+        <v>226.28462838417673</v>
+      </c>
+      <c r="I32" s="23">
         <f t="shared" si="2"/>
-        <v>119.6175113676084</v>
+        <v>179.50673494721136</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="3"/>
         <v>3040</v>
       </c>
       <c r="K32" s="10">
-        <f t="shared" si="4"/>
-        <v>3039.6240123239154</v>
-      </c>
-      <c r="L32" s="3">
+        <f t="shared" si="7"/>
+        <v>2897.6595005606891</v>
+      </c>
+      <c r="L32" s="37">
+        <f t="shared" si="9"/>
+        <v>0.26895197973508156</v>
+      </c>
+      <c r="M32" s="33">
+        <f t="shared" si="10"/>
+        <v>40.521635561264915</v>
+      </c>
+      <c r="N32" s="33">
+        <f t="shared" si="11"/>
+        <v>40.790587540999994</v>
+      </c>
+      <c r="O32" s="34">
+        <f t="shared" si="12"/>
+        <v>9841.3509343521564</v>
+      </c>
+      <c r="P32" s="39">
         <f t="shared" si="8"/>
-        <v>15.642480136149802</v>
-      </c>
-      <c r="M32" s="28">
-        <f t="shared" si="9"/>
-        <v>2.8273346513500442E-4</v>
-      </c>
-      <c r="N32" s="7">
-        <f t="shared" si="10"/>
-        <v>15.642762869614936</v>
-      </c>
-      <c r="O32" s="36">
-        <f t="shared" si="11"/>
-        <v>483.72701435259313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22.592844461525093</v>
+      </c>
+      <c r="Q32" s="39"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>26</v>
       </c>
       <c r="C33" s="2">
         <v>120</v>
       </c>
-      <c r="D33" s="13">
-        <v>126.46213400000001</v>
+      <c r="D33" s="41">
+        <v>24.5699138641357</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="5"/>
-        <v>1198.7045953506324</v>
+        <f t="shared" si="4"/>
+        <v>1572.0216227030796</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>119.26104933950393</v>
+        <v>210.69199723852159</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="12"/>
-        <v>0.20313673185310677</v>
+        <f t="shared" si="13"/>
+        <v>-17.829944989404549</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="7"/>
-        <v>119.26104933950393</v>
-      </c>
-      <c r="I33" s="24">
+        <f t="shared" si="6"/>
+        <v>210.69199723852159</v>
+      </c>
+      <c r="I33" s="23">
         <f t="shared" si="2"/>
-        <v>119.87045953506325</v>
+        <v>157.20216227030795</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="3"/>
         <v>3160</v>
       </c>
       <c r="K33" s="10">
-        <f t="shared" si="4"/>
-        <v>3158.706830649367</v>
-      </c>
-      <c r="L33" s="3">
+        <f t="shared" si="7"/>
+        <v>3123.944128944866</v>
+      </c>
+      <c r="L33" s="37">
+        <f t="shared" si="9"/>
+        <v>0.60368066729104775</v>
+      </c>
+      <c r="M33" s="33">
+        <f t="shared" si="10"/>
+        <v>2.6000516750889067</v>
+      </c>
+      <c r="N33" s="33">
+        <f t="shared" si="11"/>
+        <v>3.2037323423799542</v>
+      </c>
+      <c r="O33" s="34">
+        <f t="shared" si="12"/>
+        <v>9882.1415218931561</v>
+      </c>
+      <c r="P33" s="39">
         <f t="shared" si="8"/>
-        <v>15.992671335833959</v>
-      </c>
-      <c r="M33" s="28">
-        <f t="shared" si="9"/>
-        <v>3.344573938833043E-3</v>
-      </c>
-      <c r="N33" s="7">
-        <f t="shared" si="10"/>
-        <v>15.996015909772792</v>
-      </c>
-      <c r="O33" s="36">
-        <f t="shared" si="11"/>
-        <v>499.36977722220809</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16.450076726224015</v>
+      </c>
+      <c r="Q33" s="39"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>27</v>
       </c>
       <c r="C34" s="2">
         <v>120</v>
       </c>
-      <c r="D34" s="13">
-        <v>127.365476</v>
+      <c r="D34" s="41">
+        <v>35.96675491333</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="5"/>
-        <v>1201.8989390111285</v>
+        <f t="shared" si="4"/>
+        <v>1366.2901772032969</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>119.46418607135703</v>
+        <v>192.86205224911706</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="12"/>
-        <v>0.24190260991860649</v>
+        <f t="shared" si="13"/>
+        <v>-18.74434484292912</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="7"/>
-        <v>119.46418607135703</v>
-      </c>
-      <c r="I34" s="24">
+        <f t="shared" si="6"/>
+        <v>192.86205224911706</v>
+      </c>
+      <c r="I34" s="23">
         <f t="shared" si="2"/>
-        <v>120.18989390111285</v>
+        <v>136.6290177203297</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" si="4"/>
-        <v>3277.9678799888711</v>
-      </c>
-      <c r="L34" s="3">
+        <f t="shared" si="7"/>
+        <v>3334.6361261833877</v>
+      </c>
+      <c r="L34" s="37">
+        <f t="shared" si="9"/>
+        <v>1.2936074589955477</v>
+      </c>
+      <c r="M34" s="33">
+        <f t="shared" si="10"/>
+        <v>5.9702125686541176</v>
+      </c>
+      <c r="N34" s="33">
+        <f t="shared" si="11"/>
+        <v>7.2638200276496656</v>
+      </c>
+      <c r="O34" s="34">
+        <f t="shared" si="12"/>
+        <v>9885.3452542355353</v>
+      </c>
+      <c r="P34" s="39">
         <f t="shared" si="8"/>
-        <v>16.221964476706578</v>
-      </c>
-      <c r="M34" s="28">
-        <f t="shared" si="9"/>
-        <v>8.2590234792608939E-3</v>
-      </c>
-      <c r="N34" s="7">
-        <f t="shared" si="10"/>
-        <v>16.23022350018584</v>
-      </c>
-      <c r="O34" s="36">
-        <f t="shared" si="11"/>
-        <v>515.36579313198092</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.617757315906129</v>
+      </c>
+      <c r="Q34" s="39"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>28</v>
       </c>
       <c r="C35" s="2">
         <v>120</v>
       </c>
-      <c r="D35" s="13">
-        <v>127.424672</v>
+      <c r="D35" s="41">
+        <v>53.024024963378899</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="5"/>
-        <v>1206.0658709397715</v>
+        <f t="shared" si="4"/>
+        <v>1183.4149728316822</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>119.70608868127565</v>
+        <v>174.11770740618795</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="12"/>
-        <v>0.30016613756716498</v>
+        <f t="shared" si="13"/>
+        <v>-18.592070041006576</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="7"/>
-        <v>119.70608868127565</v>
-      </c>
-      <c r="I35" s="24">
+        <f t="shared" si="6"/>
+        <v>174.11770740618795</v>
+      </c>
+      <c r="I35" s="23">
         <f t="shared" si="2"/>
-        <v>120.60658709397714</v>
+        <v>118.34149728316822</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="3"/>
         <v>3400</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" si="4"/>
-        <v>3397.432066060228</v>
-      </c>
-      <c r="L35" s="3">
+        <f t="shared" si="7"/>
+        <v>3527.4981784325046</v>
+      </c>
+      <c r="L35" s="37">
+        <f t="shared" si="9"/>
+        <v>2.8115472233170284</v>
+      </c>
+      <c r="M35" s="33">
+        <f t="shared" si="10"/>
+        <v>32.511571007213547</v>
+      </c>
+      <c r="N35" s="33">
+        <f t="shared" si="11"/>
+        <v>35.323118230530575</v>
+      </c>
+      <c r="O35" s="34">
+        <f t="shared" si="12"/>
+        <v>9892.6090742631841</v>
+      </c>
+      <c r="P35" s="39">
         <f t="shared" si="8"/>
-        <v>16.237047034307587</v>
-      </c>
-      <c r="M35" s="28">
-        <f t="shared" si="9"/>
-        <v>1.3188569438066374E-2</v>
-      </c>
-      <c r="N35" s="7">
-        <f t="shared" si="10"/>
-        <v>16.250235603745654</v>
-      </c>
-      <c r="O35" s="36">
-        <f t="shared" si="11"/>
-        <v>531.59601663216677</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.8574525098035393</v>
+      </c>
+      <c r="Q35" s="39"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>29</v>
       </c>
       <c r="C36" s="2">
         <v>120</v>
       </c>
-      <c r="D36" s="13">
-        <v>125.990233</v>
+      <c r="D36" s="41">
+        <v>78.592033386230398</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="5"/>
-        <v>1211.429683258496</v>
+        <f t="shared" si="4"/>
+        <v>1025.6970209033996</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>120.00625481884281</v>
+        <v>155.52563736518138</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="12"/>
-        <v>0.3789045023355963</v>
+        <f t="shared" si="13"/>
+        <v>-17.651978424947142</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="7"/>
-        <v>120.00625481884281</v>
-      </c>
-      <c r="I36" s="24">
+        <f t="shared" si="6"/>
+        <v>155.52563736518138</v>
+      </c>
+      <c r="I36" s="23">
         <f t="shared" si="2"/>
-        <v>121.14296832584959</v>
+        <v>102.56970209033996</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="3"/>
         <v>3520</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="4"/>
-        <v>3517.1381547415035</v>
-      </c>
-      <c r="L36" s="3">
+        <f t="shared" si="7"/>
+        <v>3701.6158858386925</v>
+      </c>
+      <c r="L36" s="37">
+        <f t="shared" si="9"/>
+        <v>6.1767077117823534</v>
+      </c>
+      <c r="M36" s="33">
+        <f>$K$2*(J36-K36)^2</f>
+        <v>65.96865997794599</v>
+      </c>
+      <c r="N36" s="33">
+        <f t="shared" si="11"/>
+        <v>72.145367689728346</v>
+      </c>
+      <c r="O36" s="34">
+        <f t="shared" si="12"/>
+        <v>9927.932192493714</v>
+      </c>
+      <c r="P36" s="39">
         <f t="shared" si="8"/>
-        <v>15.87353881139429</v>
-      </c>
-      <c r="M36" s="28">
-        <f t="shared" si="9"/>
-        <v>1.638031656715765E-2</v>
-      </c>
-      <c r="N36" s="7">
-        <f t="shared" si="10"/>
-        <v>15.889919127961448</v>
-      </c>
-      <c r="O36" s="36">
-        <f t="shared" si="11"/>
-        <v>547.8462522359124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.524141820404743</v>
+      </c>
+      <c r="Q36" s="39"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>30</v>
       </c>
       <c r="C37" s="2">
         <v>120</v>
       </c>
-      <c r="D37" s="13">
-        <v>122.600736</v>
+      <c r="D37" s="41">
+        <v>116.052864074707</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="5"/>
-        <v>1217.8855624396533</v>
+        <f t="shared" si="4"/>
+        <v>894.74129740235389</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>120.38515932117841</v>
+        <v>137.87365894023424</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="12"/>
-        <v>0.46779897426230832</v>
+        <f t="shared" si="13"/>
+        <v>-16.133176399999616</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="7"/>
-        <v>120.38515932117841</v>
-      </c>
-      <c r="I37" s="24">
+        <f t="shared" si="6"/>
+        <v>137.87365894023424</v>
+      </c>
+      <c r="I37" s="23">
         <f t="shared" si="2"/>
-        <v>121.78855624396533</v>
+        <v>89.474129740235384</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="3"/>
         <v>3640</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="4"/>
-        <v>3637.1444095603465</v>
-      </c>
-      <c r="L37" s="3">
+        <f t="shared" si="7"/>
+        <v>3857.1415232038739</v>
+      </c>
+      <c r="L37" s="37">
+        <f t="shared" si="9"/>
+        <v>13.468267259942419</v>
+      </c>
+      <c r="M37" s="33">
+        <f t="shared" si="10"/>
+        <v>94.300882198597051</v>
+      </c>
+      <c r="N37" s="33">
+        <f t="shared" si="11"/>
+        <v>107.76914945853947</v>
+      </c>
+      <c r="O37" s="34">
+        <f t="shared" si="12"/>
+        <v>10000.077560183443</v>
+      </c>
+      <c r="P37" s="39">
         <f t="shared" si="8"/>
-        <v>15.030940467741695</v>
-      </c>
-      <c r="M37" s="28">
-        <f t="shared" si="9"/>
-        <v>1.6308793518080903E-2</v>
-      </c>
-      <c r="N37" s="7">
-        <f t="shared" si="10"/>
-        <v>15.047249261259775</v>
-      </c>
-      <c r="O37" s="36">
-        <f t="shared" si="11"/>
-        <v>563.73617136387384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.63893536782363047</v>
+      </c>
+      <c r="Q37" s="39"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>31</v>
       </c>
       <c r="C38" s="2">
         <v>120</v>
       </c>
-      <c r="D38" s="13">
-        <v>116.664912</v>
+      <c r="D38" s="41">
+        <v>154.78477478027301</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="5"/>
-        <v>1224.8658791184748</v>
+        <f t="shared" si="4"/>
+        <v>792.83439337544962</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>120.85295829544071</v>
+        <v>121.74048254023462</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="12"/>
-        <v>0.54454320546892154</v>
+        <f t="shared" si="13"/>
+        <v>-14.152347734229886</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="7"/>
-        <v>120.85295829544071</v>
-      </c>
-      <c r="I38" s="24">
+        <f t="shared" si="6"/>
+        <v>121.74048254023462</v>
+      </c>
+      <c r="I38" s="23">
         <f t="shared" si="2"/>
-        <v>122.48658791184748</v>
+        <v>79.283439337544962</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="3"/>
         <v>3760</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" si="4"/>
-        <v>3757.5295688815249</v>
-      </c>
-      <c r="L38" s="3">
+        <f t="shared" si="7"/>
+        <v>3995.0151821441082</v>
+      </c>
+      <c r="L38" s="37">
+        <f t="shared" si="9"/>
+        <v>23.958326503779841</v>
+      </c>
+      <c r="M38" s="33">
+        <f t="shared" si="10"/>
+        <v>110.46427167645668</v>
+      </c>
+      <c r="N38" s="33">
+        <f t="shared" si="11"/>
+        <v>134.42259818023652</v>
+      </c>
+      <c r="O38" s="34">
+        <f t="shared" si="12"/>
+        <v>10107.846709641983</v>
+      </c>
+      <c r="P38" s="39">
         <f t="shared" si="8"/>
-        <v>13.610701691967744</v>
-      </c>
-      <c r="M38" s="28">
-        <f t="shared" si="9"/>
-        <v>1.2206059822259894E-2</v>
-      </c>
-      <c r="N38" s="7">
-        <f t="shared" si="10"/>
-        <v>13.622907751790004</v>
-      </c>
-      <c r="O38" s="36">
-        <f t="shared" si="11"/>
-        <v>578.78342062513366</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.0585589457231338E-3</v>
+      </c>
+      <c r="Q38" s="39"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>32</v>
       </c>
       <c r="C39" s="2">
         <v>120</v>
       </c>
-      <c r="D39" s="13">
-        <v>107.836264</v>
+      <c r="D39" s="41">
+        <v>174.75248718261699</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="5"/>
-        <v>1231.4375928230343</v>
+        <f t="shared" si="4"/>
+        <v>724.11793579859386</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>121.39750150090964</v>
+        <v>107.58813480600473</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="12"/>
-        <v>0.58208592713125995</v>
+        <f t="shared" si="13"/>
+        <v>-11.72544707538178</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="7"/>
-        <v>121.39750150090964</v>
-      </c>
-      <c r="I39" s="24">
+        <f t="shared" si="6"/>
+        <v>107.58813480600473</v>
+      </c>
+      <c r="I39" s="23">
         <f t="shared" si="2"/>
-        <v>123.14375928230342</v>
+        <v>72.411793579859392</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="3"/>
         <v>3880</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="4"/>
-        <v>3878.3825271769656</v>
-      </c>
-      <c r="L39" s="3">
+        <f t="shared" si="7"/>
+        <v>4116.7556646843432</v>
+      </c>
+      <c r="L39" s="37">
+        <f t="shared" si="9"/>
+        <v>30.538431776510716</v>
+      </c>
+      <c r="M39" s="33">
+        <f t="shared" si="10"/>
+        <v>112.10648952025028</v>
+      </c>
+      <c r="N39" s="33">
+        <f t="shared" si="11"/>
+        <v>142.644921296761</v>
+      </c>
+      <c r="O39" s="34">
+        <f t="shared" si="12"/>
+        <v>10242.26930782222</v>
+      </c>
+      <c r="P39" s="39">
         <f t="shared" si="8"/>
-        <v>11.628659833477696</v>
-      </c>
-      <c r="M39" s="28">
-        <f t="shared" si="9"/>
-        <v>5.2324366665097719E-3</v>
-      </c>
-      <c r="N39" s="7">
-        <f t="shared" si="10"/>
-        <v>11.633892270144207</v>
-      </c>
-      <c r="O39" s="36">
-        <f t="shared" si="11"/>
-        <v>592.40632837692363</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.30810879518782242</v>
+      </c>
+      <c r="Q39" s="39"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>33</v>
       </c>
       <c r="C40" s="2">
         <v>120</v>
       </c>
-      <c r="D40" s="13">
-        <v>95.916037000000003</v>
+      <c r="D40" s="41">
+        <v>200.77067565917901</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="5"/>
-        <v>1236.0303243221247</v>
+        <f t="shared" si="4"/>
+        <v>695.12183437881947</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>121.9795874280409</v>
+        <v>95.862687730622952</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="12"/>
-        <v>0.54114833472385726</v>
+        <f t="shared" si="13"/>
+        <v>-8.7835014309136685</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="7"/>
-        <v>121.9795874280409</v>
-      </c>
-      <c r="I40" s="24">
+        <f t="shared" si="6"/>
+        <v>95.862687730622952</v>
+      </c>
+      <c r="I40" s="23">
         <f t="shared" si="2"/>
-        <v>123.60303243221247</v>
+        <v>69.512183437881944</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" si="4"/>
-        <v>3999.7800286778752</v>
-      </c>
-      <c r="L40" s="3">
+        <f t="shared" si="7"/>
+        <v>4224.3437994903479</v>
+      </c>
+      <c r="L40" s="37">
+        <f t="shared" si="9"/>
+        <v>40.30886420464325</v>
+      </c>
+      <c r="M40" s="33">
+        <f t="shared" si="10"/>
+        <v>100.66028073953086</v>
+      </c>
+      <c r="N40" s="33">
+        <f t="shared" si="11"/>
+        <v>140.9691449441741</v>
+      </c>
+      <c r="O40" s="34">
+        <f t="shared" si="12"/>
+        <v>10384.914229118982</v>
+      </c>
+      <c r="P40" s="39">
         <f t="shared" si="8"/>
-        <v>9.1998861537853696</v>
-      </c>
-      <c r="M40" s="28">
-        <f t="shared" si="9"/>
-        <v>9.6774765114682906E-5</v>
-      </c>
-      <c r="N40" s="7">
-        <f t="shared" si="10"/>
-        <v>9.1999829285504848</v>
-      </c>
-      <c r="O40" s="36">
-        <f t="shared" si="11"/>
-        <v>604.04022064706783</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1652196871788396</v>
+      </c>
+      <c r="Q40" s="39"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>34</v>
       </c>
       <c r="C41" s="2">
         <v>120</v>
       </c>
-      <c r="D41" s="13">
-        <v>81.105124000000004</v>
+      <c r="D41" s="41">
+        <v>226.31947326660099</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="5"/>
-        <v>1236.6514728940838</v>
+        <f t="shared" si="4"/>
+        <v>715.31201072290355</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>122.52073576276476</v>
+        <v>87.079186299709278</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="12"/>
-        <v>0.38147050888120759</v>
+        <f t="shared" si="13"/>
+        <v>-5.1826617424729733</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="7"/>
-        <v>122.52073576276476</v>
-      </c>
-      <c r="I41" s="24">
+        <f t="shared" si="6"/>
+        <v>87.079186299709278</v>
+      </c>
+      <c r="I41" s="23">
         <f t="shared" si="2"/>
-        <v>123.66514728940838</v>
+        <v>71.531201072290358</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="3"/>
         <v>4120</v>
       </c>
       <c r="K41" s="10">
-        <f t="shared" si="4"/>
-        <v>4121.7596161059164</v>
-      </c>
-      <c r="L41" s="3">
+        <f t="shared" si="7"/>
+        <v>4320.2064872209712</v>
+      </c>
+      <c r="L41" s="37">
+        <f t="shared" si="9"/>
+        <v>51.220503979671726</v>
+      </c>
+      <c r="M41" s="33">
+        <f t="shared" si="10"/>
+        <v>80.165275050721817</v>
+      </c>
+      <c r="N41" s="33">
+        <f t="shared" si="11"/>
+        <v>131.38577903039354</v>
+      </c>
+      <c r="O41" s="34">
+        <f t="shared" si="12"/>
+        <v>10525.883374063156</v>
+      </c>
+      <c r="P41" s="39">
         <f t="shared" si="8"/>
-        <v>6.5780411390553768</v>
-      </c>
-      <c r="M41" s="28">
-        <f t="shared" si="9"/>
-        <v>6.1924976804007435E-3</v>
-      </c>
-      <c r="N41" s="7">
-        <f t="shared" si="10"/>
-        <v>6.5842336367357772</v>
-      </c>
-      <c r="O41" s="36">
-        <f t="shared" si="11"/>
-        <v>613.24020357561835</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.1675599493784987</v>
+      </c>
+      <c r="Q41" s="39"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>35</v>
       </c>
       <c r="C42" s="3">
         <v>120</v>
       </c>
-      <c r="D42" s="13">
-        <v>64.145503000000005</v>
+      <c r="D42" s="41">
+        <v>241.75305175781199</v>
       </c>
       <c r="E42" s="7">
         <f>E41+D38-H41</f>
-        <v>1230.7956491313189</v>
+        <v>783.01759920346728</v>
       </c>
       <c r="F42" s="7">
         <f>F41+G41</f>
-        <v>122.90220627164597</v>
+        <v>81.896524557236305</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="12"/>
-        <v>5.9119547161974616E-2</v>
+        <f t="shared" si="13"/>
+        <v>-1.198254878963193</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="7"/>
-        <v>122.90220627164597</v>
-      </c>
-      <c r="I42" s="24">
+        <f t="shared" si="6"/>
+        <v>81.896524557236305</v>
+      </c>
+      <c r="I42" s="23">
         <f t="shared" si="2"/>
-        <v>123.07956491313189</v>
+        <v>78.301759920346726</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="3"/>
         <v>4240</v>
       </c>
       <c r="K42" s="10">
-        <f t="shared" si="4"/>
-        <v>4244.2803518686815</v>
-      </c>
-      <c r="L42" s="3">
+        <f t="shared" si="7"/>
+        <v>4407.2856735206806</v>
+      </c>
+      <c r="L42" s="37">
+        <f t="shared" si="9"/>
+        <v>58.44453803421532</v>
+      </c>
+      <c r="M42" s="34">
+        <f>$K$2*(J42-K42)^2</f>
+        <v>55.968993130535466</v>
+      </c>
+      <c r="N42" s="33">
+        <f t="shared" si="11"/>
+        <v>114.41353116475079</v>
+      </c>
+      <c r="O42" s="34">
+        <f>N41+O41</f>
+        <v>10657.26915309355</v>
+      </c>
+      <c r="P42" s="39">
         <f t="shared" si="8"/>
-        <v>4.1146455551230092</v>
-      </c>
-      <c r="M42" s="33">
-        <f t="shared" ref="M42:M50" si="14">$K$2*(J42-K42)^2</f>
-        <v>3.6642824239449805E-2</v>
-      </c>
-      <c r="N42" s="7">
-        <f t="shared" si="10"/>
-        <v>4.1512883793624589</v>
-      </c>
-      <c r="O42" s="30">
-        <f>N41+O41</f>
-        <v>619.82443721235416</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.9037496816345922</v>
+      </c>
+      <c r="Q42" s="39"/>
+    </row>
+    <row r="43" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14">
         <v>36</v>
@@ -2841,28 +5322,28 @@
       <c r="C43" s="14">
         <v>120</v>
       </c>
-      <c r="D43" s="13">
-        <v>46.215525</v>
+      <c r="D43" s="41">
+        <v>242.60469055175699</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" ref="E43:E50" si="15">E42+D39-H42</f>
-        <v>1215.7297068596729</v>
+        <v>875.87356182884798</v>
       </c>
       <c r="F43" s="21">
         <f t="shared" ref="F43:F50" si="16">F42+G42</f>
-        <v>122.96132581880794</v>
+        <v>80.698269678273107</v>
       </c>
       <c r="G43" s="21">
         <f t="shared" ref="G43:G50" si="17">(I43-F43)/$G$2</f>
-        <v>-0.46278504428021466</v>
+        <v>2.296362168203899</v>
       </c>
       <c r="H43" s="21">
         <f t="shared" ref="H43:H50" si="18">F43</f>
-        <v>122.96132581880794</v>
-      </c>
-      <c r="I43" s="27">
+        <v>80.698269678273107</v>
+      </c>
+      <c r="I43" s="26">
         <f t="shared" ref="I43:I50" si="19">E43/$I$2</f>
-        <v>121.57297068596729</v>
+        <v>87.587356182884804</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" ref="J43:J50" si="20">J42+C42</f>
@@ -2870,26 +5351,31 @@
       </c>
       <c r="K43" s="15">
         <f t="shared" ref="K43:K50" si="21">K42+H42</f>
-        <v>4367.1825581403273</v>
-      </c>
-      <c r="L43" s="14">
+        <v>4489.1821980779168</v>
+      </c>
+      <c r="L43" s="38">
         <f t="shared" ref="L43:L50" si="22">(D43^2)*$M$2</f>
-        <v>2.1358747510256251</v>
-      </c>
-      <c r="M43" s="22">
-        <f t="shared" si="14"/>
-        <v>0.10317828287836317</v>
-      </c>
-      <c r="N43" s="21">
-        <f t="shared" ref="N43:N50" si="23">L43+M43</f>
-        <v>2.2390530339039882</v>
-      </c>
-      <c r="O43" s="39">
-        <f t="shared" ref="O43:O50" si="24">N42+O42</f>
-        <v>623.97572559171658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58.85703587771377</v>
+      </c>
+      <c r="M43" s="35">
+        <f t="shared" ref="M43:M50" si="23">$K$2*(J43-K43)^2</f>
+        <v>33.376080600484279</v>
+      </c>
+      <c r="N43" s="35">
+        <f t="shared" ref="N43:N50" si="24">L43+M43</f>
+        <v>92.233116478198042</v>
+      </c>
+      <c r="O43" s="31">
+        <f t="shared" ref="O43:O50" si="25">N42+O42</f>
+        <v>10771.682684258301</v>
+      </c>
+      <c r="P43" s="39">
+        <f t="shared" si="8"/>
+        <v>3.0892520125634944</v>
+      </c>
+      <c r="Q43" s="39"/>
+    </row>
+    <row r="44" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14">
         <v>37</v>
@@ -2897,55 +5383,60 @@
       <c r="C44" s="14">
         <v>120</v>
       </c>
-      <c r="D44" s="13">
-        <v>29.053896000000002</v>
+      <c r="D44" s="41">
+        <v>234.89529418945301</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="15"/>
-        <v>1188.684418040865</v>
+        <v>995.94596780975394</v>
       </c>
       <c r="F44" s="21">
         <f t="shared" si="16"/>
-        <v>122.49854077452773</v>
+        <v>82.994631846477006</v>
       </c>
       <c r="G44" s="21">
         <f t="shared" si="17"/>
-        <v>-1.2100329901470748</v>
+        <v>5.533321644832796</v>
       </c>
       <c r="H44" s="21">
         <f t="shared" si="18"/>
-        <v>122.49854077452773</v>
-      </c>
-      <c r="I44" s="27">
+        <v>82.994631846477006</v>
+      </c>
+      <c r="I44" s="26">
         <f t="shared" si="19"/>
-        <v>118.8684418040865</v>
+        <v>99.594596780975394</v>
       </c>
       <c r="J44" s="21">
         <f t="shared" si="20"/>
         <v>4480</v>
       </c>
-      <c r="K44" s="21">
-        <f t="shared" si="21"/>
-        <v>4490.1438839591356</v>
-      </c>
-      <c r="L44" s="14">
+      <c r="K44" s="15">
+        <f>K43+H43</f>
+        <v>4569.8804677561902</v>
+      </c>
+      <c r="L44" s="38">
         <f t="shared" si="22"/>
-        <v>0.8441288727788161</v>
-      </c>
-      <c r="M44" s="34">
-        <f t="shared" si="14"/>
-        <v>0.20579676355281565</v>
-      </c>
-      <c r="N44" s="21">
+        <v>55.175799232349682</v>
+      </c>
+      <c r="M44" s="31">
         <f t="shared" si="23"/>
-        <v>1.0499256363316318</v>
-      </c>
-      <c r="O44" s="39">
+        <v>16.156996968143105</v>
+      </c>
+      <c r="N44" s="35">
         <f t="shared" si="24"/>
-        <v>626.21477862562062</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71.332796200492794</v>
+      </c>
+      <c r="O44" s="31">
+        <f t="shared" si="25"/>
+        <v>10863.915800736499</v>
+      </c>
+      <c r="P44" s="39">
+        <f t="shared" si="8"/>
+        <v>2.7387945443555477</v>
+      </c>
+      <c r="Q44" s="39"/>
+    </row>
+    <row r="45" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14">
         <v>38</v>
@@ -2953,28 +5444,28 @@
       <c r="C45" s="14">
         <v>120</v>
       </c>
-      <c r="D45" s="13">
-        <v>14.514097</v>
+      <c r="D45" s="41">
+        <v>163.90579223632801</v>
       </c>
       <c r="E45" s="21">
         <f t="shared" si="15"/>
-        <v>1147.2910012663372</v>
+        <v>1139.2708092298778</v>
       </c>
       <c r="F45" s="21">
         <f t="shared" si="16"/>
-        <v>121.28850778438066</v>
+        <v>88.527953491309802</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="17"/>
-        <v>-2.1864692192489819</v>
+        <v>8.4663758105593274</v>
       </c>
       <c r="H45" s="21">
         <f t="shared" si="18"/>
-        <v>121.28850778438066</v>
-      </c>
-      <c r="I45" s="27">
+        <v>88.527953491309802</v>
+      </c>
+      <c r="I45" s="26">
         <f t="shared" si="19"/>
-        <v>114.72910012663371</v>
+        <v>113.92708092298778</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="20"/>
@@ -2982,26 +5473,31 @@
       </c>
       <c r="K45" s="15">
         <f t="shared" si="21"/>
-        <v>4612.6424247336636</v>
-      </c>
-      <c r="L45" s="14">
+        <v>4652.8750996026674</v>
+      </c>
+      <c r="L45" s="38">
         <f t="shared" si="22"/>
-        <v>0.21065901172540899</v>
-      </c>
-      <c r="M45" s="22">
-        <f t="shared" si="14"/>
-        <v>0.31966180629269703</v>
-      </c>
-      <c r="N45" s="21">
+        <v>26.865108728618324</v>
+      </c>
+      <c r="M45" s="35">
         <f t="shared" si="23"/>
-        <v>0.53032081801810604</v>
-      </c>
-      <c r="O45" s="39">
+        <v>5.5915523159840035</v>
+      </c>
+      <c r="N45" s="35">
         <f t="shared" si="24"/>
-        <v>627.26470426195226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32.456661044602328</v>
+      </c>
+      <c r="O45" s="31">
+        <f t="shared" si="25"/>
+        <v>10935.248596936992</v>
+      </c>
+      <c r="P45" s="39">
+        <f t="shared" si="8"/>
+        <v>1.9809794228903179</v>
+      </c>
+      <c r="Q45" s="39"/>
+    </row>
+    <row r="46" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14">
         <v>39</v>
@@ -3009,28 +5505,28 @@
       <c r="C46" s="14">
         <v>120</v>
       </c>
-      <c r="D46" s="13">
-        <v>4.5074569999999996</v>
+      <c r="D46" s="41">
+        <v>87.643875122070298</v>
       </c>
       <c r="E46" s="21">
         <f t="shared" si="15"/>
-        <v>1090.1479964819564</v>
+        <v>1292.4959074963801</v>
       </c>
       <c r="F46" s="21">
         <f t="shared" si="16"/>
-        <v>119.10203856513168</v>
+        <v>96.994329301869129</v>
       </c>
       <c r="G46" s="21">
         <f t="shared" si="17"/>
-        <v>-3.3624129723120149</v>
+        <v>10.751753815922958</v>
       </c>
       <c r="H46" s="21">
         <f t="shared" si="18"/>
-        <v>119.10203856513168</v>
-      </c>
-      <c r="I46" s="27">
+        <v>96.994329301869129</v>
+      </c>
+      <c r="I46" s="26">
         <f t="shared" si="19"/>
-        <v>109.01479964819563</v>
+        <v>129.249590749638</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" si="20"/>
@@ -3038,26 +5534,31 @@
       </c>
       <c r="K46" s="15">
         <f t="shared" si="21"/>
-        <v>4733.9309325180438</v>
-      </c>
-      <c r="L46" s="14">
+        <v>4741.4030530939772</v>
+      </c>
+      <c r="L46" s="38">
         <f t="shared" si="22"/>
-        <v>2.0317168606848995E-2</v>
-      </c>
-      <c r="M46" s="34">
-        <f t="shared" si="14"/>
-        <v>0.38814176164458292</v>
-      </c>
-      <c r="N46" s="21">
+        <v>7.681448846413053</v>
+      </c>
+      <c r="M46" s="31">
         <f t="shared" si="23"/>
-        <v>0.40845893025143193</v>
-      </c>
-      <c r="O46" s="39">
+        <v>0.91618136348721213</v>
+      </c>
+      <c r="N46" s="35">
         <f t="shared" si="24"/>
-        <v>627.7950250799704</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8.5976302099002648</v>
+      </c>
+      <c r="O46" s="31">
+        <f t="shared" si="25"/>
+        <v>10967.705257981594</v>
+      </c>
+      <c r="P46" s="39">
+        <f t="shared" si="8"/>
+        <v>1.0585217685416746</v>
+      </c>
+      <c r="Q46" s="39"/>
+    </row>
+    <row r="47" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14">
         <v>40</v>
@@ -3065,28 +5566,28 @@
       <c r="C47" s="14">
         <v>120</v>
       </c>
-      <c r="D47" s="13">
-        <v>0</v>
+      <c r="D47" s="41">
+        <v>37.030963897705</v>
       </c>
       <c r="E47" s="21">
         <f t="shared" si="15"/>
-        <v>1017.2614829168248</v>
+        <v>1438.1062687462679</v>
       </c>
       <c r="F47" s="21">
         <f t="shared" si="16"/>
-        <v>115.73962559281966</v>
+        <v>107.74608311779208</v>
       </c>
       <c r="G47" s="21">
         <f t="shared" si="17"/>
-        <v>-4.6711591003790618</v>
+        <v>12.02151458561157</v>
       </c>
       <c r="H47" s="21">
         <f t="shared" si="18"/>
-        <v>115.73962559281966</v>
-      </c>
-      <c r="I47" s="27">
+        <v>107.74608311779208</v>
+      </c>
+      <c r="I47" s="26">
         <f t="shared" si="19"/>
-        <v>101.72614829168248</v>
+        <v>143.81062687462679</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" si="20"/>
@@ -3094,26 +5595,31 @@
       </c>
       <c r="K47" s="15">
         <f t="shared" si="21"/>
-        <v>4853.0329710831757</v>
-      </c>
-      <c r="L47" s="14">
+        <v>4838.3973823958459</v>
+      </c>
+      <c r="L47" s="38">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="22">
-        <f t="shared" si="14"/>
-        <v>0.33971667050978549</v>
-      </c>
-      <c r="N47" s="21">
+        <v>1.3712922871931312</v>
+      </c>
+      <c r="M47" s="35">
         <f t="shared" si="23"/>
-        <v>0.33971667050978549</v>
-      </c>
-      <c r="O47" s="39">
+        <v>5.1367663702895595E-3</v>
+      </c>
+      <c r="N47" s="35">
         <f t="shared" si="24"/>
-        <v>628.20348401022181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.3764290535634207</v>
+      </c>
+      <c r="O47" s="31">
+        <f t="shared" si="25"/>
+        <v>10976.302888191494</v>
+      </c>
+      <c r="P47" s="39">
+        <f t="shared" si="8"/>
+        <v>0.30031695791212043</v>
+      </c>
+      <c r="Q47" s="39"/>
+    </row>
+    <row r="48" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14">
         <v>41</v>
@@ -3121,28 +5627,28 @@
       <c r="C48" s="14">
         <v>120</v>
       </c>
-      <c r="D48" s="13">
-        <v>0</v>
+      <c r="D48" s="41">
+        <v>17.8259468078613</v>
       </c>
       <c r="E48" s="21">
         <f t="shared" si="15"/>
-        <v>930.57575332400506</v>
+        <v>1565.2554798179287</v>
       </c>
       <c r="F48" s="21">
         <f t="shared" si="16"/>
-        <v>111.06846649244061</v>
+        <v>119.76759770340365</v>
       </c>
       <c r="G48" s="21">
         <f t="shared" si="17"/>
-        <v>-6.003630386680034</v>
+        <v>12.252650092796406</v>
       </c>
       <c r="H48" s="21">
         <f t="shared" si="18"/>
-        <v>111.06846649244061</v>
-      </c>
-      <c r="I48" s="27">
+        <v>119.76759770340365</v>
+      </c>
+      <c r="I48" s="26">
         <f t="shared" si="19"/>
-        <v>93.057575332400503</v>
+        <v>156.52554798179287</v>
       </c>
       <c r="J48" s="14">
         <f t="shared" si="20"/>
@@ -3150,26 +5656,31 @@
       </c>
       <c r="K48" s="15">
         <f t="shared" si="21"/>
-        <v>4968.7725966759954</v>
-      </c>
-      <c r="L48" s="14">
+        <v>4946.1434655136381</v>
+      </c>
+      <c r="L48" s="38">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="34">
-        <f t="shared" si="14"/>
-        <v>0.15391690487937015</v>
-      </c>
-      <c r="N48" s="21">
+        <v>0.31776437959670045</v>
+      </c>
+      <c r="M48" s="31">
         <f t="shared" si="23"/>
-        <v>0.15391690487937015</v>
-      </c>
-      <c r="O48" s="39">
+        <v>0.38400709594347066</v>
+      </c>
+      <c r="N48" s="35">
         <f t="shared" si="24"/>
-        <v>628.54320068073162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.70177147554017116</v>
+      </c>
+      <c r="O48" s="31">
+        <f t="shared" si="25"/>
+        <v>10977.679317245058</v>
+      </c>
+      <c r="P48" s="39">
+        <f t="shared" si="8"/>
+        <v>1.0802165492651374E-4</v>
+      </c>
+      <c r="Q48" s="39"/>
+    </row>
+    <row r="49" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14">
         <v>42</v>
@@ -3177,55 +5688,60 @@
       <c r="C49" s="14">
         <v>120</v>
       </c>
-      <c r="D49" s="13">
-        <v>0</v>
+      <c r="D49" s="41">
+        <v>10.9852705001831</v>
       </c>
       <c r="E49" s="21">
         <f t="shared" si="15"/>
-        <v>834.02138383156444</v>
+        <v>1609.393674350853</v>
       </c>
       <c r="F49" s="21">
         <f t="shared" si="16"/>
-        <v>105.06483610576058</v>
+        <v>132.02024779620007</v>
       </c>
       <c r="G49" s="21">
         <f t="shared" si="17"/>
-        <v>-7.2208992408680457</v>
+        <v>9.6397065462950788</v>
       </c>
       <c r="H49" s="21">
         <f t="shared" si="18"/>
-        <v>105.06483610576058</v>
-      </c>
-      <c r="I49" s="27">
+        <v>132.02024779620007</v>
+      </c>
+      <c r="I49" s="26">
         <f t="shared" si="19"/>
-        <v>83.402138383156441</v>
+        <v>160.9393674350853</v>
       </c>
       <c r="J49" s="14">
-        <f t="shared" si="20"/>
+        <f>J48+C48</f>
         <v>5080</v>
       </c>
       <c r="K49" s="15">
         <f t="shared" si="21"/>
-        <v>5079.8410631684355</v>
-      </c>
-      <c r="L49" s="14">
+        <v>5065.9110632170414</v>
+      </c>
+      <c r="L49" s="38">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="22">
-        <f t="shared" si="14"/>
-        <v>5.052183285549943E-5</v>
-      </c>
-      <c r="N49" s="21">
+        <v>0.12067616796219306</v>
+      </c>
+      <c r="M49" s="35">
         <f t="shared" si="23"/>
-        <v>5.052183285549943E-5</v>
-      </c>
-      <c r="O49" s="39">
+        <v>0.39699627934840914</v>
+      </c>
+      <c r="N49" s="35">
         <f t="shared" si="24"/>
-        <v>628.69711758561095</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.51767244731060225</v>
+      </c>
+      <c r="O49" s="31">
+        <f t="shared" si="25"/>
+        <v>10978.381088720598</v>
+      </c>
+      <c r="P49" s="39">
+        <f t="shared" si="8"/>
+        <v>0.28897271416410514</v>
+      </c>
+      <c r="Q49" s="39"/>
+    </row>
+    <row r="50" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14">
         <v>43</v>
@@ -3233,28 +5749,28 @@
       <c r="C50" s="14">
         <v>120</v>
       </c>
-      <c r="D50" s="13">
-        <v>0</v>
+      <c r="D50" s="41">
+        <v>9.2381839752197195</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="15"/>
-        <v>733.46400472580387</v>
+        <v>1565.0173016767233</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="16"/>
-        <v>97.843936864892527</v>
+        <v>141.65995434249515</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="17"/>
-        <v>-8.1658454641040468</v>
+        <v>4.9472586083923886</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="18"/>
-        <v>97.843936864892527</v>
-      </c>
-      <c r="I50" s="27">
+        <v>141.65995434249515</v>
+      </c>
+      <c r="I50" s="26">
         <f t="shared" si="19"/>
-        <v>73.346400472580385</v>
+        <v>156.50173016767232</v>
       </c>
       <c r="J50" s="14">
         <f t="shared" si="20"/>
@@ -3262,26 +5778,31 @@
       </c>
       <c r="K50" s="15">
         <f t="shared" si="21"/>
-        <v>5184.9058992741957</v>
-      </c>
-      <c r="L50" s="14">
+        <v>5197.9313110132416</v>
+      </c>
+      <c r="L50" s="38">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="34">
-        <f t="shared" si="14"/>
-        <v>0.45566375344145243</v>
-      </c>
-      <c r="N50" s="21">
+        <v>8.5344043160006419E-2</v>
+      </c>
+      <c r="M50" s="31">
         <f t="shared" si="23"/>
-        <v>0.45566375344145243</v>
-      </c>
-      <c r="O50" s="39">
+        <v>8.5589482478708977E-3</v>
+      </c>
+      <c r="N50" s="35">
         <f t="shared" si="24"/>
-        <v>628.69716810744376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.390299140787732E-2</v>
+      </c>
+      <c r="O50" s="31">
+        <f t="shared" si="25"/>
+        <v>10978.898761167909</v>
+      </c>
+      <c r="P50" s="39">
+        <f t="shared" si="8"/>
+        <v>0.93830724423794953</v>
+      </c>
+      <c r="Q50" s="39"/>
+    </row>
+    <row r="51" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="14">
         <v>44</v>
@@ -3289,55 +5810,60 @@
       <c r="C51" s="14">
         <v>120</v>
       </c>
-      <c r="D51" s="13">
-        <v>0</v>
+      <c r="D51" s="41">
+        <v>10.8449754714965</v>
       </c>
       <c r="E51" s="21">
-        <f t="shared" ref="E51:E53" si="25">E50+D47-H50</f>
-        <v>635.62006786091138</v>
+        <f t="shared" ref="E51:E53" si="26">E50+D47-H50</f>
+        <v>1460.3883112319331</v>
       </c>
       <c r="F51" s="21">
-        <f t="shared" ref="F51:F53" si="26">F50+G50</f>
-        <v>89.678091400788475</v>
+        <f t="shared" ref="F51:F53" si="27">F50+G50</f>
+        <v>146.60721295088754</v>
       </c>
       <c r="G51" s="21">
-        <f t="shared" ref="G51:G53" si="27">(I51-F51)/$G$2</f>
-        <v>-8.7053615382324452</v>
+        <f t="shared" ref="G51:G53" si="28">(I51-F51)/$G$2</f>
+        <v>-0.18946060923140826</v>
       </c>
       <c r="H51" s="21">
-        <f t="shared" ref="H51:H53" si="28">F51</f>
-        <v>89.678091400788475</v>
-      </c>
-      <c r="I51" s="27">
-        <f t="shared" ref="I51:I53" si="29">E51/$I$2</f>
-        <v>63.562006786091139</v>
+        <f t="shared" ref="H51:H53" si="29">F51</f>
+        <v>146.60721295088754</v>
+      </c>
+      <c r="I51" s="26">
+        <f t="shared" ref="I51:I53" si="30">E51/$I$2</f>
+        <v>146.03883112319332</v>
       </c>
       <c r="J51" s="14">
-        <f t="shared" ref="J51:J53" si="30">J50+C50</f>
+        <f t="shared" ref="J51:J53" si="31">J50+C50</f>
         <v>5320</v>
       </c>
       <c r="K51" s="15">
-        <f t="shared" ref="K51:K53" si="31">K50+H50</f>
-        <v>5282.7498361390881</v>
-      </c>
-      <c r="L51" s="14">
-        <f t="shared" ref="L51:L53" si="32">(D51^2)*$M$2</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="22">
-        <f t="shared" ref="M51:M52" si="33">$K$2*(J51-K51)^2</f>
-        <v>2.7751494153295777</v>
-      </c>
-      <c r="N51" s="21">
-        <f t="shared" ref="N51:N53" si="34">L51+M51</f>
-        <v>2.7751494153295777</v>
-      </c>
-      <c r="O51" s="39">
-        <f t="shared" ref="O51" si="35">N50+O50</f>
-        <v>629.15283186088516</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K51:K53" si="32">K50+H50</f>
+        <v>5339.5912653557371</v>
+      </c>
+      <c r="L51" s="38">
+        <f t="shared" ref="L51:L53" si="33">(D51^2)*$M$2</f>
+        <v>0.11761349297736073</v>
+      </c>
+      <c r="M51" s="35">
+        <f t="shared" ref="M51:M52" si="34">$K$2*(J51-K51)^2</f>
+        <v>0.76763535647780556</v>
+      </c>
+      <c r="N51" s="35">
+        <f t="shared" ref="N51:N53" si="35">L51+M51</f>
+        <v>0.88524884945516624</v>
+      </c>
+      <c r="O51" s="31">
+        <f t="shared" ref="O51" si="36">N50+O50</f>
+        <v>10978.992664159317</v>
+      </c>
+      <c r="P51" s="39">
+        <f t="shared" si="8"/>
+        <v>1.4158875620277556</v>
+      </c>
+      <c r="Q51" s="39"/>
+    </row>
+    <row r="52" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14">
         <v>45</v>
@@ -3345,55 +5871,60 @@
       <c r="C52" s="14">
         <v>120</v>
       </c>
-      <c r="D52" s="13">
-        <v>0</v>
+      <c r="D52" s="41">
+        <v>15.9141721725463</v>
       </c>
       <c r="E52" s="21">
-        <f t="shared" si="25"/>
-        <v>545.94197646012287</v>
+        <f t="shared" si="26"/>
+        <v>1331.6070450889069</v>
       </c>
       <c r="F52" s="21">
-        <f t="shared" si="26"/>
-        <v>80.972729862556037</v>
+        <f t="shared" si="27"/>
+        <v>146.41775234165613</v>
       </c>
       <c r="G52" s="21">
-        <f t="shared" si="27"/>
-        <v>-8.7928440721812482</v>
+        <f t="shared" si="28"/>
+        <v>-4.419015944255146</v>
       </c>
       <c r="H52" s="21">
-        <f t="shared" si="28"/>
-        <v>80.972729862556037</v>
-      </c>
-      <c r="I52" s="27">
         <f t="shared" si="29"/>
-        <v>54.59419764601229</v>
+        <v>146.41775234165613</v>
+      </c>
+      <c r="I52" s="26">
+        <f t="shared" si="30"/>
+        <v>133.16070450889069</v>
       </c>
       <c r="J52" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5440</v>
       </c>
       <c r="K52" s="15">
-        <f t="shared" si="31"/>
-        <v>5372.4279275398767</v>
-      </c>
-      <c r="L52" s="14">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="22">
+        <v>5486.1984783066246</v>
+      </c>
+      <c r="L52" s="38">
         <f t="shared" si="33"/>
-        <v>9.1319699531123106</v>
-      </c>
-      <c r="N52" s="21">
+        <v>0.25326087593744701</v>
+      </c>
+      <c r="M52" s="35">
+        <f t="shared" si="34"/>
+        <v>4.2685987956953211</v>
+      </c>
+      <c r="N52" s="35">
         <f>L52+M52</f>
-        <v>9.1319699531123106</v>
+        <v>4.5218596716327681</v>
       </c>
       <c r="O52" s="31">
         <f>N51+O51</f>
-        <v>631.92798127621472</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10979.877913008773</v>
+      </c>
+      <c r="P52" s="39">
+        <f t="shared" si="8"/>
+        <v>1.3957952775701554</v>
+      </c>
+      <c r="Q52" s="39"/>
+    </row>
+    <row r="53" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="14">
         <v>46</v>
@@ -3401,53 +5932,58 @@
       <c r="C53" s="14">
         <v>120</v>
       </c>
-      <c r="D53" s="13">
-        <v>466.97912300000002</v>
+      <c r="D53" s="41">
+        <v>25.394557952880799</v>
       </c>
       <c r="E53" s="21">
-        <f t="shared" si="25"/>
-        <v>464.96924659756684</v>
+        <f t="shared" si="26"/>
+        <v>1196.174563247434</v>
       </c>
       <c r="F53" s="21">
-        <f t="shared" si="26"/>
-        <v>72.179885790374783</v>
+        <f t="shared" si="27"/>
+        <v>141.99873639740099</v>
       </c>
       <c r="G53" s="21">
-        <f t="shared" si="27"/>
-        <v>-8.5609870435393649</v>
+        <f t="shared" si="28"/>
+        <v>-7.4604266908858632</v>
       </c>
       <c r="H53" s="21">
-        <f t="shared" si="28"/>
-        <v>72.179885790374783</v>
-      </c>
-      <c r="I53" s="27">
         <f t="shared" si="29"/>
-        <v>46.496924659756687</v>
+        <v>141.99873639740099</v>
+      </c>
+      <c r="I53" s="26">
+        <f t="shared" si="30"/>
+        <v>119.6174563247434</v>
       </c>
       <c r="J53" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5560</v>
       </c>
       <c r="K53" s="15">
-        <f t="shared" si="31"/>
-        <v>5453.4006574024324</v>
-      </c>
-      <c r="L53" s="14">
         <f t="shared" si="32"/>
-        <v>218.06950131784916</v>
-      </c>
-      <c r="M53" s="34">
+        <v>5632.6162306482811</v>
+      </c>
+      <c r="L53" s="38">
+        <f t="shared" si="33"/>
+        <v>0.64488357362222148</v>
+      </c>
+      <c r="M53" s="31">
         <f>$K$2*(J53-K53)^2</f>
-        <v>22.726839684467162</v>
-      </c>
-      <c r="N53" s="21">
-        <f t="shared" si="34"/>
-        <v>240.79634100231632</v>
+        <v>10.546233907128716</v>
+      </c>
+      <c r="N53" s="35">
+        <f t="shared" si="35"/>
+        <v>11.191117480750938</v>
       </c>
       <c r="O53" s="31">
         <f>N52+O52</f>
-        <v>641.059951229327</v>
-      </c>
+        <v>10984.399772680406</v>
+      </c>
+      <c r="P53" s="39">
+        <f t="shared" si="8"/>
+        <v>0.9678888061646701</v>
+      </c>
+      <c r="Q53" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3458,20 +5994,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6D948-080B-4601-B7CC-B81B14A825F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DDF011-5ED4-4060-9450-D6A520221E0D}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D48" sqref="D2:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30" style="3" customWidth="1"/>
     <col min="3" max="3" width="44" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -3481,8 +6033,11 @@
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>259.68109199999998</v>
       </c>
@@ -3492,8 +6047,11 @@
       <c r="C2" s="18">
         <v>257.87345900000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>210.91152199999999</v>
       </c>
@@ -3503,8 +6061,11 @@
       <c r="C3" s="18">
         <v>209.57297500000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>171.350841</v>
       </c>
@@ -3514,8 +6075,11 @@
       <c r="C4" s="18">
         <v>170.26967400000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>137.64783800000001</v>
       </c>
@@ -3525,8 +6089,11 @@
       <c r="C5" s="18">
         <v>140.45232999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>116.813367</v>
       </c>
@@ -3536,8 +6103,11 @@
       <c r="C6" s="18">
         <v>119.747095</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>106.903503</v>
       </c>
@@ -3547,8 +6117,11 @@
       <c r="C7" s="18">
         <v>106.932964</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>99.212434000000002</v>
       </c>
@@ -3558,8 +6131,11 @@
       <c r="C8" s="18">
         <v>100.567978</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>100.905815</v>
       </c>
@@ -3569,8 +6145,11 @@
       <c r="C9" s="18">
         <v>98.947665999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="41">
+        <v>27.764543533325099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>101.574658</v>
       </c>
@@ -3580,8 +6159,11 @@
       <c r="C10" s="18">
         <v>100.58298000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="41">
+        <v>93.892364501953097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>103.55455499999999</v>
       </c>
@@ -3591,8 +6173,11 @@
       <c r="C11" s="18">
         <v>104.07507699999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="41">
+        <v>93.892364501953097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>111.824151</v>
       </c>
@@ -3602,8 +6187,11 @@
       <c r="C12" s="18">
         <v>108.240358</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="41">
+        <v>162.36714172363199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>108.795968</v>
       </c>
@@ -3613,8 +6201,11 @@
       <c r="C13" s="18">
         <v>112.41003000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="41">
+        <v>470.28668212890602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>119.52606900000001</v>
       </c>
@@ -3624,8 +6215,11 @@
       <c r="C14" s="18">
         <v>115.965197</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="41">
+        <v>479.18441772460898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>115.227715</v>
       </c>
@@ -3635,8 +6229,11 @@
       <c r="C15" s="18">
         <v>118.76067999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="41">
+        <v>481.42630004882801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>119.91098700000001</v>
       </c>
@@ -3646,8 +6243,11 @@
       <c r="C16" s="18">
         <v>120.641251</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="41">
+        <v>483.40570068359301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>122.385437</v>
       </c>
@@ -3657,8 +6257,11 @@
       <c r="C17" s="18">
         <v>121.7003</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="41">
+        <v>484.34115600585898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>124.69295099999999</v>
       </c>
@@ -3668,8 +6271,11 @@
       <c r="C18" s="18">
         <v>122.056713</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="41">
+        <v>457.88311767578102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>117.84640899999999</v>
       </c>
@@ -3679,8 +6285,11 @@
       <c r="C19" s="18">
         <v>121.98632600000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="41">
+        <v>22.655143737792901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>119.107401</v>
       </c>
@@ -3690,8 +6299,11 @@
       <c r="C20" s="18">
         <v>121.622893</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>124.291034</v>
       </c>
@@ -3701,8 +6313,11 @@
       <c r="C21" s="18">
         <v>121.25402200000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>121.249171</v>
       </c>
@@ -3712,8 +6327,11 @@
       <c r="C22" s="18">
         <v>121.035872</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>125.60300700000001</v>
       </c>
@@ -3723,8 +6341,11 @@
       <c r="C23" s="18">
         <v>121.103286</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>120.210285</v>
       </c>
@@ -3734,8 +6355,11 @@
       <c r="C24" s="18">
         <v>121.6123</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="41">
+        <v>3.23890161514282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>118.79460899999999</v>
       </c>
@@ -3745,8 +6369,11 @@
       <c r="C25" s="18">
         <v>122.455393</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="41">
+        <v>4.9605517387390101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>122.119877</v>
       </c>
@@ -3756,8 +6383,11 @@
       <c r="C26" s="18">
         <v>123.631118</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="41">
+        <v>9.9868478775024396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>127.64285099999999</v>
       </c>
@@ -3767,8 +6397,11 @@
       <c r="C27" s="18">
         <v>125.069901</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="41">
+        <v>16.399755477905199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>126.831763</v>
       </c>
@@ -3778,8 +6411,11 @@
       <c r="C28" s="18">
         <v>126.46213400000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="41">
+        <v>24.5699138641357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>128.09689900000001</v>
       </c>
@@ -3789,8 +6425,11 @@
       <c r="C29" s="18">
         <v>127.365476</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="41">
+        <v>35.96675491333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>124.572547</v>
       </c>
@@ -3800,8 +6439,11 @@
       <c r="C30" s="18">
         <v>127.424672</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="41">
+        <v>53.024024963378899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>129.667383</v>
       </c>
@@ -3811,8 +6453,11 @@
       <c r="C31" s="18">
         <v>125.990233</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="41">
+        <v>78.592033386230398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>123.09179</v>
       </c>
@@ -3822,8 +6467,11 @@
       <c r="C32" s="18">
         <v>122.600736</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="41">
+        <v>116.052864074707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>118.535635</v>
       </c>
@@ -3833,8 +6481,11 @@
       <c r="C33" s="18">
         <v>116.664912</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="41">
+        <v>154.78477478027301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>105.193628</v>
       </c>
@@ -3844,8 +6495,11 @@
       <c r="C34" s="18">
         <v>107.836264</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="41">
+        <v>174.75248718261699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>94.023910999999998</v>
       </c>
@@ -3855,8 +6509,11 @@
       <c r="C35" s="18">
         <v>95.916037000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="41">
+        <v>200.77067565917901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>84.703581</v>
       </c>
@@ -3866,8 +6523,11 @@
       <c r="C36" s="18">
         <v>81.105124000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="41">
+        <v>226.31947326660099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>58.941260999999997</v>
       </c>
@@ -3877,8 +6537,11 @@
       <c r="C37" s="18">
         <v>64.145503000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="41">
+        <v>241.75305175781199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>48.466368000000003</v>
       </c>
@@ -3888,8 +6551,11 @@
       <c r="C38" s="18">
         <v>46.215525</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="41">
+        <v>242.60469055175699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>25.639907999999998</v>
       </c>
@@ -3899,8 +6565,11 @@
       <c r="C39" s="18">
         <v>29.053896000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="41">
+        <v>234.89529418945301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>11.491186000000001</v>
       </c>
@@ -3910,8 +6579,11 @@
       <c r="C40" s="18">
         <v>14.514097</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="41">
+        <v>163.90579223632801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>14.059443</v>
       </c>
@@ -3921,8 +6593,11 @@
       <c r="C41" s="3">
         <v>4.5074569999999996</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="41">
+        <v>87.643875122070298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>9.0803580000000004</v>
       </c>
@@ -3932,8 +6607,11 @@
       <c r="C42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="41">
+        <v>37.030963897705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>9.4616699999999998</v>
       </c>
@@ -3943,8 +6621,11 @@
       <c r="C43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="41">
+        <v>17.8259468078613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>8.4387889999999999</v>
       </c>
@@ -3954,8 +6635,11 @@
       <c r="C44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="41">
+        <v>10.9852705001831</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>9.2370800000000006</v>
       </c>
@@ -3965,8 +6649,11 @@
       <c r="C45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="41">
+        <v>9.2381839752197195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>12.557095</v>
       </c>
@@ -3976,8 +6663,11 @@
       <c r="C46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="41">
+        <v>10.8449754714965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>8.6049670000000003</v>
       </c>
@@ -3987,8 +6677,11 @@
       <c r="C47" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="41">
+        <v>15.9141721725463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>213.36166700000001</v>
       </c>
@@ -3998,18 +6691,24 @@
       <c r="C48" s="3">
         <v>466.97912300000002</v>
       </c>
+      <c r="D48" s="41">
+        <v>25.394557952880799</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F3A357-E2B5-4389-97AC-5662D981894E}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4034,7 +6733,7 @@
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="29">
         <v>641.98895200000004</v>
       </c>
       <c r="C2" s="3">
@@ -4045,10 +6744,10 @@
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>672.17962275020943</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>644.60298552327629</v>
       </c>
     </row>
@@ -4056,15 +6755,15 @@
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>641.059951229327</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>619.82443721235416</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
+      <c r="B8" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RL_DS/utils/modelo_excel.xlsx
+++ b/RL_DS/utils/modelo_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDRIVE_JCE\Mi unidad\cod\RL_DS_dynamic\RL_DS\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FBD9F8-CB10-43B5-BF49-E80A4D082824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC405A-2511-4AA4-840F-7834A6F978F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9190A782-109A-4E43-A899-3A4B83188105}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9190A782-109A-4E43-A899-3A4B83188105}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Demanda</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Time to adjust capacity</t>
   </si>
   <si>
-    <t>SAC runningscale</t>
+    <t>SAC</t>
   </si>
 </sst>
 </file>
@@ -357,10 +357,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -454,145 +454,145 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>1.0490483672574769E-2</c:v>
+                  <c:v>67.43426954231245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0490483672574769E-2</c:v>
+                  <c:v>44.483670112356478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0490483672574769E-2</c:v>
+                  <c:v>29.361110711407282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0490483672574769E-2</c:v>
+                  <c:v>18.946927306074247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81049048367257481</c:v>
+                  <c:v>14.44536270987669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2104904836725749</c:v>
+                  <c:v>14.628358953671011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0053852933306366</c:v>
+                  <c:v>15.822320660076159</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.635029362453235</c:v>
+                  <c:v>17.897057751984498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.139313421125294</c:v>
+                  <c:v>18.132303251824009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.505626870924388</c:v>
+                  <c:v>17.309978319733304</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123.33900945928704</c:v>
+                  <c:v>17.242970056917287</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>375.88441338722328</c:v>
+                  <c:v>14.75136410154796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>465.36103400094225</c:v>
+                  <c:v>15.795755978946003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>575.39244741186621</c:v>
+                  <c:v>13.897914750239357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>710.67711763009117</c:v>
+                  <c:v>14.551380021272182</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>867.42883222740875</c:v>
+                  <c:v>14.994717424962589</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1010.9896228233275</c:v>
+                  <c:v>15.554301864567764</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>944.03449623369852</c:v>
+                  <c:v>13.928829301894059</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1023.3885152563785</c:v>
+                  <c:v>14.257736785722418</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1016.8359154321545</c:v>
+                  <c:v>15.526002593802923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>917.10436906702739</c:v>
+                  <c:v>14.765815320917442</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>736.51766044792612</c:v>
+                  <c:v>15.819138905128495</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>506.99838256426017</c:v>
+                  <c:v>14.474367511898487</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294.46067395381959</c:v>
+                  <c:v>14.121274537024373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>135.59014660687629</c:v>
+                  <c:v>14.914348804528508</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40.790587540999994</c:v>
+                  <c:v>16.293255739807158</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.2037323423799542</c:v>
+                  <c:v>16.091516560469707</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.2638200276496656</c:v>
+                  <c:v>16.419913709649869</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35.323118230530575</c:v>
+                  <c:v>15.534234903581773</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>72.145367689728346</c:v>
+                  <c:v>16.833081408728322</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>107.76914945853947</c:v>
+                  <c:v>15.172303655126608</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>134.42259818023652</c:v>
+                  <c:v>14.067765533657576</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>142.644921296761</c:v>
+                  <c:v>11.074764303608353</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>140.9691449441741</c:v>
+                  <c:v>8.8416095711529934</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>131.38577903039354</c:v>
+                  <c:v>7.1773694873051621</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>114.41353116475079</c:v>
+                  <c:v>3.5011693253693439</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>92.233116478198042</c:v>
+                  <c:v>2.4377078452413992</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>71.332796200492794</c:v>
+                  <c:v>0.84987279784639425</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>32.456661044602328</c:v>
+                  <c:v>0.44355076806755778</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.5976302099002648</c:v>
+                  <c:v>0.58185237662048883</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3764290535634207</c:v>
+                  <c:v>0.42638289076814845</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.70177147554017116</c:v>
+                  <c:v>0.24683520304025408</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.51767244731060225</c:v>
+                  <c:v>7.1222362351673341E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.390299140787732E-2</c:v>
+                  <c:v>0.543538149750602</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.88524884945516624</c:v>
+                  <c:v>2.9869584134429887</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.5218596716327681</c:v>
+                  <c:v>9.3367697176947679</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.191117480750938</c:v>
+                  <c:v>68.316902033007338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,20 +673,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -994,145 +980,145 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>259.68109199999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>210.91152199999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>171.350841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>137.64783800000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>116.813367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>106.903503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>99.212434000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.764543533325099</c:v>
+                  <c:v>100.905815</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.892364501953097</c:v>
+                  <c:v>101.574658</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93.892364501953097</c:v>
+                  <c:v>103.55455499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>162.36714172363199</c:v>
+                  <c:v>111.824151</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>470.28668212890602</c:v>
+                  <c:v>108.795968</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>479.18441772460898</c:v>
+                  <c:v>119.52606900000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>481.42630004882801</c:v>
+                  <c:v>115.227715</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>483.40570068359301</c:v>
+                  <c:v>119.91098700000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>484.34115600585898</c:v>
+                  <c:v>122.385437</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>457.88311767578102</c:v>
+                  <c:v>124.69295099999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.655143737792901</c:v>
+                  <c:v>117.84640899999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>119.107401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>124.291034</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>121.249171</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>125.60300700000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.23890161514282</c:v>
+                  <c:v>120.210285</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.9605517387390101</c:v>
+                  <c:v>118.79460899999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.9868478775024396</c:v>
+                  <c:v>122.119877</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.399755477905199</c:v>
+                  <c:v>127.64285099999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.5699138641357</c:v>
+                  <c:v>126.831763</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.96675491333</c:v>
+                  <c:v>128.09689900000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53.024024963378899</c:v>
+                  <c:v>124.572547</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>78.592033386230398</c:v>
+                  <c:v>129.667383</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>116.052864074707</c:v>
+                  <c:v>123.09179</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>154.78477478027301</c:v>
+                  <c:v>118.535635</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>174.75248718261699</c:v>
+                  <c:v>105.193628</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>200.77067565917901</c:v>
+                  <c:v>94.023910999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>226.31947326660099</c:v>
+                  <c:v>84.703581</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>241.75305175781199</c:v>
+                  <c:v>58.941260999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>242.60469055175699</c:v>
+                  <c:v>48.466368000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>234.89529418945301</c:v>
+                  <c:v>25.639907999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>163.90579223632801</c:v>
+                  <c:v>11.491186000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>87.643875122070298</c:v>
+                  <c:v>14.059443</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.030963897705</c:v>
+                  <c:v>9.0803580000000004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17.8259468078613</c:v>
+                  <c:v>9.4616699999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.9852705001831</c:v>
+                  <c:v>8.4387889999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.2381839752197195</c:v>
+                  <c:v>9.2370800000000006</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10.8449754714965</c:v>
+                  <c:v>12.557095</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15.9141721725463</c:v>
+                  <c:v>8.6049670000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>25.394557952880799</c:v>
+                  <c:v>213.36166700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,130 +1170,130 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.774630053838095</c:v>
+                  <c:v>105.32270306666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.399013476901587</c:v>
+                  <c:v>112.56822251111112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.697411477654072</c:v>
+                  <c:v>119.59950673851853</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.291006416097105</c:v>
+                  <c:v>125.1230167397531</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.638119379642077</c:v>
+                  <c:v>128.71248541595887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62.067791195306917</c:v>
+                  <c:v>130.49814740877093</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.80759848026684</c:v>
+                  <c:v>130.70525369011369</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48.824028414840726</c:v>
+                  <c:v>129.85691346404982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.137807238612858</c:v>
+                  <c:v>128.32033345700347</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.849270990698024</c:v>
+                  <c:v>126.41920150350424</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.531224641588771</c:v>
+                  <c:v>124.60190745260464</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.133774113456198</c:v>
+                  <c:v>122.80293696855476</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91.523913530801821</c:v>
+                  <c:v>121.43442869743468</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>122.2937573402113</c:v>
+                  <c:v>120.26958245106948</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.86971278491063</c:v>
+                  <c:v>119.44223689691152</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>190.32192970356513</c:v>
+                  <c:v>118.96120167910389</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>223.3571878123638</c:v>
+                  <c:v>118.81553533733509</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>239.79180035270386</c:v>
+                  <c:v>118.68126468685243</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>243.41093250635652</c:v>
+                  <c:v>118.60147977528615</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>237.93859065087292</c:v>
+                  <c:v>118.73528214468021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>226.28462838417673</c:v>
+                  <c:v>118.91274009843337</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>210.69199723852159</c:v>
+                  <c:v>119.25996956277947</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>192.86205224911706</c:v>
+                  <c:v>119.53470736906243</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>174.11770740618795</c:v>
+                  <c:v>119.70235388782508</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>155.52563736518138</c:v>
+                  <c:v>119.9002905546981</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>137.87365894023424</c:v>
+                  <c:v>120.29693156968595</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>121.74048254023462</c:v>
+                  <c:v>120.79240799452124</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>107.58813480600473</c:v>
+                  <c:v>121.38272452542189</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>95.862687730622952</c:v>
+                  <c:v>121.90227351287162</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87.079186299709278</c:v>
+                  <c:v>122.52479478699071</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>81.896524557236305</c:v>
+                  <c:v>122.97945951930771</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>80.698269678273107</c:v>
+                  <c:v>123.14959734795268</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>82.994631846477006</c:v>
+                  <c:v>122.67016151640574</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>88.527953491309802</c:v>
+                  <c:v>121.37968141710935</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>96.994329301869129</c:v>
+                  <c:v>119.25380866703158</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>107.74608311779208</c:v>
+                  <c:v>115.75527948640941</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>119.76759770340365</c:v>
+                  <c:v>111.06334534376025</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>132.02024779620007</c:v>
+                  <c:v>104.93154353244717</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>141.65995434249515</c:v>
+                  <c:v>97.524603680113103</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>146.60721295088754</c:v>
+                  <c:v>89.557573760808822</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>146.41775234165613</c:v>
+                  <c:v>81.298078958602204</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>141.99873639740099</c:v>
+                  <c:v>73.121885631770823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2672,6 +2658,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2991,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8B34C3-B0EF-452A-B745-B234E9E67503}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D53"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,7 +3081,7 @@
       </c>
       <c r="Q3" s="27">
         <f>O42</f>
-        <v>10657.26915309355</v>
+        <v>620.56309215177362</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3107,23 +3097,23 @@
       <c r="K4" s="5"/>
       <c r="L4" s="8">
         <f>SUM(L7:L53)</f>
-        <v>1786.5955789275829</v>
+        <v>630.94861026552826</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" ref="M4" si="0">SUM(M7:M53)</f>
-        <v>9208.9953112335716</v>
+        <v>79.3572437694461</v>
       </c>
       <c r="N4" s="8">
         <f>SUM(N7:N53)</f>
-        <v>10995.590890161156</v>
+        <v>710.30585403497469</v>
       </c>
       <c r="O4" s="30">
         <f>MAX(O7:O1048576)</f>
-        <v>10984.399772680406</v>
+        <v>641.98895200196739</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -3145,7 +3135,7 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2">
         <v>-1</v>
       </c>
@@ -3166,15 +3156,15 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
       </c>
-      <c r="D7" s="41">
-        <v>3.23890161514282</v>
+      <c r="D7" s="8">
+        <v>259.68109199999998</v>
       </c>
       <c r="E7" s="6">
         <v>1000</v>
@@ -3200,7 +3190,7 @@
       </c>
       <c r="L7" s="36">
         <f>(D7^2)*$M$2</f>
-        <v>1.0490483672574769E-2</v>
+        <v>67.43426954231245</v>
       </c>
       <c r="M7" s="32">
         <f>$K$2*(J7-K7)^2</f>
@@ -3208,7 +3198,7 @@
       </c>
       <c r="N7" s="32">
         <f>L7+M7</f>
-        <v>1.0490483672574769E-2</v>
+        <v>67.43426954231245</v>
       </c>
       <c r="O7" s="32">
         <v>0</v>
@@ -3221,8 +3211,8 @@
       <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="41">
-        <v>3.23890161514282</v>
+      <c r="D8" s="8">
+        <v>210.91152199999999</v>
       </c>
       <c r="E8" s="7">
         <f>E7+D5-H8</f>
@@ -3254,7 +3244,7 @@
       </c>
       <c r="L8" s="37">
         <f>(D8^2)*$M$2</f>
-        <v>1.0490483672574769E-2</v>
+        <v>44.483670112356478</v>
       </c>
       <c r="M8" s="33">
         <f>$K$2*(J8-K8)^2</f>
@@ -3262,11 +3252,11 @@
       </c>
       <c r="N8" s="33">
         <f>L8+M8</f>
-        <v>1.0490483672574769E-2</v>
+        <v>44.483670112356478</v>
       </c>
       <c r="O8" s="34">
         <f>N7+O7</f>
-        <v>1.0490483672574769E-2</v>
+        <v>67.43426954231245</v>
       </c>
       <c r="P8" s="39">
         <f>$K$2*(C8-H8)^2</f>
@@ -3281,8 +3271,8 @@
       <c r="C9" s="2">
         <v>100</v>
       </c>
-      <c r="D9" s="41">
-        <v>3.23890161514282</v>
+      <c r="D9" s="8">
+        <v>171.350841</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ref="E9:E41" si="4">E8+D5-H8</f>
@@ -3314,7 +3304,7 @@
       </c>
       <c r="L9" s="37">
         <f>(D9^2)*$M$2</f>
-        <v>1.0490483672574769E-2</v>
+        <v>29.361110711407282</v>
       </c>
       <c r="M9" s="33">
         <f>$K$2*(J9-K9)^2</f>
@@ -3322,11 +3312,11 @@
       </c>
       <c r="N9" s="33">
         <f>L9+M9</f>
-        <v>1.0490483672574769E-2</v>
+        <v>29.361110711407282</v>
       </c>
       <c r="O9" s="34">
         <f>N8+O8</f>
-        <v>2.0980967345149537E-2</v>
+        <v>111.91793965466893</v>
       </c>
       <c r="P9" s="39">
         <f t="shared" ref="P9:P53" si="8">$K$2*(C9-H9)^2</f>
@@ -3341,8 +3331,8 @@
       <c r="C10" s="2">
         <v>120</v>
       </c>
-      <c r="D10" s="41">
-        <v>3.23890161514282</v>
+      <c r="D10" s="8">
+        <v>137.64783800000001</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="4"/>
@@ -3374,7 +3364,7 @@
       </c>
       <c r="L10" s="37">
         <f t="shared" ref="L10:L42" si="9">(D10^2)*$M$2</f>
-        <v>1.0490483672574769E-2</v>
+        <v>18.946927306074247</v>
       </c>
       <c r="M10" s="33">
         <f t="shared" ref="M10:M41" si="10">$K$2*(J10-K10)^2</f>
@@ -3382,11 +3372,11 @@
       </c>
       <c r="N10" s="33">
         <f t="shared" ref="N10:N42" si="11">L10+M10</f>
-        <v>1.0490483672574769E-2</v>
+        <v>18.946927306074247</v>
       </c>
       <c r="O10" s="34">
         <f t="shared" ref="O10:O41" si="12">N9+O9</f>
-        <v>3.1471451017724306E-2</v>
+        <v>141.27905036607621</v>
       </c>
       <c r="P10" s="39">
         <f t="shared" si="8"/>
@@ -3401,12 +3391,12 @@
       <c r="C11" s="2">
         <v>120</v>
       </c>
-      <c r="D11" s="41">
-        <v>3.23890161514282</v>
+      <c r="D11" s="8">
+        <v>116.813367</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="4"/>
-        <v>903.23890161514282</v>
+        <v>1159.681092</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
@@ -3414,7 +3404,7 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" ref="G11:G42" si="13">(I11-F11)/$G$2</f>
-        <v>-3.225369946161905</v>
+        <v>5.3227030666666666</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="6"/>
@@ -3422,7 +3412,7 @@
       </c>
       <c r="I11" s="23">
         <f t="shared" si="2"/>
-        <v>90.323890161514285</v>
+        <v>115.9681092</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="3"/>
@@ -3434,7 +3424,7 @@
       </c>
       <c r="L11" s="37">
         <f t="shared" si="9"/>
-        <v>1.0490483672574769E-2</v>
+        <v>13.645362709876689</v>
       </c>
       <c r="M11" s="33">
         <f t="shared" si="10"/>
@@ -3442,11 +3432,11 @@
       </c>
       <c r="N11" s="33">
         <f>L11+M11</f>
-        <v>0.81049048367257481</v>
+        <v>14.44536270987669</v>
       </c>
       <c r="O11" s="34">
         <f>N10+O10</f>
-        <v>4.1961934690299074E-2</v>
+        <v>160.22597767215046</v>
       </c>
       <c r="P11" s="39">
         <f t="shared" si="8"/>
@@ -3461,28 +3451,28 @@
       <c r="C12" s="2">
         <v>120</v>
       </c>
-      <c r="D12" s="41">
-        <v>3.23890161514282</v>
+      <c r="D12" s="8">
+        <v>106.903503</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="4"/>
-        <v>806.47780323028564</v>
+        <v>1270.5926140000001</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>96.774630053838095</v>
+        <v>105.32270306666666</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="13"/>
-        <v>-5.3756165769365083</v>
+        <v>7.24551944444445</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="6"/>
-        <v>96.774630053838095</v>
+        <v>105.32270306666666</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="2"/>
-        <v>80.64778032302857</v>
+        <v>127.05926140000001</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="3"/>
@@ -3494,7 +3484,7 @@
       </c>
       <c r="L12" s="37">
         <f t="shared" si="9"/>
-        <v>1.0490483672574769E-2</v>
+        <v>11.42835895367101</v>
       </c>
       <c r="M12" s="33">
         <f t="shared" si="10"/>
@@ -3502,15 +3492,15 @@
       </c>
       <c r="N12" s="33">
         <f t="shared" si="11"/>
-        <v>3.2104904836725749</v>
+        <v>14.628358953671011</v>
       </c>
       <c r="O12" s="34">
         <f>N11+O11</f>
-        <v>0.85245241836287389</v>
+        <v>174.67134038202715</v>
       </c>
       <c r="P12" s="39">
         <f t="shared" si="8"/>
-        <v>1.0788356182721615</v>
+        <v>0.43084609053847245</v>
       </c>
       <c r="Q12" s="39"/>
     </row>
@@ -3521,28 +3511,28 @@
       <c r="C13" s="2">
         <v>120</v>
       </c>
-      <c r="D13" s="41">
-        <v>3.23890161514282</v>
+      <c r="D13" s="8">
+        <v>99.212434000000002</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="4"/>
-        <v>712.94207479159036</v>
+        <v>1336.6207519333334</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>91.399013476901587</v>
+        <v>112.56822251111112</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="13"/>
-        <v>-6.7016019992475151</v>
+        <v>7.0312842274074114</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="6"/>
-        <v>91.399013476901587</v>
+        <v>112.56822251111112</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="2"/>
-        <v>71.294207479159041</v>
+        <v>133.66207519333335</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="3"/>
@@ -3550,27 +3540,27 @@
       </c>
       <c r="K13" s="10">
         <f t="shared" si="7"/>
-        <v>696.77463005383811</v>
+        <v>705.32270306666669</v>
       </c>
       <c r="L13" s="37">
         <f t="shared" si="9"/>
-        <v>1.0490483672574769E-2</v>
+        <v>9.8431070602043569</v>
       </c>
       <c r="M13" s="33">
         <f t="shared" si="10"/>
-        <v>7.9948948096580628</v>
+        <v>5.9792135998718008</v>
       </c>
       <c r="N13" s="33">
         <f t="shared" si="11"/>
-        <v>8.0053852933306366</v>
+        <v>15.822320660076159</v>
       </c>
       <c r="O13" s="34">
         <f t="shared" ref="O13" si="14">N12+O12</f>
-        <v>4.0629429020354486</v>
+        <v>189.29969933569816</v>
       </c>
       <c r="P13" s="39">
         <f t="shared" si="8"/>
-        <v>1.6360328601889143</v>
+        <v>0.11046263328871112</v>
       </c>
       <c r="Q13" s="39"/>
     </row>
@@ -3581,28 +3571,28 @@
       <c r="C14" s="2">
         <v>120</v>
       </c>
-      <c r="D14" s="41">
-        <v>27.764543533325099</v>
+      <c r="D14" s="8">
+        <v>100.905815</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="4"/>
-        <v>624.78196292983159</v>
+        <v>1361.7003674222224</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>84.697411477654072</v>
+        <v>119.59950673851853</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="13"/>
-        <v>-7.4064050615569714</v>
+        <v>5.5235100012345697</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="6"/>
-        <v>84.697411477654072</v>
+        <v>119.59950673851853</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="2"/>
-        <v>62.478196292983156</v>
+        <v>136.17003674222224</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="3"/>
@@ -3610,27 +3600,27 @@
       </c>
       <c r="K14" s="17">
         <f t="shared" si="7"/>
-        <v>788.1736435307397</v>
+        <v>817.89092557777781</v>
       </c>
       <c r="L14" s="37">
         <f t="shared" si="9"/>
-        <v>0.77086987761390457</v>
+        <v>10.181983500814226</v>
       </c>
       <c r="M14" s="33">
         <f t="shared" si="10"/>
-        <v>16.86415948483933</v>
+        <v>7.7150742511702699</v>
       </c>
       <c r="N14" s="33">
         <f t="shared" si="11"/>
-        <v>17.635029362453235</v>
+        <v>17.897057751984498</v>
       </c>
       <c r="O14" s="34">
         <f t="shared" si="12"/>
-        <v>12.068328195366085</v>
+        <v>205.12201999577434</v>
       </c>
       <c r="P14" s="39">
         <f t="shared" si="8"/>
-        <v>2.4925455127561409</v>
+        <v>3.2078970498413344E-4</v>
       </c>
       <c r="Q14" s="39"/>
     </row>
@@ -3641,28 +3631,28 @@
       <c r="C15" s="2">
         <v>120</v>
       </c>
-      <c r="D15" s="41">
-        <v>93.892364501953097</v>
+      <c r="D15" s="8">
+        <v>101.574658</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="4"/>
-        <v>543.32345306732032</v>
+        <v>1358.9142276837038</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>77.291006416097105</v>
+        <v>125.1230167397531</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="13"/>
-        <v>-7.6528870364550245</v>
+        <v>3.5894686762057595</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="6"/>
-        <v>77.291006416097105</v>
+        <v>125.1230167397531</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="2"/>
-        <v>54.33234530673203</v>
+        <v>135.89142276837038</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="3"/>
@@ -3670,27 +3660,27 @@
       </c>
       <c r="K15" s="10">
         <f t="shared" si="7"/>
-        <v>872.8710550083938</v>
+        <v>937.49043231629639</v>
       </c>
       <c r="L15" s="37">
         <f t="shared" si="9"/>
-        <v>8.8157761117676223</v>
+        <v>10.317411147816964</v>
       </c>
       <c r="M15" s="33">
-        <f t="shared" si="10"/>
-        <v>32.323537309357668</v>
+        <f>$K$2*(J15-K15)^2</f>
+        <v>7.8148921040070443</v>
       </c>
       <c r="N15" s="33">
-        <f t="shared" si="11"/>
-        <v>41.139313421125294</v>
+        <f>L15+M15</f>
+        <v>18.132303251824009</v>
       </c>
       <c r="O15" s="34">
         <f t="shared" si="12"/>
-        <v>29.70335755781932</v>
+        <v>223.01907774775884</v>
       </c>
       <c r="P15" s="39">
         <f t="shared" si="8"/>
-        <v>3.6481162658997173</v>
+        <v>5.2490601031580916E-2</v>
       </c>
       <c r="Q15" s="39"/>
     </row>
@@ -3701,28 +3691,28 @@
       <c r="C16" s="2">
         <v>120</v>
       </c>
-      <c r="D16" s="41">
-        <v>93.892364501953097</v>
+      <c r="D16" s="8">
+        <v>103.55455499999999</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="4"/>
-        <v>469.27134826636603</v>
+        <v>1340.6947139439508</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>69.638119379642077</v>
+        <v>128.71248541595887</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="13"/>
-        <v>-7.5703281843351578</v>
+        <v>1.7856619928120665</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="6"/>
-        <v>69.638119379642077</v>
+        <v>128.71248541595887</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="2"/>
-        <v>46.927134826636603</v>
+        <v>134.06947139439507</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="3"/>
@@ -3730,27 +3720,27 @@
       </c>
       <c r="K16" s="10">
         <f t="shared" si="7"/>
-        <v>950.16206142449096</v>
+        <v>1062.6134490560494</v>
       </c>
       <c r="L16" s="37">
         <f t="shared" si="9"/>
-        <v>8.8157761117676223</v>
+        <v>10.723545861248024</v>
       </c>
       <c r="M16" s="33">
         <f t="shared" si="10"/>
-        <v>57.689850759156762</v>
+        <v>6.5864324584852803</v>
       </c>
       <c r="N16" s="33">
         <f t="shared" si="11"/>
-        <v>66.505626870924388</v>
+        <v>17.309978319733304</v>
       </c>
       <c r="O16" s="34">
         <f>N15+O15</f>
-        <v>70.842670978944611</v>
+        <v>241.15138099958284</v>
       </c>
       <c r="P16" s="39">
         <f t="shared" si="8"/>
-        <v>5.0726380392383668</v>
+        <v>0.15181480424659188</v>
       </c>
       <c r="Q16" s="39"/>
     </row>
@@ -3761,28 +3751,28 @@
       <c r="C17" s="2">
         <v>120</v>
       </c>
-      <c r="D17" s="41">
-        <v>162.36714172363199</v>
+      <c r="D17" s="8">
+        <v>111.824151</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="4"/>
-        <v>402.87213050186676</v>
+        <v>1311.194662527992</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>62.067791195306917</v>
+        <v>130.49814740877093</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="13"/>
-        <v>-7.2601927150400796</v>
+        <v>0.20710628134276021</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="6"/>
-        <v>62.067791195306917</v>
+        <v>130.49814740877093</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>40.287213050186679</v>
+        <v>131.11946625279921</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="3"/>
@@ -3790,27 +3780,27 @@
       </c>
       <c r="K17" s="10">
         <f t="shared" si="7"/>
-        <v>1019.800180804133</v>
+        <v>1191.3259344720082</v>
       </c>
       <c r="L17" s="37">
         <f t="shared" si="9"/>
-        <v>26.363088711501995</v>
+        <v>12.5046407468708</v>
       </c>
       <c r="M17" s="33">
         <f t="shared" si="10"/>
-        <v>96.97592074778504</v>
+        <v>4.7383293100464883</v>
       </c>
       <c r="N17" s="33">
         <f t="shared" si="11"/>
-        <v>123.33900945928704</v>
+        <v>17.242970056917287</v>
       </c>
       <c r="O17" s="34">
         <f t="shared" si="12"/>
-        <v>137.348297849869</v>
+        <v>258.46135931931616</v>
       </c>
       <c r="P17" s="39">
         <f t="shared" si="8"/>
-        <v>6.7122816339811182</v>
+        <v>0.22042219803256771</v>
       </c>
       <c r="Q17" s="39"/>
     </row>
@@ -3821,28 +3811,28 @@
       <c r="C18" s="2">
         <v>120</v>
       </c>
-      <c r="D18" s="41">
-        <v>470.28668212890602</v>
+      <c r="D18" s="8">
+        <v>108.795968</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="4"/>
-        <v>368.56888283988491</v>
+        <v>1281.6023301192213</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>54.80759848026684</v>
+        <v>130.70525369011369</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="13"/>
-        <v>-5.9835700654261172</v>
+        <v>-0.84834022606385895</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="6"/>
-        <v>54.80759848026684</v>
+        <v>130.70525369011369</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>36.856888283988489</v>
+        <v>128.16023301192212</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="3"/>
@@ -3850,27 +3840,27 @@
       </c>
       <c r="K18" s="10">
         <f t="shared" si="7"/>
-        <v>1081.86797199944</v>
+        <v>1321.824081880779</v>
       </c>
       <c r="L18" s="37">
         <f t="shared" si="9"/>
-        <v>221.16956338781472</v>
+        <v>11.836562653057024</v>
       </c>
       <c r="M18" s="33">
         <f t="shared" si="10"/>
-        <v>154.71484999940859</v>
+        <v>2.9148014484909366</v>
       </c>
       <c r="N18" s="33">
         <f t="shared" si="11"/>
-        <v>375.88441338722328</v>
+        <v>14.75136410154796</v>
       </c>
       <c r="O18" s="34">
         <f t="shared" si="12"/>
-        <v>260.68730730915604</v>
+        <v>275.70432937623343</v>
       </c>
       <c r="P18" s="39">
         <f t="shared" si="8"/>
-        <v>8.5000984318202111</v>
+        <v>0.22920491313938571</v>
       </c>
       <c r="Q18" s="39"/>
     </row>
@@ -3881,28 +3871,28 @@
       <c r="C19" s="2">
         <v>120</v>
       </c>
-      <c r="D19" s="41">
-        <v>479.18441772460898</v>
+      <c r="D19" s="8">
+        <v>119.52606900000001</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="4"/>
-        <v>407.65364886157113</v>
+        <v>1252.4717344291075</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>48.824028414840726</v>
+        <v>129.85691346404982</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="13"/>
-        <v>-2.6862211762278698</v>
+        <v>-1.5365800070463582</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="6"/>
-        <v>48.824028414840726</v>
+        <v>129.85691346404982</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>40.765364886157116</v>
+        <v>125.24717344291075</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="3"/>
@@ -3910,27 +3900,27 @@
       </c>
       <c r="K19" s="10">
         <f t="shared" si="7"/>
-        <v>1136.6755704797067</v>
+        <v>1452.5293355708927</v>
       </c>
       <c r="L19" s="37">
         <f t="shared" si="9"/>
-        <v>229.61770619007257</v>
+        <v>14.286481170592763</v>
       </c>
       <c r="M19" s="33">
         <f t="shared" si="10"/>
-        <v>235.74332781086969</v>
+        <v>1.5092748083532392</v>
       </c>
       <c r="N19" s="33">
         <f t="shared" si="11"/>
-        <v>465.36103400094225</v>
+        <v>15.795755978946003</v>
       </c>
       <c r="O19" s="34">
         <f t="shared" si="12"/>
-        <v>636.57172069637932</v>
+        <v>290.45569347778138</v>
       </c>
       <c r="P19" s="39">
         <f t="shared" si="8"/>
-        <v>10.1320378621828</v>
+        <v>0.19431748607553342</v>
       </c>
       <c r="Q19" s="39"/>
     </row>
@@ -3941,28 +3931,28 @@
       <c r="C20" s="2">
         <v>120</v>
       </c>
-      <c r="D20" s="41">
-        <v>481.42630004882801</v>
+      <c r="D20" s="8">
+        <v>115.227715</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="4"/>
-        <v>452.72198494868354</v>
+        <v>1226.1693759650577</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>46.137807238612858</v>
+        <v>128.32033345700347</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="13"/>
-        <v>-0.28853624791483412</v>
+        <v>-1.901131953499231</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="6"/>
-        <v>46.137807238612858</v>
+        <v>128.32033345700347</v>
       </c>
       <c r="I20" s="23">
         <f t="shared" si="2"/>
-        <v>45.272198494868356</v>
+        <v>122.61693759650578</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="3"/>
@@ -3970,27 +3960,27 @@
       </c>
       <c r="K20" s="10">
         <f t="shared" si="7"/>
-        <v>1185.4995988945475</v>
+        <v>1582.3862490349425</v>
       </c>
       <c r="L20" s="37">
         <f t="shared" si="9"/>
-        <v>231.77128237870417</v>
+        <v>13.277426304121226</v>
       </c>
       <c r="M20" s="33">
         <f t="shared" si="10"/>
-        <v>343.62116503316207</v>
+        <v>0.62048844611813048</v>
       </c>
       <c r="N20" s="33">
         <f t="shared" si="11"/>
-        <v>575.39244741186621</v>
+        <v>13.897914750239357</v>
       </c>
       <c r="O20" s="34">
         <f t="shared" si="12"/>
-        <v>1101.9327546973216</v>
+        <v>306.25144945672736</v>
       </c>
       <c r="P20" s="39">
         <f t="shared" si="8"/>
-        <v>10.911247039040626</v>
+        <v>0.13845589767146269</v>
       </c>
       <c r="Q20" s="39"/>
     </row>
@@ -4001,28 +3991,28 @@
       <c r="C21" s="2">
         <v>120</v>
       </c>
-      <c r="D21" s="41">
-        <v>483.40570068359301</v>
+      <c r="D21" s="8">
+        <v>119.91098700000001</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="4"/>
-        <v>568.95131943370268</v>
+        <v>1209.6731935080543</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>45.849270990698024</v>
+        <v>126.41920150350424</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="13"/>
-        <v>3.6819536508907476</v>
+        <v>-1.8172940508996049</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="6"/>
-        <v>45.849270990698024</v>
+        <v>126.41920150350424</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="2"/>
-        <v>56.895131943370266</v>
+        <v>120.96731935080543</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="3"/>
@@ -4030,27 +4020,27 @@
       </c>
       <c r="K21" s="10">
         <f t="shared" si="7"/>
-        <v>1231.6374061331603</v>
+        <v>1710.7065824919459</v>
       </c>
       <c r="L21" s="37">
         <f t="shared" si="9"/>
-        <v>233.6810714533955</v>
+        <v>14.37864480331417</v>
       </c>
       <c r="M21" s="33">
         <f t="shared" si="10"/>
-        <v>476.99604617669564</v>
+        <v>0.17273521795801156</v>
       </c>
       <c r="N21" s="33">
         <f t="shared" si="11"/>
-        <v>710.67711763009117</v>
+        <v>14.551380021272182</v>
       </c>
       <c r="O21" s="34">
         <f t="shared" si="12"/>
-        <v>1677.3252021091878</v>
+        <v>320.14936420696671</v>
       </c>
       <c r="P21" s="39">
         <f t="shared" si="8"/>
-        <v>10.996661225221876</v>
+        <v>8.2412295885182202E-2</v>
       </c>
       <c r="Q21" s="39"/>
     </row>
@@ -4061,28 +4051,28 @@
       <c r="C22" s="2">
         <v>120</v>
       </c>
-      <c r="D22" s="41">
-        <v>484.34115600585898</v>
+      <c r="D22" s="8">
+        <v>122.385437</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="4"/>
-        <v>993.38873057191051</v>
+        <v>1192.04996000455</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>49.531224641588771</v>
+        <v>124.60190745260464</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="13"/>
-        <v>16.602549471867427</v>
+        <v>-1.7989704840498792</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="6"/>
-        <v>49.531224641588771</v>
+        <v>124.60190745260464</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="2"/>
-        <v>99.338873057191051</v>
+        <v>119.204996000455</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="3"/>
@@ -4090,27 +4080,27 @@
       </c>
       <c r="K22" s="10">
         <f t="shared" si="7"/>
-        <v>1277.4866771238583</v>
+        <v>1837.1257839954501</v>
       </c>
       <c r="L22" s="37">
         <f t="shared" si="9"/>
-        <v>234.58635540109182</v>
+        <v>14.978195189680967</v>
       </c>
       <c r="M22" s="33">
         <f t="shared" si="10"/>
-        <v>632.8424768263169</v>
+        <v>1.652223528162167E-2</v>
       </c>
       <c r="N22" s="33">
         <f t="shared" si="11"/>
-        <v>867.42883222740875</v>
+        <v>14.994717424962589</v>
       </c>
       <c r="O22" s="34">
         <f t="shared" si="12"/>
-        <v>2388.0023197392788</v>
+        <v>334.70074422823888</v>
       </c>
       <c r="P22" s="39">
         <f t="shared" si="8"/>
-        <v>9.9316966010284489</v>
+        <v>4.2355104404676172E-2</v>
       </c>
       <c r="Q22" s="39"/>
     </row>
@@ -4121,28 +4111,28 @@
       <c r="C23" s="2">
         <v>120</v>
       </c>
-      <c r="D23" s="41">
-        <v>457.88311767578102</v>
+      <c r="D23" s="8">
+        <v>124.69295099999999</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="4"/>
-        <v>1423.0419236549308</v>
+        <v>1186.9741215519455</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>66.133774113456198</v>
+        <v>122.80293696855476</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="13"/>
-        <v>25.390139417345623</v>
+        <v>-1.3685082711200731</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="6"/>
-        <v>66.133774113456198</v>
+        <v>122.80293696855476</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="2"/>
-        <v>142.30419236549307</v>
+        <v>118.69741215519454</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="3"/>
@@ -4150,27 +4140,27 @@
       </c>
       <c r="K23" s="10">
         <f t="shared" si="7"/>
-        <v>1327.017901765447</v>
+        <v>1961.7276914480547</v>
       </c>
       <c r="L23" s="37">
         <f t="shared" si="9"/>
-        <v>209.65694945249314</v>
+        <v>15.548332029088401</v>
       </c>
       <c r="M23" s="33">
         <f t="shared" si="10"/>
-        <v>801.33267337083441</v>
+        <v>5.9698354793623924E-3</v>
       </c>
       <c r="N23" s="33">
         <f t="shared" si="11"/>
-        <v>1010.9896228233275</v>
+        <v>15.554301864567764</v>
       </c>
       <c r="O23" s="34">
         <f t="shared" si="12"/>
-        <v>3255.4311519666876</v>
+        <v>349.69546165320145</v>
       </c>
       <c r="P23" s="39">
         <f t="shared" si="8"/>
-        <v>5.8031405825203226</v>
+        <v>1.5712911299381904E-2</v>
       </c>
       <c r="Q23" s="39"/>
     </row>
@@ -4181,28 +4171,28 @@
       <c r="C24" s="2">
         <v>120</v>
       </c>
-      <c r="D24" s="41">
-        <v>22.655143737792901</v>
+      <c r="D24" s="8">
+        <v>117.84640899999999</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="4"/>
-        <v>1838.3344495903025</v>
+        <v>1179.3988995833906</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>91.523913530801821</v>
+        <v>121.43442869743468</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="13"/>
-        <v>30.76984380940948</v>
+        <v>-1.1648462463652056</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="6"/>
-        <v>91.523913530801821</v>
+        <v>121.43442869743468</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="2"/>
-        <v>183.83344495903026</v>
+        <v>117.93988995833907</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="3"/>
@@ -4210,27 +4200,27 @@
       </c>
       <c r="K24" s="10">
         <f t="shared" si="7"/>
-        <v>1393.1516758789032</v>
+        <v>2084.5306284166095</v>
       </c>
       <c r="L24" s="37">
         <f t="shared" si="9"/>
-        <v>0.51325553778005695</v>
+        <v>13.88777611419528</v>
       </c>
       <c r="M24" s="33">
         <f t="shared" si="10"/>
-        <v>943.52124069591844</v>
+        <v>4.1053187698778804E-2</v>
       </c>
       <c r="N24" s="33">
         <f t="shared" si="11"/>
-        <v>944.03449623369852</v>
+        <v>13.928829301894059</v>
       </c>
       <c r="O24" s="34">
         <f t="shared" si="12"/>
-        <v>4266.4207747900155</v>
+        <v>365.24976351776922</v>
       </c>
       <c r="P24" s="39">
         <f t="shared" si="8"/>
-        <v>1.6217750012025034</v>
+        <v>4.1151713760483226E-3</v>
       </c>
       <c r="Q24" s="39"/>
     </row>
@@ -4241,28 +4231,28 @@
       <c r="C25" s="2">
         <v>120</v>
       </c>
-      <c r="D25" s="41">
-        <v>3.23890161514282</v>
+      <c r="D25" s="8">
+        <v>119.107401</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="4"/>
-        <v>2230.2162367430933</v>
+        <v>1177.8754578859559</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>122.2937573402113</v>
+        <v>120.26958245106948</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="13"/>
-        <v>33.575955444699339</v>
+        <v>-0.82734555415796274</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="6"/>
-        <v>122.2937573402113</v>
+        <v>120.26958245106948</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="2"/>
-        <v>223.02162367430932</v>
+        <v>117.78754578859559</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="3"/>
@@ -4270,27 +4260,27 @@
       </c>
       <c r="K25" s="10">
         <f t="shared" si="7"/>
-        <v>1484.675589409705</v>
+        <v>2205.9650571140442</v>
       </c>
       <c r="L25" s="37">
         <f t="shared" si="9"/>
-        <v>1.0490483672574769E-2</v>
+        <v>14.186572972974801</v>
       </c>
       <c r="M25" s="33">
         <f t="shared" si="10"/>
-        <v>1023.3780247727059</v>
+        <v>7.1163812747617614E-2</v>
       </c>
       <c r="N25" s="33">
         <f t="shared" si="11"/>
-        <v>1023.3885152563785</v>
+        <v>14.257736785722418</v>
       </c>
       <c r="O25" s="34">
         <f t="shared" si="12"/>
-        <v>5210.455271023714</v>
+        <v>379.17859281966327</v>
       </c>
       <c r="P25" s="39">
         <f t="shared" si="8"/>
-        <v>1.0522645471546438E-2</v>
+        <v>1.4534939584925929E-4</v>
       </c>
       <c r="Q25" s="39"/>
     </row>
@@ -4301,28 +4291,28 @@
       <c r="C26" s="2">
         <v>120</v>
       </c>
-      <c r="D26" s="41">
-        <v>3.23890161514282</v>
+      <c r="D26" s="8">
+        <v>124.291034</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="4"/>
-        <v>2592.2636354087408</v>
+        <v>1179.9913124348864</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>155.86971278491063</v>
+        <v>119.44223689691152</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="13"/>
-        <v>34.452216918654493</v>
+        <v>-0.48103521780763003</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="6"/>
-        <v>155.86971278491063</v>
+        <v>119.44223689691152</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="2"/>
-        <v>259.2263635408741</v>
+        <v>117.99913124348863</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="3"/>
@@ -4330,27 +4320,27 @@
       </c>
       <c r="K26" s="10">
         <f t="shared" si="7"/>
-        <v>1606.9693467499164</v>
+        <v>2326.2346395651139</v>
       </c>
       <c r="L26" s="37">
         <f t="shared" si="9"/>
-        <v>1.0490483672574769E-2</v>
+        <v>15.448261132789156</v>
       </c>
       <c r="M26" s="33">
         <f t="shared" si="10"/>
-        <v>1016.8254249484819</v>
+        <v>7.7741461013766444E-2</v>
       </c>
       <c r="N26" s="33">
         <f t="shared" si="11"/>
-        <v>1016.8359154321545</v>
+        <v>15.526002593802923</v>
       </c>
       <c r="O26" s="34">
         <f t="shared" si="12"/>
-        <v>6233.8437862800929</v>
+        <v>393.43632960538571</v>
       </c>
       <c r="P26" s="39">
         <f t="shared" si="8"/>
-        <v>2.5732725905439624</v>
+        <v>6.2219935833377187E-4</v>
       </c>
       <c r="Q26" s="39"/>
     </row>
@@ -4361,28 +4351,28 @@
       <c r="C27" s="2">
         <v>120</v>
       </c>
-      <c r="D27" s="41">
-        <v>3.23890161514282</v>
+      <c r="D27" s="8">
+        <v>121.249171</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="4"/>
-        <v>2894.2770402996116</v>
+        <v>1185.2420265379749</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>190.32192970356513</v>
+        <v>118.96120167910389</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="13"/>
-        <v>33.035258108798672</v>
+        <v>-0.145666341768802</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="6"/>
-        <v>190.32192970356513</v>
+        <v>118.96120167910389</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="2"/>
-        <v>289.42770402996115</v>
+        <v>118.52420265379749</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="3"/>
@@ -4390,27 +4380,27 @@
       </c>
       <c r="K27" s="10">
         <f t="shared" si="7"/>
-        <v>1762.8390595348271</v>
+        <v>2445.6768764620256</v>
       </c>
       <c r="L27" s="37">
         <f t="shared" si="9"/>
-        <v>1.0490483672574769E-2</v>
+        <v>14.701361468187242</v>
       </c>
       <c r="M27" s="33">
         <f t="shared" si="10"/>
-        <v>917.09387858335481</v>
+        <v>6.4453852730200031E-2</v>
       </c>
       <c r="N27" s="33">
         <f t="shared" si="11"/>
-        <v>917.10436906702739</v>
+        <v>14.765815320917442</v>
       </c>
       <c r="O27" s="34">
         <f t="shared" si="12"/>
-        <v>7250.6797017122472</v>
+        <v>408.96233219918861</v>
       </c>
       <c r="P27" s="39">
         <f t="shared" si="8"/>
-        <v>9.8903475944663111</v>
+        <v>2.1582039029931382E-3</v>
       </c>
       <c r="Q27" s="39"/>
     </row>
@@ -4421,28 +4411,28 @@
       <c r="C28" s="2">
         <v>120</v>
       </c>
-      <c r="D28" s="41">
-        <v>3.23890161514282</v>
+      <c r="D28" s="8">
+        <v>125.60300700000001</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="4"/>
-        <v>2726.6102543338393</v>
+        <v>1184.127233858871</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>223.3571878123638</v>
+        <v>118.81553533733509</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="13"/>
-        <v>16.434612540340044</v>
+        <v>-0.13427065048266229</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="6"/>
-        <v>223.3571878123638</v>
+        <v>118.81553533733509</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="2"/>
-        <v>272.66102543338394</v>
+        <v>118.41272338588711</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="3"/>
@@ -4450,27 +4440,27 @@
       </c>
       <c r="K28" s="10">
         <f t="shared" si="7"/>
-        <v>1953.1609892383922</v>
+        <v>2564.6380781411294</v>
       </c>
       <c r="L28" s="37">
         <f t="shared" si="9"/>
-        <v>1.0490483672574769E-2</v>
+        <v>15.776115367442051</v>
       </c>
       <c r="M28" s="33">
         <f t="shared" si="10"/>
-        <v>736.50716996425353</v>
+        <v>4.3023537686445193E-2</v>
       </c>
       <c r="N28" s="33">
         <f t="shared" si="11"/>
-        <v>736.51766044792612</v>
+        <v>15.819138905128495</v>
       </c>
       <c r="O28" s="34">
         <f t="shared" si="12"/>
-        <v>8167.7840707792748</v>
+        <v>423.72814752010606</v>
       </c>
       <c r="P28" s="39">
         <f t="shared" si="8"/>
-        <v>21.365416544960492</v>
+        <v>2.8059130742037887E-3</v>
       </c>
       <c r="Q28" s="39"/>
     </row>
@@ -4481,28 +4471,28 @@
       <c r="C29" s="2">
         <v>120</v>
       </c>
-      <c r="D29" s="41">
-        <v>3.23890161514282</v>
+      <c r="D29" s="8">
+        <v>120.210285</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="4"/>
-        <v>2506.4919681366182</v>
+        <v>1184.4190995215358</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>239.79180035270386</v>
+        <v>118.68126468685243</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="13"/>
-        <v>3.6191321536526573</v>
+        <v>-7.978491156628327E-2</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="6"/>
-        <v>239.79180035270386</v>
+        <v>118.68126468685243</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="2"/>
-        <v>250.64919681366183</v>
+        <v>118.44190995215358</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="3"/>
@@ -4510,27 +4500,27 @@
       </c>
       <c r="K29" s="10">
         <f t="shared" si="7"/>
-        <v>2176.5181770507561</v>
+        <v>2683.4536134784644</v>
       </c>
       <c r="L29" s="37">
         <f t="shared" si="9"/>
-        <v>1.0490483672574769E-2</v>
+        <v>14.450512619781225</v>
       </c>
       <c r="M29" s="33">
         <f t="shared" si="10"/>
-        <v>506.98789208058759</v>
+        <v>2.385489211726162E-2</v>
       </c>
       <c r="N29" s="33">
         <f t="shared" si="11"/>
-        <v>506.99838256426017</v>
+        <v>14.474367511898487</v>
       </c>
       <c r="O29" s="34">
         <f t="shared" si="12"/>
-        <v>8904.3017312272004</v>
+        <v>439.54728642523457</v>
       </c>
       <c r="P29" s="39">
         <f t="shared" si="8"/>
-        <v>28.700150863484119</v>
+        <v>3.4781256522848406E-3</v>
       </c>
       <c r="Q29" s="39"/>
     </row>
@@ -4541,28 +4531,28 @@
       <c r="C30" s="2">
         <v>120</v>
       </c>
-      <c r="D30" s="41">
-        <v>4.9605517387390101</v>
+      <c r="D30" s="8">
+        <v>118.79460899999999</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="4"/>
-        <v>2269.9390693990572</v>
+        <v>1190.0288688346834</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>243.41093250635652</v>
+        <v>118.60147977528615</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="13"/>
-        <v>-5.4723418554836014</v>
+        <v>0.13380236939406132</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="6"/>
-        <v>243.41093250635652</v>
+        <v>118.60147977528615</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="2"/>
-        <v>226.99390693990571</v>
+        <v>119.00288688346834</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="3"/>
@@ -4570,27 +4560,27 @@
       </c>
       <c r="K30" s="10">
         <f t="shared" si="7"/>
-        <v>2416.3099774034599</v>
+        <v>2802.1348781653169</v>
       </c>
       <c r="L30" s="37">
         <f t="shared" si="9"/>
-        <v>2.4607073552706617E-2</v>
+        <v>14.112159127462879</v>
       </c>
       <c r="M30" s="33">
         <f t="shared" si="10"/>
-        <v>294.43606688026688</v>
+        <v>9.1154095614935111E-3</v>
       </c>
       <c r="N30" s="33">
         <f t="shared" si="11"/>
-        <v>294.46067395381959</v>
+        <v>14.121274537024373</v>
       </c>
       <c r="O30" s="34">
         <f t="shared" si="12"/>
-        <v>9411.3001137914598</v>
+        <v>454.02165393713307</v>
       </c>
       <c r="P30" s="39">
         <f t="shared" si="8"/>
-        <v>30.46051652417697</v>
+        <v>3.9117176378673487E-3</v>
       </c>
       <c r="Q30" s="39"/>
     </row>
@@ -4601,28 +4591,28 @@
       <c r="C31" s="2">
         <v>120</v>
       </c>
-      <c r="D31" s="41">
-        <v>9.9868478775024396</v>
+      <c r="D31" s="8">
+        <v>122.119877</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="4"/>
-        <v>2029.7670385078436</v>
+        <v>1192.6765600593972</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>237.93859065087292</v>
+        <v>118.73528214468021</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="13"/>
-        <v>-11.653962266696189</v>
+        <v>0.17745795375316695</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="6"/>
-        <v>237.93859065087292</v>
+        <v>118.73528214468021</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="2"/>
-        <v>202.97670385078436</v>
+        <v>119.26765600593971</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="3"/>
@@ -4630,27 +4620,27 @@
       </c>
       <c r="K31" s="10">
         <f t="shared" si="7"/>
-        <v>2659.7209099098163</v>
+        <v>2920.7363579406028</v>
       </c>
       <c r="L31" s="37">
         <f t="shared" si="9"/>
-        <v>9.973713052837499E-2</v>
+        <v>14.91326435849513</v>
       </c>
       <c r="M31" s="33">
         <f t="shared" si="10"/>
-        <v>135.49040947634791</v>
+        <v>1.0844460333776797E-3</v>
       </c>
       <c r="N31" s="33">
         <f t="shared" si="11"/>
-        <v>135.59014660687629</v>
+        <v>14.914348804528508</v>
       </c>
       <c r="O31" s="34">
         <f t="shared" si="12"/>
-        <v>9705.7607877452792</v>
+        <v>468.14292847415743</v>
       </c>
       <c r="P31" s="39">
         <f t="shared" si="8"/>
-        <v>27.819022329428343</v>
+        <v>3.199022507129366E-3</v>
       </c>
       <c r="Q31" s="39"/>
     </row>
@@ -4661,28 +4651,28 @@
       <c r="C32" s="2">
         <v>120</v>
       </c>
-      <c r="D32" s="41">
-        <v>16.399755477905199</v>
+      <c r="D32" s="8">
+        <v>127.64285099999999</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="4"/>
-        <v>1795.0673494721136</v>
+        <v>1199.5442849147169</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>226.28462838417673</v>
+        <v>118.91274009843337</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="13"/>
-        <v>-15.592631145655124</v>
+        <v>0.34722946434610452</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="6"/>
-        <v>226.28462838417673</v>
+        <v>118.91274009843337</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="2"/>
-        <v>179.50673494721136</v>
+        <v>119.95442849147169</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="3"/>
@@ -4690,27 +4680,27 @@
       </c>
       <c r="K32" s="10">
         <f t="shared" si="7"/>
-        <v>2897.6595005606891</v>
+        <v>3039.4716400852831</v>
       </c>
       <c r="L32" s="37">
         <f t="shared" si="9"/>
-        <v>0.26895197973508156</v>
+        <v>16.292697411408199</v>
       </c>
       <c r="M32" s="33">
         <f t="shared" si="10"/>
-        <v>40.521635561264915</v>
+        <v>5.5832839895936259E-4</v>
       </c>
       <c r="N32" s="33">
         <f t="shared" si="11"/>
-        <v>40.790587540999994</v>
+        <v>16.293255739807158</v>
       </c>
       <c r="O32" s="34">
         <f t="shared" si="12"/>
-        <v>9841.3509343521564</v>
+        <v>483.05727727868594</v>
       </c>
       <c r="P32" s="39">
         <f t="shared" si="8"/>
-        <v>22.592844461525093</v>
+        <v>2.3642681871093355E-3</v>
       </c>
       <c r="Q32" s="39"/>
     </row>
@@ -4721,28 +4711,28 @@
       <c r="C33" s="2">
         <v>120</v>
       </c>
-      <c r="D33" s="41">
-        <v>24.5699138641357</v>
+      <c r="D33" s="8">
+        <v>126.831763</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="4"/>
-        <v>1572.0216227030796</v>
+        <v>1200.8418298162833</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>210.69199723852159</v>
+        <v>119.25996956277947</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="13"/>
-        <v>-17.829944989404549</v>
+        <v>0.27473780628295214</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="6"/>
-        <v>210.69199723852159</v>
+        <v>119.25996956277947</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="2"/>
-        <v>157.20216227030795</v>
+        <v>120.08418298162833</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="3"/>
@@ -4750,27 +4740,27 @@
       </c>
       <c r="K33" s="10">
         <f t="shared" si="7"/>
-        <v>3123.944128944866</v>
+        <v>3158.3843801837165</v>
       </c>
       <c r="L33" s="37">
         <f t="shared" si="9"/>
-        <v>0.60368066729104775</v>
+        <v>16.08629610568817</v>
       </c>
       <c r="M33" s="33">
         <f t="shared" si="10"/>
-        <v>2.6000516750889067</v>
+        <v>5.2204547815356654E-3</v>
       </c>
       <c r="N33" s="33">
         <f t="shared" si="11"/>
-        <v>3.2037323423799542</v>
+        <v>16.091516560469707</v>
       </c>
       <c r="O33" s="34">
         <f t="shared" si="12"/>
-        <v>9882.1415218931561</v>
+        <v>499.35053301849308</v>
       </c>
       <c r="P33" s="39">
         <f t="shared" si="8"/>
-        <v>16.450076726224015</v>
+        <v>1.0952900960256044E-3</v>
       </c>
       <c r="Q33" s="39"/>
     </row>
@@ -4781,28 +4771,28 @@
       <c r="C34" s="2">
         <v>120</v>
       </c>
-      <c r="D34" s="41">
-        <v>35.96675491333</v>
+      <c r="D34" s="8">
+        <v>128.09689900000001</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="4"/>
-        <v>1366.2901772032969</v>
+        <v>1200.3764692535037</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>192.86205224911706</v>
+        <v>119.53470736906243</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="13"/>
-        <v>-18.74434484292912</v>
+        <v>0.16764651876264716</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="6"/>
-        <v>192.86205224911706</v>
+        <v>119.53470736906243</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="2"/>
-        <v>136.6290177203297</v>
+        <v>120.03764692535037</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="3"/>
@@ -4810,27 +4800,27 @@
       </c>
       <c r="K34" s="10">
         <f t="shared" si="7"/>
-        <v>3334.6361261833877</v>
+        <v>3277.6443497464961</v>
       </c>
       <c r="L34" s="37">
         <f t="shared" si="9"/>
-        <v>1.2936074589955477</v>
+        <v>16.408815533416202</v>
       </c>
       <c r="M34" s="33">
         <f t="shared" si="10"/>
-        <v>5.9702125686541176</v>
+        <v>1.1098176233665803E-2</v>
       </c>
       <c r="N34" s="33">
         <f t="shared" si="11"/>
-        <v>7.2638200276496656</v>
+        <v>16.419913709649869</v>
       </c>
       <c r="O34" s="34">
         <f t="shared" si="12"/>
-        <v>9885.3452542355353</v>
+        <v>515.44204957896284</v>
       </c>
       <c r="P34" s="39">
         <f t="shared" si="8"/>
-        <v>10.617757315906129</v>
+        <v>4.3299446480960896E-4</v>
       </c>
       <c r="Q34" s="39"/>
     </row>
@@ -4841,28 +4831,28 @@
       <c r="C35" s="2">
         <v>120</v>
       </c>
-      <c r="D35" s="41">
-        <v>53.024024963378899</v>
+      <c r="D35" s="8">
+        <v>124.572547</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="4"/>
-        <v>1183.4149728316822</v>
+        <v>1202.9616388844413</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>174.11770740618795</v>
+        <v>119.70235388782508</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="13"/>
-        <v>-18.592070041006576</v>
+        <v>0.19793666687301462</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="6"/>
-        <v>174.11770740618795</v>
+        <v>119.70235388782508</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="2"/>
-        <v>118.34149728316822</v>
+        <v>120.29616388844413</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="3"/>
@@ -4870,27 +4860,27 @@
       </c>
       <c r="K35" s="10">
         <f t="shared" si="7"/>
-        <v>3527.4981784325046</v>
+        <v>3397.1790571155584</v>
       </c>
       <c r="L35" s="37">
         <f t="shared" si="9"/>
-        <v>2.8115472233170284</v>
+        <v>15.51831946606721</v>
       </c>
       <c r="M35" s="33">
         <f t="shared" si="10"/>
-        <v>32.511571007213547</v>
+        <v>1.5915437514563303E-2</v>
       </c>
       <c r="N35" s="33">
         <f t="shared" si="11"/>
-        <v>35.323118230530575</v>
+        <v>15.534234903581773</v>
       </c>
       <c r="O35" s="34">
         <f t="shared" si="12"/>
-        <v>9892.6090742631841</v>
+        <v>531.86196328861274</v>
       </c>
       <c r="P35" s="39">
         <f t="shared" si="8"/>
-        <v>5.8574525098035393</v>
+        <v>1.7718641618568625E-4</v>
       </c>
       <c r="Q35" s="39"/>
     </row>
@@ -4901,28 +4891,28 @@
       <c r="C36" s="2">
         <v>120</v>
       </c>
-      <c r="D36" s="41">
-        <v>78.592033386230398</v>
+      <c r="D36" s="8">
+        <v>129.667383</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="4"/>
-        <v>1025.6970209033996</v>
+        <v>1210.9021359966164</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>155.52563736518138</v>
+        <v>119.9002905546981</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="13"/>
-        <v>-17.651978424947142</v>
+        <v>0.39664101498784515</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="6"/>
-        <v>155.52563736518138</v>
+        <v>119.9002905546981</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="2"/>
-        <v>102.56970209033996</v>
+        <v>121.09021359966164</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="3"/>
@@ -4930,27 +4920,27 @@
       </c>
       <c r="K36" s="10">
         <f t="shared" si="7"/>
-        <v>3701.6158858386925</v>
+        <v>3516.8814110033836</v>
       </c>
       <c r="L36" s="37">
         <f t="shared" si="9"/>
-        <v>6.1767077117823534</v>
+        <v>16.813630214068688</v>
       </c>
       <c r="M36" s="33">
         <f>$K$2*(J36-K36)^2</f>
-        <v>65.96865997794599</v>
+        <v>1.9451194659633537E-2</v>
       </c>
       <c r="N36" s="33">
         <f t="shared" si="11"/>
-        <v>72.145367689728346</v>
+        <v>16.833081408728322</v>
       </c>
       <c r="O36" s="34">
         <f t="shared" si="12"/>
-        <v>9927.932192493714</v>
+        <v>547.39619819219456</v>
       </c>
       <c r="P36" s="39">
         <f t="shared" si="8"/>
-        <v>2.524141820404743</v>
+        <v>1.9883946964824141E-5</v>
       </c>
       <c r="Q36" s="39"/>
     </row>
@@ -4961,28 +4951,28 @@
       <c r="C37" s="2">
         <v>120</v>
       </c>
-      <c r="D37" s="41">
-        <v>116.052864074707</v>
+      <c r="D37" s="8">
+        <v>123.09179</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="4"/>
-        <v>894.74129740235389</v>
+        <v>1217.8336084419182</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>137.87365894023424</v>
+        <v>120.29693156968595</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="13"/>
-        <v>-16.133176399999616</v>
+        <v>0.49547642483528875</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="6"/>
-        <v>137.87365894023424</v>
+        <v>120.29693156968595</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="2"/>
-        <v>89.474129740235384</v>
+        <v>121.78336084419182</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="3"/>
@@ -4990,27 +4980,27 @@
       </c>
       <c r="K37" s="10">
         <f t="shared" si="7"/>
-        <v>3857.1415232038739</v>
+        <v>3636.7817015580817</v>
       </c>
       <c r="L37" s="37">
         <f t="shared" si="9"/>
-        <v>13.468267259942419</v>
+        <v>15.151588765404101</v>
       </c>
       <c r="M37" s="33">
         <f t="shared" si="10"/>
-        <v>94.300882198597051</v>
+        <v>2.0714889722506874E-2</v>
       </c>
       <c r="N37" s="33">
         <f t="shared" si="11"/>
-        <v>107.76914945853947</v>
+        <v>15.172303655126608</v>
       </c>
       <c r="O37" s="34">
         <f t="shared" si="12"/>
-        <v>10000.077560183443</v>
+        <v>564.22927960092284</v>
       </c>
       <c r="P37" s="39">
         <f t="shared" si="8"/>
-        <v>0.63893536782363047</v>
+        <v>1.7633671415232731E-4</v>
       </c>
       <c r="Q37" s="39"/>
     </row>
@@ -5021,28 +5011,28 @@
       <c r="C38" s="2">
         <v>120</v>
       </c>
-      <c r="D38" s="41">
-        <v>154.78477478027301</v>
+      <c r="D38" s="8">
+        <v>118.535635</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="4"/>
-        <v>792.83439337544962</v>
+        <v>1225.6335758722321</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>121.74048254023462</v>
+        <v>120.79240799452124</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="13"/>
-        <v>-14.152347734229886</v>
+        <v>0.59031653090065583</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="6"/>
-        <v>121.74048254023462</v>
+        <v>120.79240799452124</v>
       </c>
       <c r="I38" s="23">
         <f t="shared" si="2"/>
-        <v>79.283439337544962</v>
+        <v>122.56335758722321</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="3"/>
@@ -5050,27 +5040,27 @@
       </c>
       <c r="K38" s="10">
         <f t="shared" si="7"/>
-        <v>3995.0151821441082</v>
+        <v>3757.0786331277677</v>
       </c>
       <c r="L38" s="37">
         <f t="shared" si="9"/>
-        <v>23.958326503779841</v>
+        <v>14.050696764853225</v>
       </c>
       <c r="M38" s="33">
         <f t="shared" si="10"/>
-        <v>110.46427167645668</v>
+        <v>1.7068768804352475E-2</v>
       </c>
       <c r="N38" s="33">
         <f t="shared" si="11"/>
-        <v>134.42259818023652</v>
+        <v>14.067765533657576</v>
       </c>
       <c r="O38" s="34">
         <f t="shared" si="12"/>
-        <v>10107.846709641983</v>
+        <v>579.40158325604943</v>
       </c>
       <c r="P38" s="39">
         <f t="shared" si="8"/>
-        <v>6.0585589457231338E-3</v>
+        <v>1.2558208595623511E-3</v>
       </c>
       <c r="Q38" s="39"/>
     </row>
@@ -5081,28 +5071,28 @@
       <c r="C39" s="2">
         <v>120</v>
       </c>
-      <c r="D39" s="41">
-        <v>174.75248718261699</v>
+      <c r="D39" s="8">
+        <v>105.193628</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="4"/>
-        <v>724.11793579859386</v>
+        <v>1229.4137148777108</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>107.58813480600473</v>
+        <v>121.38272452542189</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="13"/>
-        <v>-11.72544707538178</v>
+        <v>0.51954898744972888</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="6"/>
-        <v>107.58813480600473</v>
+        <v>121.38272452542189</v>
       </c>
       <c r="I39" s="23">
         <f t="shared" si="2"/>
-        <v>72.411793579859392</v>
+        <v>122.94137148777108</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="3"/>
@@ -5110,27 +5100,27 @@
       </c>
       <c r="K39" s="10">
         <f t="shared" si="7"/>
-        <v>4116.7556646843432</v>
+        <v>3877.8710411222892</v>
       </c>
       <c r="L39" s="37">
         <f t="shared" si="9"/>
-        <v>30.538431776510716</v>
+        <v>11.065699371802385</v>
       </c>
       <c r="M39" s="33">
         <f t="shared" si="10"/>
-        <v>112.10648952025028</v>
+        <v>9.064931805967508E-3</v>
       </c>
       <c r="N39" s="33">
         <f t="shared" si="11"/>
-        <v>142.644921296761</v>
+        <v>11.074764303608353</v>
       </c>
       <c r="O39" s="34">
         <f t="shared" si="12"/>
-        <v>10242.26930782222</v>
+        <v>593.46934878970706</v>
       </c>
       <c r="P39" s="39">
         <f t="shared" si="8"/>
-        <v>0.30810879518782242</v>
+        <v>3.8238542264063943E-3</v>
       </c>
       <c r="Q39" s="39"/>
     </row>
@@ -5141,28 +5131,28 @@
       <c r="C40" s="2">
         <v>120</v>
       </c>
-      <c r="D40" s="41">
-        <v>200.77067565917901</v>
+      <c r="D40" s="8">
+        <v>94.023910999999998</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="4"/>
-        <v>695.12183437881947</v>
+        <v>1237.6983733522889</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>95.862687730622952</v>
+        <v>121.90227351287162</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="13"/>
-        <v>-8.7835014309136685</v>
+        <v>0.62252127411908964</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="6"/>
-        <v>95.862687730622952</v>
+        <v>121.90227351287162</v>
       </c>
       <c r="I40" s="23">
         <f t="shared" si="2"/>
-        <v>69.512183437881944</v>
+        <v>123.76983733522889</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="3"/>
@@ -5170,27 +5160,27 @@
       </c>
       <c r="K40" s="10">
         <f t="shared" si="7"/>
-        <v>4224.3437994903479</v>
+        <v>3999.2537656477111</v>
       </c>
       <c r="L40" s="37">
         <f t="shared" si="9"/>
-        <v>40.30886420464325</v>
+        <v>8.8404958397359206</v>
       </c>
       <c r="M40" s="33">
         <f t="shared" si="10"/>
-        <v>100.66028073953086</v>
+        <v>1.1137314170719666E-3</v>
       </c>
       <c r="N40" s="33">
         <f t="shared" si="11"/>
-        <v>140.9691449441741</v>
+        <v>8.8416095711529934</v>
       </c>
       <c r="O40" s="34">
         <f t="shared" si="12"/>
-        <v>10384.914229118982</v>
+        <v>604.54411309331545</v>
       </c>
       <c r="P40" s="39">
         <f t="shared" si="8"/>
-        <v>1.1652196871788396</v>
+        <v>7.2372890355458398E-3</v>
       </c>
       <c r="Q40" s="39"/>
     </row>
@@ -5201,28 +5191,28 @@
       <c r="C41" s="2">
         <v>120</v>
       </c>
-      <c r="D41" s="41">
-        <v>226.31947326660099</v>
+      <c r="D41" s="8">
+        <v>84.703581</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="4"/>
-        <v>715.31201072290355</v>
+        <v>1238.8878898394171</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>87.079186299709278</v>
+        <v>122.52479478699071</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="13"/>
-        <v>-5.1826617424729733</v>
+        <v>0.45466473231699922</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="6"/>
-        <v>87.079186299709278</v>
+        <v>122.52479478699071</v>
       </c>
       <c r="I41" s="23">
         <f t="shared" si="2"/>
-        <v>71.531201072290358</v>
+        <v>123.88878898394171</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="3"/>
@@ -5230,27 +5220,27 @@
       </c>
       <c r="K41" s="10">
         <f t="shared" si="7"/>
-        <v>4320.2064872209712</v>
+        <v>4121.1560391605826</v>
       </c>
       <c r="L41" s="37">
         <f t="shared" si="9"/>
-        <v>51.220503979671726</v>
+        <v>7.1746966342235607</v>
       </c>
       <c r="M41" s="33">
         <f t="shared" si="10"/>
-        <v>80.165275050721817</v>
+        <v>2.6728530816011492E-3</v>
       </c>
       <c r="N41" s="33">
         <f t="shared" si="11"/>
-        <v>131.38577903039354</v>
+        <v>7.1773694873051621</v>
       </c>
       <c r="O41" s="34">
         <f t="shared" si="12"/>
-        <v>10525.883374063156</v>
+        <v>613.3857226644684</v>
       </c>
       <c r="P41" s="39">
         <f t="shared" si="8"/>
-        <v>2.1675599493784987</v>
+        <v>1.2749177432830936E-2</v>
       </c>
       <c r="Q41" s="39"/>
     </row>
@@ -5261,28 +5251,28 @@
       <c r="C42" s="3">
         <v>120</v>
       </c>
-      <c r="D42" s="41">
-        <v>241.75305175781199</v>
+      <c r="D42" s="8">
+        <v>58.941260999999997</v>
       </c>
       <c r="E42" s="7">
         <f>E41+D38-H41</f>
-        <v>783.01759920346728</v>
+        <v>1234.8987300524263</v>
       </c>
       <c r="F42" s="7">
         <f>F41+G41</f>
-        <v>81.896524557236305</v>
+        <v>122.97945951930771</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="13"/>
-        <v>-1.198254878963193</v>
+        <v>0.17013782864497293</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="6"/>
-        <v>81.896524557236305</v>
+        <v>122.97945951930771</v>
       </c>
       <c r="I42" s="23">
         <f t="shared" si="2"/>
-        <v>78.301759920346726</v>
+        <v>123.48987300524263</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="3"/>
@@ -5290,27 +5280,27 @@
       </c>
       <c r="K42" s="10">
         <f t="shared" si="7"/>
-        <v>4407.2856735206806</v>
+        <v>4243.6808339475738</v>
       </c>
       <c r="L42" s="37">
         <f t="shared" si="9"/>
-        <v>58.44453803421532</v>
+        <v>3.474072248270121</v>
       </c>
       <c r="M42" s="34">
         <f>$K$2*(J42-K42)^2</f>
-        <v>55.968993130535466</v>
+        <v>2.7097077099223064E-2</v>
       </c>
       <c r="N42" s="33">
         <f t="shared" si="11"/>
-        <v>114.41353116475079</v>
+        <v>3.5011693253693439</v>
       </c>
       <c r="O42" s="34">
         <f>N41+O41</f>
-        <v>10657.26915309355</v>
+        <v>620.56309215177362</v>
       </c>
       <c r="P42" s="39">
         <f t="shared" si="8"/>
-        <v>2.9037496816345922</v>
+        <v>1.775435805438666E-2</v>
       </c>
       <c r="Q42" s="39"/>
     </row>
@@ -5322,28 +5312,28 @@
       <c r="C43" s="14">
         <v>120</v>
       </c>
-      <c r="D43" s="41">
-        <v>242.60469055175699</v>
+      <c r="D43" s="8">
+        <v>48.466368000000003</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" ref="E43:E50" si="15">E42+D39-H42</f>
-        <v>875.87356182884798</v>
+        <v>1217.1128985331186</v>
       </c>
       <c r="F43" s="21">
         <f t="shared" ref="F43:F50" si="16">F42+G42</f>
-        <v>80.698269678273107</v>
+        <v>123.14959734795268</v>
       </c>
       <c r="G43" s="21">
         <f t="shared" ref="G43:G50" si="17">(I43-F43)/$G$2</f>
-        <v>2.296362168203899</v>
+        <v>-0.47943583154694142</v>
       </c>
       <c r="H43" s="21">
         <f t="shared" ref="H43:H50" si="18">F43</f>
-        <v>80.698269678273107</v>
+        <v>123.14959734795268</v>
       </c>
       <c r="I43" s="26">
         <f t="shared" ref="I43:I50" si="19">E43/$I$2</f>
-        <v>87.587356182884804</v>
+        <v>121.71128985331185</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" ref="J43:J50" si="20">J42+C42</f>
@@ -5351,27 +5341,27 @@
       </c>
       <c r="K43" s="15">
         <f t="shared" ref="K43:K50" si="21">K42+H42</f>
-        <v>4489.1821980779168</v>
+        <v>4366.6602934668817</v>
       </c>
       <c r="L43" s="38">
         <f t="shared" ref="L43:L50" si="22">(D43^2)*$M$2</f>
-        <v>58.85703587771377</v>
+        <v>2.3489888271114241</v>
       </c>
       <c r="M43" s="35">
         <f t="shared" ref="M43:M50" si="23">$K$2*(J43-K43)^2</f>
-        <v>33.376080600484279</v>
+        <v>8.8719018129975166E-2</v>
       </c>
       <c r="N43" s="35">
         <f t="shared" ref="N43:N50" si="24">L43+M43</f>
-        <v>92.233116478198042</v>
+        <v>2.4377078452413992</v>
       </c>
       <c r="O43" s="31">
         <f t="shared" ref="O43:O50" si="25">N42+O42</f>
-        <v>10771.682684258301</v>
+        <v>624.06426147714296</v>
       </c>
       <c r="P43" s="39">
         <f t="shared" si="8"/>
-        <v>3.0892520125634944</v>
+        <v>1.9839926908461088E-2</v>
       </c>
       <c r="Q43" s="39"/>
     </row>
@@ -5383,28 +5373,28 @@
       <c r="C44" s="14">
         <v>120</v>
       </c>
-      <c r="D44" s="41">
-        <v>234.89529418945301</v>
+      <c r="D44" s="8">
+        <v>25.639907999999998</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="15"/>
-        <v>995.94596780975394</v>
+        <v>1187.9872121851658</v>
       </c>
       <c r="F44" s="21">
         <f t="shared" si="16"/>
-        <v>82.994631846477006</v>
+        <v>122.67016151640574</v>
       </c>
       <c r="G44" s="21">
         <f t="shared" si="17"/>
-        <v>5.533321644832796</v>
+        <v>-1.2904800992963839</v>
       </c>
       <c r="H44" s="21">
         <f t="shared" si="18"/>
-        <v>82.994631846477006</v>
+        <v>122.67016151640574</v>
       </c>
       <c r="I44" s="26">
         <f t="shared" si="19"/>
-        <v>99.594596780975394</v>
+        <v>118.79872121851659</v>
       </c>
       <c r="J44" s="21">
         <f t="shared" si="20"/>
@@ -5412,27 +5402,27 @@
       </c>
       <c r="K44" s="15">
         <f>K43+H43</f>
-        <v>4569.8804677561902</v>
+        <v>4489.809890814834</v>
       </c>
       <c r="L44" s="38">
         <f t="shared" si="22"/>
-        <v>55.175799232349682</v>
+        <v>0.65740488224846394</v>
       </c>
       <c r="M44" s="31">
         <f t="shared" si="23"/>
-        <v>16.156996968143105</v>
+        <v>0.19246791559793031</v>
       </c>
       <c r="N44" s="35">
         <f t="shared" si="24"/>
-        <v>71.332796200492794</v>
+        <v>0.84987279784639425</v>
       </c>
       <c r="O44" s="31">
         <f t="shared" si="25"/>
-        <v>10863.915800736499</v>
+        <v>626.50196932238441</v>
       </c>
       <c r="P44" s="39">
         <f t="shared" si="8"/>
-        <v>2.7387945443555477</v>
+        <v>1.4259525047388418E-2</v>
       </c>
       <c r="Q44" s="39"/>
     </row>
@@ -5444,28 +5434,28 @@
       <c r="C45" s="14">
         <v>120</v>
       </c>
-      <c r="D45" s="41">
-        <v>163.90579223632801</v>
+      <c r="D45" s="8">
+        <v>11.491186000000001</v>
       </c>
       <c r="E45" s="21">
         <f t="shared" si="15"/>
-        <v>1139.2708092298778</v>
+        <v>1150.0206316687602</v>
       </c>
       <c r="F45" s="21">
         <f t="shared" si="16"/>
-        <v>88.527953491309802</v>
+        <v>121.37968141710935</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="17"/>
-        <v>8.4663758105593274</v>
+        <v>-2.1258727500777801</v>
       </c>
       <c r="H45" s="21">
         <f t="shared" si="18"/>
-        <v>88.527953491309802</v>
+        <v>121.37968141710935</v>
       </c>
       <c r="I45" s="26">
         <f t="shared" si="19"/>
-        <v>113.92708092298778</v>
+        <v>115.00206316687601</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="20"/>
@@ -5473,27 +5463,27 @@
       </c>
       <c r="K45" s="15">
         <f t="shared" si="21"/>
-        <v>4652.8750996026674</v>
+        <v>4612.4800523312397</v>
       </c>
       <c r="L45" s="38">
         <f t="shared" si="22"/>
-        <v>26.865108728618324</v>
+        <v>0.13204735568659601</v>
       </c>
       <c r="M45" s="35">
         <f t="shared" si="23"/>
-        <v>5.5915523159840035</v>
+        <v>0.3115034123809618</v>
       </c>
       <c r="N45" s="35">
         <f t="shared" si="24"/>
-        <v>32.456661044602328</v>
+        <v>0.44355076806755778</v>
       </c>
       <c r="O45" s="31">
         <f t="shared" si="25"/>
-        <v>10935.248596936992</v>
+        <v>627.3518421202308</v>
       </c>
       <c r="P45" s="39">
         <f t="shared" si="8"/>
-        <v>1.9809794228903179</v>
+        <v>3.8070416254337453E-3</v>
       </c>
       <c r="Q45" s="39"/>
     </row>
@@ -5505,28 +5495,28 @@
       <c r="C46" s="14">
         <v>120</v>
       </c>
-      <c r="D46" s="41">
-        <v>87.643875122070298</v>
+      <c r="D46" s="8">
+        <v>14.059443</v>
       </c>
       <c r="E46" s="21">
         <f t="shared" si="15"/>
-        <v>1292.4959074963801</v>
+        <v>1087.5822112516507</v>
       </c>
       <c r="F46" s="21">
         <f t="shared" si="16"/>
-        <v>96.994329301869129</v>
+        <v>119.25380866703158</v>
       </c>
       <c r="G46" s="21">
         <f t="shared" si="17"/>
-        <v>10.751753815922958</v>
+        <v>-3.4985291806221661</v>
       </c>
       <c r="H46" s="21">
         <f t="shared" si="18"/>
-        <v>96.994329301869129</v>
+        <v>119.25380866703158</v>
       </c>
       <c r="I46" s="26">
         <f t="shared" si="19"/>
-        <v>129.249590749638</v>
+        <v>108.75822112516508</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" si="20"/>
@@ -5534,27 +5524,27 @@
       </c>
       <c r="K46" s="15">
         <f t="shared" si="21"/>
-        <v>4741.4030530939772</v>
+        <v>4733.8597337483488</v>
       </c>
       <c r="L46" s="38">
         <f t="shared" si="22"/>
-        <v>7.681448846413053</v>
+        <v>0.19766793747024899</v>
       </c>
       <c r="M46" s="31">
         <f t="shared" si="23"/>
-        <v>0.91618136348721213</v>
+        <v>0.38418443915023981</v>
       </c>
       <c r="N46" s="35">
         <f t="shared" si="24"/>
-        <v>8.5976302099002648</v>
+        <v>0.58185237662048883</v>
       </c>
       <c r="O46" s="31">
         <f t="shared" si="25"/>
-        <v>10967.705257981594</v>
+        <v>627.79539288829835</v>
       </c>
       <c r="P46" s="39">
         <f t="shared" si="8"/>
-        <v>1.0585217685416746</v>
+        <v>1.1136030107943816E-3</v>
       </c>
       <c r="Q46" s="39"/>
     </row>
@@ -5566,28 +5556,28 @@
       <c r="C47" s="14">
         <v>120</v>
       </c>
-      <c r="D47" s="41">
-        <v>37.030963897705</v>
+      <c r="D47" s="8">
+        <v>9.0803580000000004</v>
       </c>
       <c r="E47" s="21">
         <f t="shared" si="15"/>
-        <v>1438.1062687462679</v>
+        <v>1016.7947705846193</v>
       </c>
       <c r="F47" s="21">
         <f t="shared" si="16"/>
-        <v>107.74608311779208</v>
+        <v>115.75527948640941</v>
       </c>
       <c r="G47" s="21">
         <f t="shared" si="17"/>
-        <v>12.02151458561157</v>
+        <v>-4.6919341426491599</v>
       </c>
       <c r="H47" s="21">
         <f t="shared" si="18"/>
-        <v>107.74608311779208</v>
+        <v>115.75527948640941</v>
       </c>
       <c r="I47" s="26">
         <f t="shared" si="19"/>
-        <v>143.81062687462679</v>
+        <v>101.67947705846193</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" si="20"/>
@@ -5595,27 +5585,27 @@
       </c>
       <c r="K47" s="15">
         <f t="shared" si="21"/>
-        <v>4838.3973823958459</v>
+        <v>4853.1135424153808</v>
       </c>
       <c r="L47" s="38">
         <f t="shared" si="22"/>
-        <v>1.3712922871931312</v>
+        <v>8.2452901408164012E-2</v>
       </c>
       <c r="M47" s="35">
         <f t="shared" si="23"/>
-        <v>5.1367663702895595E-3</v>
+        <v>0.34392998935998442</v>
       </c>
       <c r="N47" s="35">
         <f t="shared" si="24"/>
-        <v>1.3764290535634207</v>
+        <v>0.42638289076814845</v>
       </c>
       <c r="O47" s="31">
         <f t="shared" si="25"/>
-        <v>10976.302888191494</v>
+        <v>628.37724526491888</v>
       </c>
       <c r="P47" s="39">
         <f t="shared" si="8"/>
-        <v>0.30031695791212043</v>
+        <v>3.6035304476993581E-2</v>
       </c>
       <c r="Q47" s="39"/>
     </row>
@@ -5627,28 +5617,28 @@
       <c r="C48" s="14">
         <v>120</v>
       </c>
-      <c r="D48" s="41">
-        <v>17.8259468078613</v>
+      <c r="D48" s="8">
+        <v>9.4616699999999998</v>
       </c>
       <c r="E48" s="21">
         <f t="shared" si="15"/>
-        <v>1565.2554798179287</v>
+        <v>926.67939909820996</v>
       </c>
       <c r="F48" s="21">
         <f t="shared" si="16"/>
-        <v>119.76759770340365</v>
+        <v>111.06334534376025</v>
       </c>
       <c r="G48" s="21">
         <f t="shared" si="17"/>
-        <v>12.252650092796406</v>
+        <v>-6.1318018113130819</v>
       </c>
       <c r="H48" s="21">
         <f t="shared" si="18"/>
-        <v>119.76759770340365</v>
+        <v>111.06334534376025</v>
       </c>
       <c r="I48" s="26">
         <f t="shared" si="19"/>
-        <v>156.52554798179287</v>
+        <v>92.667939909821001</v>
       </c>
       <c r="J48" s="14">
         <f t="shared" si="20"/>
@@ -5656,27 +5646,27 @@
       </c>
       <c r="K48" s="15">
         <f t="shared" si="21"/>
-        <v>4946.1434655136381</v>
+        <v>4968.8688219017904</v>
       </c>
       <c r="L48" s="38">
         <f t="shared" si="22"/>
-        <v>0.31776437959670045</v>
+        <v>8.9523199188899991E-2</v>
       </c>
       <c r="M48" s="31">
         <f t="shared" si="23"/>
-        <v>0.38400709594347066</v>
+        <v>0.1573120038513541</v>
       </c>
       <c r="N48" s="35">
         <f t="shared" si="24"/>
-        <v>0.70177147554017116</v>
+        <v>0.24683520304025408</v>
       </c>
       <c r="O48" s="31">
         <f t="shared" si="25"/>
-        <v>10977.679317245058</v>
+        <v>628.80362815568708</v>
       </c>
       <c r="P48" s="39">
         <f t="shared" si="8"/>
-        <v>1.0802165492651374E-4</v>
+        <v>0.15972759288978333</v>
       </c>
       <c r="Q48" s="39"/>
     </row>
@@ -5688,28 +5678,28 @@
       <c r="C49" s="14">
         <v>120</v>
       </c>
-      <c r="D49" s="41">
-        <v>10.9852705001831</v>
+      <c r="D49" s="8">
+        <v>8.4387889999999999</v>
       </c>
       <c r="E49" s="21">
         <f t="shared" si="15"/>
-        <v>1609.393674350853</v>
+        <v>827.10723975444967</v>
       </c>
       <c r="F49" s="21">
         <f t="shared" si="16"/>
-        <v>132.02024779620007</v>
+        <v>104.93154353244717</v>
       </c>
       <c r="G49" s="21">
         <f t="shared" si="17"/>
-        <v>9.6397065462950788</v>
+        <v>-7.4069398523340668</v>
       </c>
       <c r="H49" s="21">
         <f t="shared" si="18"/>
-        <v>132.02024779620007</v>
+        <v>104.93154353244717</v>
       </c>
       <c r="I49" s="26">
         <f t="shared" si="19"/>
-        <v>160.9393674350853</v>
+        <v>82.710723975444964</v>
       </c>
       <c r="J49" s="14">
         <f>J48+C48</f>
@@ -5717,27 +5707,27 @@
       </c>
       <c r="K49" s="15">
         <f t="shared" si="21"/>
-        <v>5065.9110632170414</v>
+        <v>5079.9321672455508</v>
       </c>
       <c r="L49" s="38">
         <f t="shared" si="22"/>
-        <v>0.12067616796219306</v>
+        <v>7.1213159786520999E-2</v>
       </c>
       <c r="M49" s="35">
         <f t="shared" si="23"/>
-        <v>0.39699627934840914</v>
+        <v>9.2025651523384282E-6</v>
       </c>
       <c r="N49" s="35">
         <f t="shared" si="24"/>
-        <v>0.51767244731060225</v>
+        <v>7.1222362351673341E-2</v>
       </c>
       <c r="O49" s="31">
         <f t="shared" si="25"/>
-        <v>10978.381088720598</v>
+        <v>629.05046335872737</v>
       </c>
       <c r="P49" s="39">
         <f t="shared" si="8"/>
-        <v>0.28897271416410514</v>
+        <v>0.45411676062906975</v>
       </c>
       <c r="Q49" s="39"/>
     </row>
@@ -5749,28 +5739,28 @@
       <c r="C50" s="14">
         <v>120</v>
       </c>
-      <c r="D50" s="41">
-        <v>9.2381839752197195</v>
+      <c r="D50" s="8">
+        <v>9.2370800000000006</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="15"/>
-        <v>1565.0173016767233</v>
+        <v>736.23513922200254</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="16"/>
-        <v>141.65995434249515</v>
+        <v>97.524603680113103</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="17"/>
-        <v>4.9472586083923886</v>
+        <v>-7.9670299193042808</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="18"/>
-        <v>141.65995434249515</v>
+        <v>97.524603680113103</v>
       </c>
       <c r="I50" s="26">
         <f t="shared" si="19"/>
-        <v>156.50173016767232</v>
+        <v>73.62351392220026</v>
       </c>
       <c r="J50" s="14">
         <f t="shared" si="20"/>
@@ -5778,27 +5768,27 @@
       </c>
       <c r="K50" s="15">
         <f t="shared" si="21"/>
-        <v>5197.9313110132416</v>
+        <v>5184.8637107779978</v>
       </c>
       <c r="L50" s="38">
         <f t="shared" si="22"/>
-        <v>8.5344043160006419E-2</v>
+        <v>8.5323646926400015E-2</v>
       </c>
       <c r="M50" s="31">
         <f t="shared" si="23"/>
-        <v>8.5589482478708977E-3</v>
+        <v>0.45821450282420195</v>
       </c>
       <c r="N50" s="35">
         <f t="shared" si="24"/>
-        <v>9.390299140787732E-2</v>
+        <v>0.543538149750602</v>
       </c>
       <c r="O50" s="31">
         <f t="shared" si="25"/>
-        <v>10978.898761167909</v>
+        <v>629.12168572107907</v>
       </c>
       <c r="P50" s="39">
         <f t="shared" si="8"/>
-        <v>0.93830724423794953</v>
+        <v>1.010286879471971</v>
       </c>
       <c r="Q50" s="39"/>
     </row>
@@ -5810,28 +5800,28 @@
       <c r="C51" s="14">
         <v>120</v>
       </c>
-      <c r="D51" s="41">
-        <v>10.8449754714965</v>
+      <c r="D51" s="8">
+        <v>12.557095</v>
       </c>
       <c r="E51" s="21">
         <f t="shared" ref="E51:E53" si="26">E50+D47-H50</f>
-        <v>1460.3883112319331</v>
+        <v>647.79089354188955</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" ref="F51:F53" si="27">F50+G50</f>
-        <v>146.60721295088754</v>
+        <v>89.557573760808822</v>
       </c>
       <c r="G51" s="21">
         <f t="shared" ref="G51:G53" si="28">(I51-F51)/$G$2</f>
-        <v>-0.18946060923140826</v>
+        <v>-8.259494802206623</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" ref="H51:H53" si="29">F51</f>
-        <v>146.60721295088754</v>
+        <v>89.557573760808822</v>
       </c>
       <c r="I51" s="26">
         <f t="shared" ref="I51:I53" si="30">E51/$I$2</f>
-        <v>146.03883112319332</v>
+        <v>64.779089354188955</v>
       </c>
       <c r="J51" s="14">
         <f t="shared" ref="J51:J53" si="31">J50+C50</f>
@@ -5839,27 +5829,27 @@
       </c>
       <c r="K51" s="15">
         <f t="shared" ref="K51:K53" si="32">K50+H50</f>
-        <v>5339.5912653557371</v>
+        <v>5282.3883144581105</v>
       </c>
       <c r="L51" s="38">
         <f t="shared" ref="L51:L53" si="33">(D51^2)*$M$2</f>
-        <v>0.11761349297736073</v>
+        <v>0.157680634839025</v>
       </c>
       <c r="M51" s="35">
         <f t="shared" ref="M51:M52" si="34">$K$2*(J51-K51)^2</f>
-        <v>0.76763535647780556</v>
+        <v>2.8292777786039638</v>
       </c>
       <c r="N51" s="35">
         <f t="shared" ref="N51:N53" si="35">L51+M51</f>
-        <v>0.88524884945516624</v>
+        <v>2.9869584134429887</v>
       </c>
       <c r="O51" s="31">
         <f t="shared" ref="O51" si="36">N50+O50</f>
-        <v>10978.992664159317</v>
+        <v>629.66522387082966</v>
       </c>
       <c r="P51" s="39">
         <f t="shared" si="8"/>
-        <v>1.4158875620277556</v>
+        <v>1.8534826306571912</v>
       </c>
       <c r="Q51" s="39"/>
     </row>
@@ -5871,28 +5861,28 @@
       <c r="C52" s="14">
         <v>120</v>
       </c>
-      <c r="D52" s="41">
-        <v>15.9141721725463</v>
+      <c r="D52" s="8">
+        <v>8.6049670000000003</v>
       </c>
       <c r="E52" s="21">
         <f t="shared" si="26"/>
-        <v>1331.6070450889069</v>
+        <v>567.69498978108072</v>
       </c>
       <c r="F52" s="21">
         <f t="shared" si="27"/>
-        <v>146.41775234165613</v>
+        <v>81.298078958602204</v>
       </c>
       <c r="G52" s="21">
         <f t="shared" si="28"/>
-        <v>-4.419015944255146</v>
+        <v>-8.1761933268313758</v>
       </c>
       <c r="H52" s="21">
         <f t="shared" si="29"/>
-        <v>146.41775234165613</v>
+        <v>81.298078958602204</v>
       </c>
       <c r="I52" s="26">
         <f t="shared" si="30"/>
-        <v>133.16070450889069</v>
+        <v>56.769498978108075</v>
       </c>
       <c r="J52" s="14">
         <f t="shared" si="31"/>
@@ -5900,27 +5890,27 @@
       </c>
       <c r="K52" s="15">
         <f t="shared" si="32"/>
-        <v>5486.1984783066246</v>
+        <v>5371.9458882189192</v>
       </c>
       <c r="L52" s="38">
         <f t="shared" si="33"/>
-        <v>0.25326087593744701</v>
+        <v>7.4045457071089005E-2</v>
       </c>
       <c r="M52" s="35">
         <f t="shared" si="34"/>
-        <v>4.2685987956953211</v>
+        <v>9.2627242606236795</v>
       </c>
       <c r="N52" s="35">
         <f>L52+M52</f>
-        <v>4.5218596716327681</v>
+        <v>9.3367697176947679</v>
       </c>
       <c r="O52" s="31">
         <f>N51+O51</f>
-        <v>10979.877913008773</v>
+        <v>632.65218228427261</v>
       </c>
       <c r="P52" s="39">
         <f t="shared" si="8"/>
-        <v>1.3957952775701554</v>
+        <v>2.9956773845891789</v>
       </c>
       <c r="Q52" s="39"/>
     </row>
@@ -5932,28 +5922,28 @@
       <c r="C53" s="14">
         <v>120</v>
       </c>
-      <c r="D53" s="41">
-        <v>25.394557952880799</v>
+      <c r="D53" s="8">
+        <v>213.36166700000001</v>
       </c>
       <c r="E53" s="21">
         <f t="shared" si="26"/>
-        <v>1196.174563247434</v>
+        <v>494.83569982247855</v>
       </c>
       <c r="F53" s="21">
         <f t="shared" si="27"/>
-        <v>141.99873639740099</v>
+        <v>73.121885631770823</v>
       </c>
       <c r="G53" s="21">
         <f t="shared" si="28"/>
-        <v>-7.4604266908858632</v>
+        <v>-7.8794385498409882</v>
       </c>
       <c r="H53" s="21">
         <f t="shared" si="29"/>
-        <v>141.99873639740099</v>
+        <v>73.121885631770823</v>
       </c>
       <c r="I53" s="26">
         <f t="shared" si="30"/>
-        <v>119.6174563247434</v>
+        <v>49.483569982247857</v>
       </c>
       <c r="J53" s="14">
         <f t="shared" si="31"/>
@@ -5961,27 +5951,27 @@
       </c>
       <c r="K53" s="15">
         <f t="shared" si="32"/>
-        <v>5632.6162306482811</v>
+        <v>5453.243967177521</v>
       </c>
       <c r="L53" s="38">
         <f t="shared" si="33"/>
-        <v>0.64488357362222148</v>
+        <v>45.523200945018893</v>
       </c>
       <c r="M53" s="31">
         <f>$K$2*(J53-K53)^2</f>
-        <v>10.546233907128716</v>
+        <v>22.793701087988442</v>
       </c>
       <c r="N53" s="35">
         <f t="shared" si="35"/>
-        <v>11.191117480750938</v>
+        <v>68.316902033007338</v>
       </c>
       <c r="O53" s="31">
         <f>N52+O52</f>
-        <v>10984.399772680406</v>
+        <v>641.98895200196739</v>
       </c>
       <c r="P53" s="39">
         <f t="shared" si="8"/>
-        <v>0.9678888061646701</v>
+        <v>4.3951152134415494</v>
       </c>
       <c r="Q53" s="39"/>
     </row>
@@ -5997,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6D948-080B-4601-B7CC-B81B14A825F2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6010,20 +6000,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DDF011-5ED4-4060-9450-D6A520221E0D}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D2:D48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30" style="3" customWidth="1"/>
     <col min="3" max="3" width="44" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -6037,7 +6028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>259.68109199999998</v>
       </c>
@@ -6047,11 +6038,12 @@
       <c r="C2" s="18">
         <v>257.87345900000003</v>
       </c>
-      <c r="D2" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="18">
+        <v>159.20004272460901</v>
+      </c>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>210.91152199999999</v>
       </c>
@@ -6061,11 +6053,12 @@
       <c r="C3" s="18">
         <v>209.57297500000001</v>
       </c>
-      <c r="D3" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="18">
+        <v>160.44801330566401</v>
+      </c>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>171.350841</v>
       </c>
@@ -6075,11 +6068,12 @@
       <c r="C4" s="18">
         <v>170.26967400000001</v>
       </c>
-      <c r="D4" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="18">
+        <v>161.414306640625</v>
+      </c>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>137.64783800000001</v>
       </c>
@@ -6089,11 +6083,12 @@
       <c r="C5" s="18">
         <v>140.45232999999999</v>
       </c>
-      <c r="D5" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="18">
+        <v>155.20587158203099</v>
+      </c>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>116.813367</v>
       </c>
@@ -6103,11 +6098,12 @@
       <c r="C6" s="18">
         <v>119.747095</v>
       </c>
-      <c r="D6" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="18">
+        <v>156.13349914550699</v>
+      </c>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>106.903503</v>
       </c>
@@ -6117,11 +6113,12 @@
       <c r="C7" s="18">
         <v>106.932964</v>
       </c>
-      <c r="D7" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="18">
+        <v>153.45549011230401</v>
+      </c>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>99.212434000000002</v>
       </c>
@@ -6131,11 +6128,12 @@
       <c r="C8" s="18">
         <v>100.567978</v>
       </c>
-      <c r="D8" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="18">
+        <v>148.97592163085901</v>
+      </c>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>100.905815</v>
       </c>
@@ -6145,11 +6143,12 @@
       <c r="C9" s="18">
         <v>98.947665999999998</v>
       </c>
-      <c r="D9" s="41">
-        <v>27.764543533325099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>143.26034545898401</v>
+      </c>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>101.574658</v>
       </c>
@@ -6159,11 +6158,12 @@
       <c r="C10" s="18">
         <v>100.58298000000001</v>
       </c>
-      <c r="D10" s="41">
-        <v>93.892364501953097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="18">
+        <v>137.49542236328099</v>
+      </c>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>103.55455499999999</v>
       </c>
@@ -6173,11 +6173,12 @@
       <c r="C11" s="18">
         <v>104.07507699999999</v>
       </c>
-      <c r="D11" s="41">
-        <v>93.892364501953097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="18">
+        <v>129.39993286132801</v>
+      </c>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>111.824151</v>
       </c>
@@ -6187,11 +6188,12 @@
       <c r="C12" s="18">
         <v>108.240358</v>
       </c>
-      <c r="D12" s="41">
-        <v>162.36714172363199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="18">
+        <v>120.729293823242</v>
+      </c>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>108.795968</v>
       </c>
@@ -6201,11 +6203,12 @@
       <c r="C13" s="18">
         <v>112.41003000000001</v>
       </c>
-      <c r="D13" s="41">
-        <v>470.28668212890602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="18">
+        <v>113.084747314453</v>
+      </c>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>119.52606900000001</v>
       </c>
@@ -6215,11 +6218,12 @@
       <c r="C14" s="18">
         <v>115.965197</v>
       </c>
-      <c r="D14" s="41">
-        <v>479.18441772460898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="18">
+        <v>106.728103637695</v>
+      </c>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>115.227715</v>
       </c>
@@ -6229,11 +6233,12 @@
       <c r="C15" s="18">
         <v>118.76067999999999</v>
       </c>
-      <c r="D15" s="41">
-        <v>481.42630004882801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="18">
+        <v>101.717529296875</v>
+      </c>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>119.91098700000001</v>
       </c>
@@ -6243,11 +6248,12 @@
       <c r="C16" s="18">
         <v>120.641251</v>
       </c>
-      <c r="D16" s="41">
-        <v>483.40570068359301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="18">
+        <v>98.268241882324205</v>
+      </c>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>122.385437</v>
       </c>
@@ -6257,11 +6263,12 @@
       <c r="C17" s="18">
         <v>121.7003</v>
       </c>
-      <c r="D17" s="41">
-        <v>484.34115600585898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="18">
+        <v>97.203788757324205</v>
+      </c>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>124.69295099999999</v>
       </c>
@@ -6271,11 +6278,12 @@
       <c r="C18" s="18">
         <v>122.056713</v>
       </c>
-      <c r="D18" s="41">
-        <v>457.88311767578102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="18">
+        <v>100.565788269042</v>
+      </c>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>117.84640899999999</v>
       </c>
@@ -6285,11 +6293,12 @@
       <c r="C19" s="18">
         <v>121.98632600000001</v>
       </c>
-      <c r="D19" s="41">
-        <v>22.655143737792901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="18">
+        <v>103.17066192626901</v>
+      </c>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>119.107401</v>
       </c>
@@ -6299,11 +6308,12 @@
       <c r="C20" s="18">
         <v>121.622893</v>
       </c>
-      <c r="D20" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="18">
+        <v>105.162101745605</v>
+      </c>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>124.291034</v>
       </c>
@@ -6313,11 +6323,12 @@
       <c r="C21" s="18">
         <v>121.25402200000001</v>
       </c>
-      <c r="D21" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="18">
+        <v>106.73468017578099</v>
+      </c>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>121.249171</v>
       </c>
@@ -6327,11 +6338,12 @@
       <c r="C22" s="18">
         <v>121.035872</v>
       </c>
-      <c r="D22" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="18">
+        <v>109.48015594482401</v>
+      </c>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>125.60300700000001</v>
       </c>
@@ -6341,11 +6353,12 @@
       <c r="C23" s="18">
         <v>121.103286</v>
       </c>
-      <c r="D23" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="18">
+        <v>113.950477600097</v>
+      </c>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>120.210285</v>
       </c>
@@ -6355,11 +6368,12 @@
       <c r="C24" s="18">
         <v>121.6123</v>
       </c>
-      <c r="D24" s="41">
-        <v>3.23890161514282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="18">
+        <v>119.026634216308</v>
+      </c>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>118.79460899999999</v>
       </c>
@@ -6369,11 +6383,12 @@
       <c r="C25" s="18">
         <v>122.455393</v>
       </c>
-      <c r="D25" s="41">
-        <v>4.9605517387390101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="18">
+        <v>123.488891601562</v>
+      </c>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>122.119877</v>
       </c>
@@ -6383,11 +6398,12 @@
       <c r="C26" s="18">
         <v>123.631118</v>
       </c>
-      <c r="D26" s="41">
-        <v>9.9868478775024396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="18">
+        <v>127.197860717773</v>
+      </c>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>127.64285099999999</v>
       </c>
@@ -6397,11 +6413,12 @@
       <c r="C27" s="18">
         <v>125.069901</v>
       </c>
-      <c r="D27" s="41">
-        <v>16.399755477905199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="18">
+        <v>128.65734863281199</v>
+      </c>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>126.831763</v>
       </c>
@@ -6411,11 +6428,12 @@
       <c r="C28" s="18">
         <v>126.46213400000001</v>
       </c>
-      <c r="D28" s="41">
-        <v>24.5699138641357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="18">
+        <v>128.27359008789</v>
+      </c>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>128.09689900000001</v>
       </c>
@@ -6425,11 +6443,12 @@
       <c r="C29" s="18">
         <v>127.365476</v>
       </c>
-      <c r="D29" s="41">
-        <v>35.96675491333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="18">
+        <v>125.16887664794901</v>
+      </c>
+      <c r="E29" s="40"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>124.572547</v>
       </c>
@@ -6439,11 +6458,12 @@
       <c r="C30" s="18">
         <v>127.424672</v>
       </c>
-      <c r="D30" s="41">
-        <v>53.024024963378899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="18">
+        <v>125.88116455078099</v>
+      </c>
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>129.667383</v>
       </c>
@@ -6453,11 +6473,12 @@
       <c r="C31" s="18">
         <v>125.990233</v>
       </c>
-      <c r="D31" s="41">
-        <v>78.592033386230398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="18">
+        <v>126.934036254882</v>
+      </c>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>123.09179</v>
       </c>
@@ -6467,11 +6488,12 @@
       <c r="C32" s="18">
         <v>122.600736</v>
       </c>
-      <c r="D32" s="41">
-        <v>116.052864074707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="18">
+        <v>128.27635192871</v>
+      </c>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>118.535635</v>
       </c>
@@ -6481,11 +6503,12 @@
       <c r="C33" s="18">
         <v>116.664912</v>
       </c>
-      <c r="D33" s="41">
-        <v>154.78477478027301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="18">
+        <v>130.247802734375</v>
+      </c>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>105.193628</v>
       </c>
@@ -6495,11 +6518,12 @@
       <c r="C34" s="18">
         <v>107.836264</v>
       </c>
-      <c r="D34" s="41">
-        <v>174.75248718261699</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="18">
+        <v>127.60678100585901</v>
+      </c>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>94.023910999999998</v>
       </c>
@@ -6509,11 +6533,12 @@
       <c r="C35" s="18">
         <v>95.916037000000003</v>
       </c>
-      <c r="D35" s="41">
-        <v>200.77067565917901</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="18">
+        <v>125.055908203125</v>
+      </c>
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>84.703581</v>
       </c>
@@ -6523,11 +6548,12 @@
       <c r="C36" s="18">
         <v>81.105124000000004</v>
       </c>
-      <c r="D36" s="41">
-        <v>226.31947326660099</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="18">
+        <v>122.596504211425</v>
+      </c>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>58.941260999999997</v>
       </c>
@@ -6537,11 +6563,12 @@
       <c r="C37" s="18">
         <v>64.145503000000005</v>
       </c>
-      <c r="D37" s="41">
-        <v>241.75305175781199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="18">
+        <v>120.23069000244099</v>
+      </c>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>48.466368000000003</v>
       </c>
@@ -6551,11 +6578,12 @@
       <c r="C38" s="18">
         <v>46.215525</v>
       </c>
-      <c r="D38" s="41">
-        <v>242.60469055175699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="18">
+        <v>117.80418395996</v>
+      </c>
+      <c r="E38" s="40"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>25.639907999999998</v>
       </c>
@@ -6565,11 +6593,12 @@
       <c r="C39" s="18">
         <v>29.053896000000002</v>
       </c>
-      <c r="D39" s="41">
-        <v>234.89529418945301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="18">
+        <v>114.69113922119099</v>
+      </c>
+      <c r="E39" s="40"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>11.491186000000001</v>
       </c>
@@ -6579,11 +6608,12 @@
       <c r="C40" s="18">
         <v>14.514097</v>
       </c>
-      <c r="D40" s="41">
-        <v>163.90579223632801</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="18">
+        <v>111.552642822265</v>
+      </c>
+      <c r="E40" s="40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>14.059443</v>
       </c>
@@ -6593,11 +6623,12 @@
       <c r="C41" s="3">
         <v>4.5074569999999996</v>
       </c>
-      <c r="D41" s="41">
-        <v>87.643875122070298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="18">
+        <v>108.39971923828099</v>
+      </c>
+      <c r="E41" s="40"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>9.0803580000000004</v>
       </c>
@@ -6607,11 +6638,12 @@
       <c r="C42" s="3">
         <v>0</v>
       </c>
-      <c r="D42" s="41">
-        <v>37.030963897705</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="18">
+        <v>105.153831481933</v>
+      </c>
+      <c r="E42" s="40"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>9.4616699999999998</v>
       </c>
@@ -6621,11 +6653,12 @@
       <c r="C43" s="3">
         <v>0</v>
       </c>
-      <c r="D43" s="41">
-        <v>17.8259468078613</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="18">
+        <v>101.9501953125</v>
+      </c>
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>8.4387889999999999</v>
       </c>
@@ -6635,11 +6668,12 @@
       <c r="C44" s="3">
         <v>0</v>
       </c>
-      <c r="D44" s="41">
-        <v>10.9852705001831</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="18">
+        <v>98.768112182617102</v>
+      </c>
+      <c r="E44" s="40"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>9.2370800000000006</v>
       </c>
@@ -6649,11 +6683,12 @@
       <c r="C45" s="3">
         <v>0</v>
       </c>
-      <c r="D45" s="41">
-        <v>9.2381839752197195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="18">
+        <v>95.595451354980398</v>
+      </c>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>12.557095</v>
       </c>
@@ -6663,11 +6698,12 @@
       <c r="C46" s="3">
         <v>0</v>
       </c>
-      <c r="D46" s="41">
-        <v>10.8449754714965</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="18">
+        <v>92.422157287597599</v>
+      </c>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>8.6049670000000003</v>
       </c>
@@ -6677,11 +6713,12 @@
       <c r="C47" s="18">
         <v>0</v>
       </c>
-      <c r="D47" s="41">
-        <v>15.9141721725463</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="18">
+        <v>89.239685058593693</v>
+      </c>
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>213.36166700000001</v>
       </c>
@@ -6691,12 +6728,10 @@
       <c r="C48" s="3">
         <v>466.97912300000002</v>
       </c>
-      <c r="D48" s="41">
-        <v>25.394557952880799</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="41"/>
+      <c r="D48" s="18">
+        <v>86.043281555175696</v>
+      </c>
+      <c r="E48" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6708,7 +6743,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6762,6 +6797,17 @@
         <v>619.82443721235416</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>831.97991374022649</v>
+      </c>
+      <c r="C5" s="3">
+        <v>703.70482434616747</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
     </row>
